--- a/waist_Data.xlsx
+++ b/waist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>454.2914428710938</v>
+        <v>361.9454956054688</v>
       </c>
       <c r="C2" t="n">
-        <v>450.3333129882812</v>
+        <v>356.88916015625</v>
       </c>
       <c r="D2" t="n">
-        <v>448.22802734375</v>
+        <v>354.914794921875</v>
       </c>
       <c r="E2" t="n">
-        <v>447.2363891601562</v>
+        <v>353.791748046875</v>
       </c>
       <c r="F2" t="n">
-        <v>446.1007080078125</v>
+        <v>353.3651428222656</v>
       </c>
       <c r="G2" t="n">
-        <v>445.115478515625</v>
+        <v>353.2453002929688</v>
       </c>
       <c r="H2" t="n">
-        <v>444.2317199707031</v>
+        <v>353.3312683105469</v>
       </c>
       <c r="I2" t="n">
-        <v>443.3549499511719</v>
+        <v>353.5366821289062</v>
       </c>
       <c r="J2" t="n">
-        <v>442.0928955078125</v>
+        <v>353.7457885742188</v>
       </c>
       <c r="K2" t="n">
-        <v>440.1438903808594</v>
+        <v>353.9533081054688</v>
       </c>
       <c r="L2" t="n">
-        <v>438.339599609375</v>
+        <v>354.1869812011719</v>
       </c>
       <c r="M2" t="n">
-        <v>436.0993957519531</v>
+        <v>354.422119140625</v>
       </c>
       <c r="N2" t="n">
-        <v>433.8244934082031</v>
+        <v>354.5262145996094</v>
       </c>
       <c r="O2" t="n">
-        <v>431.752685546875</v>
+        <v>354.56982421875</v>
       </c>
       <c r="P2" t="n">
-        <v>430.6525268554688</v>
+        <v>354.6018676757812</v>
       </c>
       <c r="Q2" t="n">
-        <v>429.8955078125</v>
+        <v>354.6148071289062</v>
       </c>
       <c r="R2" t="n">
-        <v>429.0766906738281</v>
+        <v>354.6304321289062</v>
       </c>
       <c r="S2" t="n">
-        <v>427.9052124023438</v>
+        <v>354.6453247070312</v>
       </c>
       <c r="T2" t="n">
-        <v>426.7971801757812</v>
+        <v>354.6607971191406</v>
       </c>
       <c r="U2" t="n">
-        <v>424.718505859375</v>
+        <v>354.6761474609375</v>
       </c>
       <c r="V2" t="n">
-        <v>422.1414184570312</v>
+        <v>354.7003784179688</v>
       </c>
       <c r="W2" t="n">
-        <v>420.4169311523438</v>
+        <v>354.7231750488281</v>
       </c>
       <c r="X2" t="n">
-        <v>418.8025512695312</v>
+        <v>354.7479553222656</v>
       </c>
       <c r="Y2" t="n">
-        <v>417.2955017089844</v>
+        <v>354.7882690429688</v>
       </c>
       <c r="Z2" t="n">
-        <v>416.3611450195312</v>
+        <v>354.8274536132812</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.5905456542969</v>
+        <v>354.9468688964844</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.0179748535156</v>
+        <v>355.0914916992188</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.457763671875</v>
+        <v>355.2455139160156</v>
       </c>
       <c r="AD2" t="n">
-        <v>413.4298095703125</v>
+        <v>355.3295593261719</v>
       </c>
       <c r="AE2" t="n">
-        <v>411.3232116699219</v>
+        <v>355.4019775390625</v>
       </c>
       <c r="AF2" t="n">
-        <v>409.3575439453125</v>
+        <v>355.4320678710938</v>
       </c>
       <c r="AG2" t="n">
-        <v>408.161376953125</v>
+        <v>355.4117126464844</v>
       </c>
       <c r="AH2" t="n">
-        <v>407.6828308105469</v>
+        <v>355.3944091796875</v>
       </c>
       <c r="AI2" t="n">
-        <v>407.5536499023438</v>
+        <v>355.3799133300781</v>
       </c>
       <c r="AJ2" t="n">
-        <v>407.5274658203125</v>
+        <v>355.3680725097656</v>
       </c>
       <c r="AK2" t="n">
-        <v>407.6816101074219</v>
+        <v>355.3589477539062</v>
       </c>
       <c r="AL2" t="n">
-        <v>407.7266845703125</v>
+        <v>355.3427734375</v>
       </c>
       <c r="AM2" t="n">
-        <v>407.7357788085938</v>
+        <v>355.3302001953125</v>
       </c>
       <c r="AN2" t="n">
-        <v>407.4892883300781</v>
+        <v>355.3233032226562</v>
       </c>
       <c r="AO2" t="n">
-        <v>407.1258544921875</v>
+        <v>355.31591796875</v>
       </c>
       <c r="AP2" t="n">
-        <v>406.3675537109375</v>
+        <v>355.2997436523438</v>
       </c>
       <c r="AQ2" t="n">
-        <v>405.6401977539062</v>
+        <v>356.6940307617188</v>
       </c>
       <c r="AR2" t="n">
-        <v>405.0288696289062</v>
+        <v>363.22607421875</v>
       </c>
       <c r="AS2" t="n">
-        <v>404.5579833984375</v>
+        <v>367.5794067382812</v>
       </c>
       <c r="AT2" t="n">
-        <v>404.0299072265625</v>
+        <v>378.1580810546875</v>
       </c>
       <c r="AU2" t="n">
-        <v>403.6881103515625</v>
+        <v>382.9012756347656</v>
       </c>
       <c r="AV2" t="n">
-        <v>403.5949096679688</v>
+        <v>386.1494750976562</v>
       </c>
       <c r="AW2" t="n">
-        <v>403.5574951171875</v>
+        <v>389.7178344726562</v>
       </c>
       <c r="AX2" t="n">
-        <v>403.4467163085938</v>
+        <v>393.4382934570312</v>
       </c>
       <c r="AY2" t="n">
-        <v>403.2857971191406</v>
+        <v>398.7189331054688</v>
       </c>
       <c r="AZ2" t="n">
-        <v>403.089111328125</v>
+        <v>405.776123046875</v>
       </c>
       <c r="BA2" t="n">
-        <v>402.6198120117188</v>
+        <v>411.4965209960938</v>
       </c>
       <c r="BB2" t="n">
-        <v>401.7949829101562</v>
+        <v>416.0300903320312</v>
       </c>
       <c r="BC2" t="n">
-        <v>400.9740905761719</v>
+        <v>419.5421752929688</v>
       </c>
       <c r="BD2" t="n">
-        <v>400.1350402832031</v>
+        <v>422.765380859375</v>
       </c>
       <c r="BE2" t="n">
-        <v>399.6832275390625</v>
+        <v>426.2835083007812</v>
       </c>
       <c r="BF2" t="n">
-        <v>399.2183837890625</v>
+        <v>428.1138305664062</v>
       </c>
       <c r="BG2" t="n">
-        <v>398.6871948242188</v>
+        <v>428.2359313964844</v>
       </c>
       <c r="BH2" t="n">
-        <v>397.98681640625</v>
+        <v>427.1786193847656</v>
       </c>
       <c r="BI2" t="n">
-        <v>397.134033203125</v>
+        <v>425.0228271484375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>396.0888061523438</v>
+        <v>411.5628662109375</v>
       </c>
       <c r="BK2" t="n">
-        <v>394.142822265625</v>
+        <v>400.0639343261719</v>
       </c>
       <c r="BL2" t="n">
-        <v>391.90625</v>
+        <v>392.6706237792969</v>
       </c>
       <c r="BM2" t="n">
-        <v>389.2682495117188</v>
+        <v>379.9851989746094</v>
       </c>
       <c r="BN2" t="n">
-        <v>386.191162109375</v>
+        <v>374.03759765625</v>
       </c>
       <c r="BO2" t="n">
-        <v>383.3732299804688</v>
+        <v>367.9314880371094</v>
       </c>
       <c r="BP2" t="n">
-        <v>380.503173828125</v>
+        <v>361.0411987304688</v>
       </c>
       <c r="BQ2" t="n">
-        <v>378.6322326660156</v>
+        <v>354.5824890136719</v>
       </c>
       <c r="BR2" t="n">
-        <v>377.4728088378906</v>
+        <v>348.0374755859375</v>
       </c>
       <c r="BS2" t="n">
-        <v>376.3256225585938</v>
+        <v>341.2153625488281</v>
       </c>
       <c r="BT2" t="n">
-        <v>373.07861328125</v>
+        <v>333.5361328125</v>
       </c>
       <c r="BU2" t="n">
-        <v>368.44091796875</v>
+        <v>326.2959289550781</v>
       </c>
       <c r="BV2" t="n">
-        <v>363.7064208984375</v>
+        <v>318.9836120605469</v>
       </c>
       <c r="BW2" t="n">
-        <v>359.7787475585938</v>
+        <v>313.0257263183594</v>
       </c>
       <c r="BX2" t="n">
-        <v>356.2554626464844</v>
+        <v>306.6783752441406</v>
       </c>
       <c r="BY2" t="n">
-        <v>351.5159301757812</v>
+        <v>302.5216369628906</v>
       </c>
       <c r="BZ2" t="n">
-        <v>343.6275634765625</v>
+        <v>298.4721984863281</v>
       </c>
       <c r="CA2" t="n">
-        <v>332.7380981445312</v>
+        <v>293.8433532714844</v>
       </c>
       <c r="CB2" t="n">
-        <v>324.7134704589844</v>
+        <v>288.594482421875</v>
       </c>
       <c r="CC2" t="n">
-        <v>320.6850891113281</v>
+        <v>283.4724731445312</v>
       </c>
       <c r="CD2" t="n">
-        <v>316.4717102050781</v>
+        <v>279.2862243652344</v>
       </c>
       <c r="CE2" t="n">
-        <v>311.7491760253906</v>
+        <v>275.6949462890625</v>
       </c>
       <c r="CF2" t="n">
-        <v>303.3316040039062</v>
+        <v>272.9010009765625</v>
       </c>
       <c r="CG2" t="n">
-        <v>300.0941467285156</v>
+        <v>270.2363586425781</v>
       </c>
       <c r="CH2" t="n">
-        <v>298.5083618164062</v>
+        <v>268.2457580566406</v>
       </c>
       <c r="CI2" t="n">
-        <v>297.08056640625</v>
+        <v>266.8145141601562</v>
       </c>
       <c r="CJ2" t="n">
-        <v>295.5564575195312</v>
+        <v>266.2712097167969</v>
       </c>
       <c r="CK2" t="n">
-        <v>293.9730224609375</v>
+        <v>266.9638977050781</v>
       </c>
       <c r="CL2" t="n">
-        <v>291.2081604003906</v>
+        <v>269.8554992675781</v>
       </c>
       <c r="CM2" t="n">
-        <v>290.8921813964844</v>
+        <v>274.3888244628906</v>
       </c>
       <c r="CN2" t="n">
-        <v>290.8082275390625</v>
+        <v>280.7617492675781</v>
       </c>
       <c r="CO2" t="n">
-        <v>290.8219299316406</v>
+        <v>287.1924133300781</v>
       </c>
       <c r="CP2" t="n">
-        <v>290.8466796875</v>
+        <v>293.2872009277344</v>
       </c>
       <c r="CQ2" t="n">
-        <v>290.862060546875</v>
+        <v>299.5946044921875</v>
       </c>
       <c r="CR2" t="n">
-        <v>290.8722229003906</v>
+        <v>311.2937927246094</v>
       </c>
       <c r="CS2" t="n">
-        <v>290.8765258789062</v>
+        <v>315.6548767089844</v>
       </c>
       <c r="CT2" t="n">
-        <v>289.0418395996094</v>
+        <v>320.422607421875</v>
       </c>
       <c r="CU2" t="n">
-        <v>286.7450866699219</v>
+        <v>327.9444580078125</v>
       </c>
       <c r="CV2" t="n">
-        <v>284.2783203125</v>
+        <v>337.4959106445312</v>
       </c>
       <c r="CW2" t="n">
-        <v>281.7738952636719</v>
+        <v>345.043701171875</v>
       </c>
       <c r="CX2" t="n">
-        <v>281.5695190429688</v>
+        <v>350.1697082519531</v>
       </c>
       <c r="CY2" t="n">
-        <v>281.5254821777344</v>
+        <v>354.416259765625</v>
       </c>
       <c r="CZ2" t="n">
-        <v>281.5335998535156</v>
+        <v>358.0994873046875</v>
       </c>
       <c r="DA2" t="n">
-        <v>281.5516357421875</v>
+        <v>363.288330078125</v>
       </c>
       <c r="DB2" t="n">
-        <v>281.6609802246094</v>
+        <v>374.8236694335938</v>
       </c>
       <c r="DC2" t="n">
-        <v>284.2292175292969</v>
+        <v>380.2355346679688</v>
       </c>
       <c r="DD2" t="n">
-        <v>286.7098693847656</v>
+        <v>384.4676513671875</v>
       </c>
       <c r="DE2" t="n">
-        <v>289.0829162597656</v>
+        <v>387.9461364746094</v>
       </c>
       <c r="DF2" t="n">
-        <v>290.325439453125</v>
+        <v>391.5355834960938</v>
       </c>
       <c r="DG2" t="n">
-        <v>290.1927795410156</v>
+        <v>394.9548034667969</v>
       </c>
       <c r="DH2" t="n">
-        <v>290.0792236328125</v>
+        <v>397.8499145507812</v>
       </c>
       <c r="DI2" t="n">
-        <v>289.8358154296875</v>
+        <v>398.6973266601562</v>
       </c>
       <c r="DJ2" t="n">
-        <v>289.7106323242188</v>
+        <v>399.6145324707031</v>
       </c>
       <c r="DK2" t="n">
-        <v>289.5850524902344</v>
+        <v>400.5046997070312</v>
       </c>
       <c r="DL2" t="n">
-        <v>289.5306091308594</v>
+        <v>401.3880004882812</v>
       </c>
       <c r="DM2" t="n">
-        <v>289.5633850097656</v>
+        <v>400.3496704101562</v>
       </c>
       <c r="DN2" t="n">
-        <v>291.1389465332031</v>
+        <v>397.7142639160156</v>
       </c>
       <c r="DO2" t="n">
-        <v>292.8656616210938</v>
+        <v>392.5394287109375</v>
       </c>
       <c r="DP2" t="n">
-        <v>295.1032104492188</v>
+        <v>389.0433349609375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>297.0929870605469</v>
+        <v>382.2821044921875</v>
       </c>
       <c r="DR2" t="n">
-        <v>297.1091613769531</v>
+        <v>379.5150146484375</v>
       </c>
       <c r="DS2" t="n">
-        <v>296.9957885742188</v>
+        <v>377.6087036132812</v>
       </c>
       <c r="DT2" t="n">
-        <v>295.2096862792969</v>
+        <v>373.3990478515625</v>
       </c>
       <c r="DU2" t="n">
-        <v>292.6745910644531</v>
+        <v>370.1248779296875</v>
       </c>
       <c r="DV2" t="n">
-        <v>287.3701171875</v>
+        <v>366.5173950195312</v>
       </c>
       <c r="DW2" t="n">
-        <v>286.2228698730469</v>
+        <v>361.1284790039062</v>
       </c>
       <c r="DX2" t="n">
-        <v>285.7867736816406</v>
+        <v>359.2618408203125</v>
       </c>
       <c r="DY2" t="n">
-        <v>285.6381225585938</v>
+        <v>356.4300231933594</v>
       </c>
       <c r="DZ2" t="n">
-        <v>285.6306457519531</v>
+        <v>355.8343811035156</v>
       </c>
       <c r="EA2" t="n">
-        <v>285.6258239746094</v>
+        <v>354.7168273925781</v>
       </c>
       <c r="EB2" t="n">
-        <v>285.6361083984375</v>
+        <v>352.4214477539062</v>
       </c>
       <c r="EC2" t="n">
-        <v>286.0519714355469</v>
+        <v>350.7534484863281</v>
       </c>
       <c r="ED2" t="n">
-        <v>286.3452758789062</v>
+        <v>348.4168090820312</v>
       </c>
       <c r="EE2" t="n">
-        <v>286.6622009277344</v>
+        <v>347.22998046875</v>
       </c>
       <c r="EF2" t="n">
-        <v>287.3033142089844</v>
+        <v>347.3027954101562</v>
       </c>
       <c r="EG2" t="n">
-        <v>287.9357604980469</v>
+        <v>351.2254638671875</v>
       </c>
       <c r="EH2" t="n">
-        <v>288.6642456054688</v>
+        <v>357.5464477539062</v>
       </c>
       <c r="EI2" t="n">
-        <v>289.0370178222656</v>
+        <v>358.9337768554688</v>
       </c>
       <c r="EJ2" t="n">
-        <v>289.7151184082031</v>
+        <v>359.4361572265625</v>
       </c>
       <c r="EK2" t="n">
-        <v>289.7452697753906</v>
+        <v>360.8272094726562</v>
       </c>
       <c r="EL2" t="n">
-        <v>289.2164611816406</v>
+        <v>362.7496337890625</v>
       </c>
       <c r="EM2" t="n">
-        <v>286.9949340820312</v>
+        <v>370.6560974121094</v>
       </c>
       <c r="EN2" t="n">
-        <v>284.2755432128906</v>
+        <v>373.0999145507812</v>
       </c>
       <c r="EO2" t="n">
-        <v>283.1242980957031</v>
+        <v>375.7340698242188</v>
       </c>
       <c r="EP2" t="n">
-        <v>282.4815979003906</v>
+        <v>377.4395141601562</v>
       </c>
       <c r="EQ2" t="n">
-        <v>282.0647277832031</v>
+        <v>380.5879211425781</v>
       </c>
       <c r="ER2" t="n">
-        <v>282.039306640625</v>
+        <v>381.3421325683594</v>
       </c>
       <c r="ES2" t="n">
-        <v>282.1466369628906</v>
+        <v>380.9261474609375</v>
       </c>
       <c r="ET2" t="n">
-        <v>282.2350463867188</v>
+        <v>373.4146728515625</v>
       </c>
       <c r="EU2" t="n">
-        <v>282.3847961425781</v>
+        <v>365.6574096679688</v>
       </c>
       <c r="EV2" t="n">
-        <v>282.4843444824219</v>
+        <v>358.9800415039062</v>
       </c>
       <c r="EW2" t="n">
-        <v>282.5375671386719</v>
+        <v>349.560302734375</v>
       </c>
       <c r="EX2" t="n">
-        <v>282.5695495605469</v>
+        <v>347.3019714355469</v>
       </c>
       <c r="EY2" t="n">
-        <v>282.6134338378906</v>
+        <v>346.520263671875</v>
       </c>
       <c r="EZ2" t="n">
-        <v>282.7538757324219</v>
+        <v>343.3994140625</v>
       </c>
       <c r="FA2" t="n">
-        <v>282.8243408203125</v>
+        <v>331.1531066894531</v>
       </c>
       <c r="FB2" t="n">
-        <v>282.8411560058594</v>
+        <v>324.75732421875</v>
       </c>
       <c r="FC2" t="n">
-        <v>282.804443359375</v>
+        <v>316.0400390625</v>
       </c>
       <c r="FD2" t="n">
-        <v>282.749755859375</v>
+        <v>313.9115295410156</v>
       </c>
       <c r="FE2" t="n">
-        <v>282.6719970703125</v>
+        <v>312.65087890625</v>
       </c>
       <c r="FF2" t="n">
-        <v>282.6276550292969</v>
+        <v>312.6625671386719</v>
       </c>
       <c r="FG2" t="n">
-        <v>282.5967102050781</v>
+        <v>312.1298522949219</v>
       </c>
       <c r="FH2" t="n">
-        <v>282.547607421875</v>
+        <v>306.4906005859375</v>
       </c>
       <c r="FI2" t="n">
-        <v>282.3796997070312</v>
+        <v>304.5022583007812</v>
       </c>
       <c r="FJ2" t="n">
-        <v>282.287109375</v>
+        <v>306.8185424804688</v>
       </c>
       <c r="FK2" t="n">
-        <v>282.2255249023438</v>
+        <v>317.0169067382812</v>
       </c>
       <c r="FL2" t="n">
-        <v>282.1659851074219</v>
+        <v>321.6190795898438</v>
       </c>
       <c r="FM2" t="n">
-        <v>282.1162414550781</v>
+        <v>330.7239074707031</v>
       </c>
       <c r="FN2" t="n">
-        <v>281.5193786621094</v>
+        <v>340.6774291992188</v>
       </c>
       <c r="FO2" t="n">
-        <v>282.142333984375</v>
+        <v>345.1174926757812</v>
       </c>
       <c r="FP2" t="n">
-        <v>285.5302734375</v>
+        <v>349.2803955078125</v>
       </c>
       <c r="FQ2" t="n">
-        <v>289.88232421875</v>
+        <v>357.6405639648438</v>
       </c>
       <c r="FR2" t="n">
-        <v>291.3584594726562</v>
+        <v>362.9630126953125</v>
       </c>
       <c r="FS2" t="n">
-        <v>295.60205078125</v>
+        <v>371.0191040039062</v>
       </c>
       <c r="FT2" t="n">
-        <v>306.5110778808594</v>
+        <v>376.2156372070312</v>
       </c>
       <c r="FU2" t="n">
-        <v>311.8202819824219</v>
+        <v>377.6774291992188</v>
       </c>
       <c r="FV2" t="n">
-        <v>322.852294921875</v>
+        <v>377.9767456054688</v>
       </c>
       <c r="FW2" t="n">
-        <v>330.8813781738281</v>
+        <v>373.3761291503906</v>
       </c>
       <c r="FX2" t="n">
-        <v>339.4747924804688</v>
+        <v>371.75146484375</v>
       </c>
       <c r="FY2" t="n">
-        <v>344.7588500976562</v>
+        <v>378.3228149414062</v>
       </c>
       <c r="FZ2" t="n">
-        <v>348.1993408203125</v>
+        <v>388.1304626464844</v>
       </c>
       <c r="GA2" t="n">
-        <v>349.7019958496094</v>
+        <v>422.8576049804688</v>
       </c>
       <c r="GB2" t="n">
-        <v>351.6830444335938</v>
+        <v>425.3259887695312</v>
       </c>
       <c r="GC2" t="n">
-        <v>352.2472839355469</v>
+        <v>391.9214477539062</v>
       </c>
       <c r="GD2" t="n">
-        <v>353.8791198730469</v>
+        <v>367.4429321289062</v>
       </c>
       <c r="GE2" t="n">
-        <v>354.1283569335938</v>
+        <v>335.6026611328125</v>
       </c>
       <c r="GF2" t="n">
-        <v>344.7473754882812</v>
+        <v>326.8737182617188</v>
       </c>
       <c r="GG2" t="n">
-        <v>335.2216186523438</v>
+        <v>323.4668579101562</v>
       </c>
       <c r="GH2" t="n">
-        <v>323.6853637695312</v>
+        <v>319.1416320800781</v>
       </c>
       <c r="GI2" t="n">
-        <v>315.7147521972656</v>
+        <v>313.9631652832031</v>
       </c>
       <c r="GJ2" t="n">
-        <v>305.1440734863281</v>
+        <v>309.2627868652344</v>
       </c>
       <c r="GK2" t="n">
-        <v>299.7118530273438</v>
+        <v>301.4671630859375</v>
       </c>
       <c r="GL2" t="n">
-        <v>292.5927429199219</v>
+        <v>298.6526489257812</v>
       </c>
       <c r="GM2" t="n">
-        <v>284.2235412597656</v>
+        <v>296.2663269042969</v>
       </c>
       <c r="GN2" t="n">
-        <v>276.4930725097656</v>
+        <v>294.3431396484375</v>
       </c>
       <c r="GO2" t="n">
-        <v>275.0139465332031</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>274.6117248535156</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>273.9695129394531</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>273.3934936523438</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>273.6530151367188</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>298.7810668945312</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>324.9630126953125</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>346.2714233398438</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>359.3392944335938</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>365.3661499023438</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>404.5800170898438</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>429.611083984375</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>441.6765747070312</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>456.5621643066406</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>471.2768859863281</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>472.9490966796875</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>468.8494873046875</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>470.8074645996094</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>484.0251159667969</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>491.6332397460938</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>497.9993896484375</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>494.0640869140625</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>475.109375</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>461.2402038574219</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>475.6991882324219</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>458.4405517578125</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>411.4271850585938</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>396.9759521484375</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>408.0145263671875</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>412.8342895507812</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>412.0464477539062</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>412.1780395507812</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>411.9701538085938</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>411.53955078125</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>411.1619262695312</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>409.7127990722656</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>411.0721130371094</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>412.8834228515625</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>411.6632385253906</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>410.0521240234375</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>408.5525817871094</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>407.731689453125</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>409.0543212890625</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>414.2720947265625</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>415.9050903320312</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>415.7715454101562</v>
-      </c>
-      <c r="II2" t="n">
-        <v>409.1097412109375</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>404.7457275390625</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>402.6656799316406</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>402.6910400390625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>402.841552734375</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>402.8717651367188</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>406.5285034179688</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>409.0564575195312</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>411.2044982910156</v>
+        <v>293.8088073730469</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>431.3786010742188</v>
+        <v>483.4285888671875</v>
       </c>
       <c r="C3" t="n">
-        <v>421.2283325195312</v>
+        <v>476.3956298828125</v>
       </c>
       <c r="D3" t="n">
-        <v>414.3336791992188</v>
+        <v>472.849365234375</v>
       </c>
       <c r="E3" t="n">
-        <v>411.6407165527344</v>
+        <v>471.3775329589844</v>
       </c>
       <c r="F3" t="n">
-        <v>409.6571960449219</v>
+        <v>470.7597351074219</v>
       </c>
       <c r="G3" t="n">
-        <v>408.0316772460938</v>
+        <v>468.8630065917969</v>
       </c>
       <c r="H3" t="n">
-        <v>406.8416137695312</v>
+        <v>467.6593933105469</v>
       </c>
       <c r="I3" t="n">
-        <v>402.7978210449219</v>
+        <v>466.8346557617188</v>
       </c>
       <c r="J3" t="n">
-        <v>399.523681640625</v>
+        <v>464.3891906738281</v>
       </c>
       <c r="K3" t="n">
-        <v>396.8214721679688</v>
+        <v>462.3525390625</v>
       </c>
       <c r="L3" t="n">
-        <v>394.8718566894531</v>
+        <v>460.7260131835938</v>
       </c>
       <c r="M3" t="n">
-        <v>394.7042846679688</v>
+        <v>459.4453430175781</v>
       </c>
       <c r="N3" t="n">
-        <v>394.1732177734375</v>
+        <v>458.4577331542969</v>
       </c>
       <c r="O3" t="n">
-        <v>393.1949462890625</v>
+        <v>457.6671447753906</v>
       </c>
       <c r="P3" t="n">
-        <v>391.9172668457031</v>
+        <v>457.0345458984375</v>
       </c>
       <c r="Q3" t="n">
-        <v>390.7567749023438</v>
+        <v>456.533447265625</v>
       </c>
       <c r="R3" t="n">
-        <v>389.5664978027344</v>
+        <v>456.1414184570312</v>
       </c>
       <c r="S3" t="n">
-        <v>388.4178466796875</v>
+        <v>455.8355712890625</v>
       </c>
       <c r="T3" t="n">
-        <v>387.3705749511719</v>
+        <v>455.601806640625</v>
       </c>
       <c r="U3" t="n">
-        <v>386.2847595214844</v>
+        <v>455.4189453125</v>
       </c>
       <c r="V3" t="n">
-        <v>385.3930358886719</v>
+        <v>455.2753295898438</v>
       </c>
       <c r="W3" t="n">
-        <v>383.4862060546875</v>
+        <v>455.1355895996094</v>
       </c>
       <c r="X3" t="n">
-        <v>382.4193115234375</v>
+        <v>455.0176696777344</v>
       </c>
       <c r="Y3" t="n">
-        <v>381.9683227539062</v>
+        <v>454.8934020996094</v>
       </c>
       <c r="Z3" t="n">
-        <v>383.6051330566406</v>
+        <v>454.7094421386719</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.5025939941406</v>
+        <v>456.3787841796875</v>
       </c>
       <c r="AB3" t="n">
-        <v>387.3819274902344</v>
+        <v>457.5744018554688</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.9338073730469</v>
+        <v>460.085693359375</v>
       </c>
       <c r="AD3" t="n">
-        <v>390.1398315429688</v>
+        <v>462.0587768554688</v>
       </c>
       <c r="AE3" t="n">
-        <v>389.5361633300781</v>
+        <v>463.5597839355469</v>
       </c>
       <c r="AF3" t="n">
-        <v>387.8617248535156</v>
+        <v>464.7167358398438</v>
       </c>
       <c r="AG3" t="n">
-        <v>386.1225891113281</v>
+        <v>463.9565124511719</v>
       </c>
       <c r="AH3" t="n">
-        <v>385.4633178710938</v>
+        <v>463.3754272460938</v>
       </c>
       <c r="AI3" t="n">
-        <v>385.3918151855469</v>
+        <v>462.9307861328125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>385.3289794921875</v>
+        <v>462.5979919433594</v>
       </c>
       <c r="AK3" t="n">
-        <v>385.1630859375</v>
+        <v>462.3347473144531</v>
       </c>
       <c r="AL3" t="n">
-        <v>383.5555725097656</v>
+        <v>461.9225769042969</v>
       </c>
       <c r="AM3" t="n">
-        <v>382.4208374023438</v>
+        <v>461.6763000488281</v>
       </c>
       <c r="AN3" t="n">
-        <v>381.2937927246094</v>
+        <v>461.5621643066406</v>
       </c>
       <c r="AO3" t="n">
-        <v>380.51611328125</v>
+        <v>461.4482421875</v>
       </c>
       <c r="AP3" t="n">
-        <v>380.0970153808594</v>
+        <v>461.0986938476562</v>
       </c>
       <c r="AQ3" t="n">
-        <v>379.6651611328125</v>
+        <v>458.3150939941406</v>
       </c>
       <c r="AR3" t="n">
-        <v>379.2607421875</v>
+        <v>453.4555358886719</v>
       </c>
       <c r="AS3" t="n">
-        <v>378.9970397949219</v>
+        <v>451.1574096679688</v>
       </c>
       <c r="AT3" t="n">
-        <v>378.813232421875</v>
+        <v>447.727294921875</v>
       </c>
       <c r="AU3" t="n">
-        <v>378.7331848144531</v>
+        <v>446.064208984375</v>
       </c>
       <c r="AV3" t="n">
-        <v>378.6918029785156</v>
+        <v>444.2611083984375</v>
       </c>
       <c r="AW3" t="n">
-        <v>378.6082153320312</v>
+        <v>444.1848754882812</v>
       </c>
       <c r="AX3" t="n">
-        <v>378.5259399414062</v>
+        <v>442.2205810546875</v>
       </c>
       <c r="AY3" t="n">
-        <v>378.3188171386719</v>
+        <v>440.4414978027344</v>
       </c>
       <c r="AZ3" t="n">
-        <v>378.1964721679688</v>
+        <v>440.6687622070312</v>
       </c>
       <c r="BA3" t="n">
-        <v>378.1021423339844</v>
+        <v>440.725341796875</v>
       </c>
       <c r="BB3" t="n">
-        <v>377.885009765625</v>
+        <v>440.4603881835938</v>
       </c>
       <c r="BC3" t="n">
-        <v>377.6462707519531</v>
+        <v>439.6653747558594</v>
       </c>
       <c r="BD3" t="n">
-        <v>377.4088134765625</v>
+        <v>438.6869201660156</v>
       </c>
       <c r="BE3" t="n">
-        <v>377.24853515625</v>
+        <v>437.4100036621094</v>
       </c>
       <c r="BF3" t="n">
-        <v>377.2837829589844</v>
+        <v>436.7134399414062</v>
       </c>
       <c r="BG3" t="n">
-        <v>377.4822692871094</v>
+        <v>436.3292846679688</v>
       </c>
       <c r="BH3" t="n">
-        <v>377.7123718261719</v>
+        <v>435.0871887207031</v>
       </c>
       <c r="BI3" t="n">
-        <v>377.7950439453125</v>
+        <v>434.1338195800781</v>
       </c>
       <c r="BJ3" t="n">
-        <v>377.9630432128906</v>
+        <v>433.7370910644531</v>
       </c>
       <c r="BK3" t="n">
-        <v>378.0747985839844</v>
+        <v>432.793212890625</v>
       </c>
       <c r="BL3" t="n">
-        <v>378.2474670410156</v>
+        <v>432.4536743164062</v>
       </c>
       <c r="BM3" t="n">
-        <v>378.5087890625</v>
+        <v>433.3291320800781</v>
       </c>
       <c r="BN3" t="n">
-        <v>378.9899597167969</v>
+        <v>433.8200073242188</v>
       </c>
       <c r="BO3" t="n">
-        <v>379.6930541992188</v>
+        <v>434.0729064941406</v>
       </c>
       <c r="BP3" t="n">
-        <v>380.4595947265625</v>
+        <v>434.5778198242188</v>
       </c>
       <c r="BQ3" t="n">
-        <v>380.8949890136719</v>
+        <v>436.9061889648438</v>
       </c>
       <c r="BR3" t="n">
-        <v>381.0345458984375</v>
+        <v>438.7264709472656</v>
       </c>
       <c r="BS3" t="n">
-        <v>381.3069763183594</v>
+        <v>439.8961181640625</v>
       </c>
       <c r="BT3" t="n">
-        <v>381.0455017089844</v>
+        <v>440.6792602539062</v>
       </c>
       <c r="BU3" t="n">
-        <v>380.3363342285156</v>
+        <v>440.9715576171875</v>
       </c>
       <c r="BV3" t="n">
-        <v>379.5814514160156</v>
+        <v>441.060546875</v>
       </c>
       <c r="BW3" t="n">
-        <v>379.2586364746094</v>
+        <v>440.7715454101562</v>
       </c>
       <c r="BX3" t="n">
-        <v>378.9125366210938</v>
+        <v>440.523681640625</v>
       </c>
       <c r="BY3" t="n">
-        <v>379.0018615722656</v>
+        <v>439.9384460449219</v>
       </c>
       <c r="BZ3" t="n">
-        <v>378.8073120117188</v>
+        <v>439.5397644042969</v>
       </c>
       <c r="CA3" t="n">
-        <v>377.9606323242188</v>
+        <v>439.5628356933594</v>
       </c>
       <c r="CB3" t="n">
-        <v>377.3470764160156</v>
+        <v>439.6824645996094</v>
       </c>
       <c r="CC3" t="n">
-        <v>377.1090393066406</v>
+        <v>439.7303466796875</v>
       </c>
       <c r="CD3" t="n">
-        <v>377.1158752441406</v>
+        <v>439.6643981933594</v>
       </c>
       <c r="CE3" t="n">
-        <v>377.3174438476562</v>
+        <v>439.6603088378906</v>
       </c>
       <c r="CF3" t="n">
-        <v>380.2790222167969</v>
+        <v>439.54248046875</v>
       </c>
       <c r="CG3" t="n">
-        <v>382.5039367675781</v>
+        <v>439.1234130859375</v>
       </c>
       <c r="CH3" t="n">
-        <v>383.9176635742188</v>
+        <v>438.3882751464844</v>
       </c>
       <c r="CI3" t="n">
-        <v>382.713623046875</v>
+        <v>437.1214599609375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>381.0473022460938</v>
+        <v>436.4070434570312</v>
       </c>
       <c r="CK3" t="n">
-        <v>378.9114685058594</v>
+        <v>433.6989135742188</v>
       </c>
       <c r="CL3" t="n">
-        <v>378.697509765625</v>
+        <v>431.6727905273438</v>
       </c>
       <c r="CM3" t="n">
-        <v>378.4362487792969</v>
+        <v>429.7707214355469</v>
       </c>
       <c r="CN3" t="n">
-        <v>378.0126647949219</v>
+        <v>427.9884948730469</v>
       </c>
       <c r="CO3" t="n">
-        <v>375.0802612304688</v>
+        <v>427.3040771484375</v>
       </c>
       <c r="CP3" t="n">
-        <v>373.2910766601562</v>
+        <v>425.8957214355469</v>
       </c>
       <c r="CQ3" t="n">
-        <v>371.989013671875</v>
+        <v>425.8484802246094</v>
       </c>
       <c r="CR3" t="n">
-        <v>370.99365234375</v>
+        <v>425.4629516601562</v>
       </c>
       <c r="CS3" t="n">
-        <v>370.1915283203125</v>
+        <v>425.2203979492188</v>
       </c>
       <c r="CT3" t="n">
-        <v>368.9635314941406</v>
+        <v>424.9542541503906</v>
       </c>
       <c r="CU3" t="n">
-        <v>368.4287414550781</v>
+        <v>424.5622253417969</v>
       </c>
       <c r="CV3" t="n">
-        <v>367.7742309570312</v>
+        <v>424.23583984375</v>
       </c>
       <c r="CW3" t="n">
-        <v>366.6083679199219</v>
+        <v>423.9508666992188</v>
       </c>
       <c r="CX3" t="n">
-        <v>366.2722473144531</v>
+        <v>423.6682739257812</v>
       </c>
       <c r="CY3" t="n">
-        <v>365.8200378417969</v>
+        <v>423.3336791992188</v>
       </c>
       <c r="CZ3" t="n">
-        <v>365.63427734375</v>
+        <v>422.934326171875</v>
       </c>
       <c r="DA3" t="n">
-        <v>365.456787109375</v>
+        <v>422.6245422363281</v>
       </c>
       <c r="DB3" t="n">
-        <v>365.2826538085938</v>
+        <v>422.2752075195312</v>
       </c>
       <c r="DC3" t="n">
-        <v>364.9230041503906</v>
+        <v>422.3378601074219</v>
       </c>
       <c r="DD3" t="n">
-        <v>364.7102355957031</v>
+        <v>422.2165832519531</v>
       </c>
       <c r="DE3" t="n">
-        <v>364.5267028808594</v>
+        <v>422.1154174804688</v>
       </c>
       <c r="DF3" t="n">
-        <v>364.3828430175781</v>
+        <v>422.0032958984375</v>
       </c>
       <c r="DG3" t="n">
-        <v>365.0237426757812</v>
+        <v>421.779052734375</v>
       </c>
       <c r="DH3" t="n">
-        <v>365.7038269042969</v>
+        <v>421.875</v>
       </c>
       <c r="DI3" t="n">
-        <v>367.3528442382812</v>
+        <v>422.6641540527344</v>
       </c>
       <c r="DJ3" t="n">
-        <v>368.0234375</v>
+        <v>423.9806213378906</v>
       </c>
       <c r="DK3" t="n">
-        <v>368.5552673339844</v>
+        <v>426.5361328125</v>
       </c>
       <c r="DL3" t="n">
-        <v>369.3058776855469</v>
+        <v>429.1185913085938</v>
       </c>
       <c r="DM3" t="n">
-        <v>369.556640625</v>
+        <v>431.0181274414062</v>
       </c>
       <c r="DN3" t="n">
-        <v>369.6868896484375</v>
+        <v>432.2885131835938</v>
       </c>
       <c r="DO3" t="n">
-        <v>371.0326232910156</v>
+        <v>430.8487243652344</v>
       </c>
       <c r="DP3" t="n">
-        <v>372.0393676757812</v>
+        <v>428.1066284179688</v>
       </c>
       <c r="DQ3" t="n">
-        <v>373.7990112304688</v>
+        <v>416.4516296386719</v>
       </c>
       <c r="DR3" t="n">
-        <v>374.5068359375</v>
+        <v>409.2767028808594</v>
       </c>
       <c r="DS3" t="n">
-        <v>375.42041015625</v>
+        <v>401.4832458496094</v>
       </c>
       <c r="DT3" t="n">
-        <v>375.945556640625</v>
+        <v>384.2093200683594</v>
       </c>
       <c r="DU3" t="n">
-        <v>376.0974731445312</v>
+        <v>375.2268371582031</v>
       </c>
       <c r="DV3" t="n">
-        <v>376.1148986816406</v>
+        <v>367.2273559570312</v>
       </c>
       <c r="DW3" t="n">
-        <v>376.119384765625</v>
+        <v>352.12841796875</v>
       </c>
       <c r="DX3" t="n">
-        <v>376.1925964355469</v>
+        <v>345.4968872070312</v>
       </c>
       <c r="DY3" t="n">
-        <v>376.404296875</v>
+        <v>336.3101806640625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>376.4340209960938</v>
+        <v>334.9298095703125</v>
       </c>
       <c r="EA3" t="n">
-        <v>376.3944091796875</v>
+        <v>336.7717895507812</v>
       </c>
       <c r="EB3" t="n">
-        <v>376.3273620605469</v>
+        <v>346.0312194824219</v>
       </c>
       <c r="EC3" t="n">
-        <v>376.2900085449219</v>
+        <v>351.9549560546875</v>
       </c>
       <c r="ED3" t="n">
-        <v>376.2782897949219</v>
+        <v>371.0766296386719</v>
       </c>
       <c r="EE3" t="n">
-        <v>376.2683410644531</v>
+        <v>390.6397399902344</v>
       </c>
       <c r="EF3" t="n">
-        <v>376.2555541992188</v>
+        <v>397.2843017578125</v>
       </c>
       <c r="EG3" t="n">
-        <v>376.2662353515625</v>
+        <v>416.2364196777344</v>
       </c>
       <c r="EH3" t="n">
-        <v>373.5497741699219</v>
+        <v>426.0712280273438</v>
       </c>
       <c r="EI3" t="n">
-        <v>373.0278625488281</v>
+        <v>427.3617553710938</v>
       </c>
       <c r="EJ3" t="n">
-        <v>373.456787109375</v>
+        <v>428.8978271484375</v>
       </c>
       <c r="EK3" t="n">
-        <v>374.1943054199219</v>
+        <v>435.3259887695312</v>
       </c>
       <c r="EL3" t="n">
-        <v>374.6806030273438</v>
+        <v>437.8221740722656</v>
       </c>
       <c r="EM3" t="n">
-        <v>374.9401550292969</v>
+        <v>439.3850402832031</v>
       </c>
       <c r="EN3" t="n">
-        <v>374.4576110839844</v>
+        <v>439.0831909179688</v>
       </c>
       <c r="EO3" t="n">
-        <v>376.373779296875</v>
+        <v>439.0804748535156</v>
       </c>
       <c r="EP3" t="n">
-        <v>378.2618103027344</v>
+        <v>439.512939453125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>381.4825134277344</v>
+        <v>439.7325439453125</v>
       </c>
       <c r="ER3" t="n">
-        <v>382.7427368164062</v>
+        <v>439.4266052246094</v>
       </c>
       <c r="ES3" t="n">
-        <v>383.0330810546875</v>
+        <v>439.4874267578125</v>
       </c>
       <c r="ET3" t="n">
-        <v>382.4598083496094</v>
+        <v>442.0048217773438</v>
       </c>
       <c r="EU3" t="n">
-        <v>381.8511657714844</v>
+        <v>449.3638000488281</v>
       </c>
       <c r="EV3" t="n">
-        <v>381.7337646484375</v>
+        <v>453.6526489257812</v>
       </c>
       <c r="EW3" t="n">
-        <v>381.7901916503906</v>
+        <v>458.4352722167969</v>
       </c>
       <c r="EX3" t="n">
-        <v>381.8738708496094</v>
+        <v>462.26416015625</v>
       </c>
       <c r="EY3" t="n">
-        <v>381.9183044433594</v>
+        <v>466.3280029296875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>382.3096008300781</v>
+        <v>471.1181640625</v>
       </c>
       <c r="FA3" t="n">
-        <v>382.8069152832031</v>
+        <v>473.4961853027344</v>
       </c>
       <c r="FB3" t="n">
-        <v>383.3284301757812</v>
+        <v>474.7010498046875</v>
       </c>
       <c r="FC3" t="n">
-        <v>384.1378173828125</v>
+        <v>471.0370788574219</v>
       </c>
       <c r="FD3" t="n">
-        <v>384.2567138671875</v>
+        <v>468.0271606445312</v>
       </c>
       <c r="FE3" t="n">
-        <v>383.4346008300781</v>
+        <v>462.6383361816406</v>
       </c>
       <c r="FF3" t="n">
-        <v>382.8026428222656</v>
+        <v>461.8958740234375</v>
       </c>
       <c r="FG3" t="n">
-        <v>382.1798095703125</v>
+        <v>463.033203125</v>
       </c>
       <c r="FH3" t="n">
-        <v>382.3896789550781</v>
+        <v>467.5078430175781</v>
       </c>
       <c r="FI3" t="n">
-        <v>385.8603210449219</v>
+        <v>468.5062866210938</v>
       </c>
       <c r="FJ3" t="n">
-        <v>388.0856628417969</v>
+        <v>465.6459045410156</v>
       </c>
       <c r="FK3" t="n">
-        <v>389.881591796875</v>
+        <v>461.316162109375</v>
       </c>
       <c r="FL3" t="n">
-        <v>390.205322265625</v>
+        <v>460.6632995605469</v>
       </c>
       <c r="FM3" t="n">
-        <v>390.2011108398438</v>
+        <v>462.0517883300781</v>
       </c>
       <c r="FN3" t="n">
-        <v>391.9523620605469</v>
+        <v>465.8794860839844</v>
       </c>
       <c r="FO3" t="n">
-        <v>393.3813781738281</v>
+        <v>467.8380432128906</v>
       </c>
       <c r="FP3" t="n">
-        <v>395.8374938964844</v>
+        <v>469.5029296875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>398.0348815917969</v>
+        <v>471.0391540527344</v>
       </c>
       <c r="FR3" t="n">
-        <v>398.4883422851562</v>
+        <v>472.4563598632812</v>
       </c>
       <c r="FS3" t="n">
-        <v>398.3617858886719</v>
+        <v>473.4564208984375</v>
       </c>
       <c r="FT3" t="n">
-        <v>404.194091796875</v>
+        <v>474.471923828125</v>
       </c>
       <c r="FU3" t="n">
-        <v>406.6824035644531</v>
+        <v>472.481201171875</v>
       </c>
       <c r="FV3" t="n">
-        <v>410.1438293457031</v>
+        <v>471.8927307128906</v>
       </c>
       <c r="FW3" t="n">
-        <v>411.3810729980469</v>
+        <v>480.3064270019531</v>
       </c>
       <c r="FX3" t="n">
-        <v>405.9084167480469</v>
+        <v>485.1669006347656</v>
       </c>
       <c r="FY3" t="n">
-        <v>401.3193664550781</v>
+        <v>499.2989807128906</v>
       </c>
       <c r="FZ3" t="n">
-        <v>399.5084533691406</v>
+        <v>510.1732177734375</v>
       </c>
       <c r="GA3" t="n">
-        <v>398.9825134277344</v>
+        <v>526.398681640625</v>
       </c>
       <c r="GB3" t="n">
-        <v>398.4424743652344</v>
+        <v>526.8742065429688</v>
       </c>
       <c r="GC3" t="n">
-        <v>398.1299438476562</v>
+        <v>522.1399536132812</v>
       </c>
       <c r="GD3" t="n">
-        <v>396.231201171875</v>
+        <v>520.5848388671875</v>
       </c>
       <c r="GE3" t="n">
-        <v>396.5032043457031</v>
+        <v>518.3745727539062</v>
       </c>
       <c r="GF3" t="n">
-        <v>398.6611938476562</v>
+        <v>516.9627075195312</v>
       </c>
       <c r="GG3" t="n">
-        <v>402.767578125</v>
+        <v>516.3199462890625</v>
       </c>
       <c r="GH3" t="n">
-        <v>409.1060791015625</v>
+        <v>521.58837890625</v>
       </c>
       <c r="GI3" t="n">
-        <v>413.1929626464844</v>
+        <v>523.71630859375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>417.1884155273438</v>
+        <v>524.4029541015625</v>
       </c>
       <c r="GK3" t="n">
-        <v>416.8428039550781</v>
+        <v>529.7103881835938</v>
       </c>
       <c r="GL3" t="n">
-        <v>416.4740905761719</v>
+        <v>530.8223876953125</v>
       </c>
       <c r="GM3" t="n">
-        <v>419.2518615722656</v>
+        <v>536.9407348632812</v>
       </c>
       <c r="GN3" t="n">
-        <v>423.5257263183594</v>
+        <v>546.2269897460938</v>
       </c>
       <c r="GO3" t="n">
-        <v>425.9972229003906</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>427.1116333007812</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>429.6123046875</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>432.0989990234375</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>433.9610595703125</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>442.5925598144531</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>451.6641845703125</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>461.5750427246094</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>475.654296875</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>488.9807434082031</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>573.6492309570312</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>622.2128295898438</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>643.64453125</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>701.1464233398438</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>708.7990112304688</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>669.4635620117188</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>644.2755126953125</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>638.571044921875</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>637.5865478515625</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>636.5169067382812</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>644.806396484375</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>649.1926879882812</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>644.7391357421875</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>643.4706420898438</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>662.4066772460938</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>687.4185180664062</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>687.48291015625</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>690.201416015625</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>696.348388671875</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>692.96044921875</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>692.6384887695312</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>692.5517578125</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>691.5643920898438</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>691.8761596679688</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>691.1553955078125</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>689.8822631835938</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>692.1192626953125</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>699.4496459960938</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>704.38232421875</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>702.7786865234375</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>697.7066650390625</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>694.8336181640625</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>691.2083129882812</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>690.6072998046875</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>689.733154296875</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>689.6099853515625</v>
-      </c>
-      <c r="II3" t="n">
-        <v>690.1179809570312</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>690.5895385742188</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>693.7916259765625</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>696.6642456054688</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>697.7066040039062</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>697.355224609375</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>697.494873046875</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>697.5346069335938</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>697.41259765625</v>
+        <v>548.4910888671875</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1311.240966796875</v>
+        <v>1008.249084472656</v>
       </c>
       <c r="C4" t="n">
-        <v>1322.341430664062</v>
+        <v>1016.266235351562</v>
       </c>
       <c r="D4" t="n">
-        <v>1328.853881835938</v>
+        <v>1018.780395507812</v>
       </c>
       <c r="E4" t="n">
-        <v>1328.66748046875</v>
+        <v>1022.514221191406</v>
       </c>
       <c r="F4" t="n">
-        <v>1327.790283203125</v>
+        <v>1026.194580078125</v>
       </c>
       <c r="G4" t="n">
-        <v>1324.084106445312</v>
+        <v>1029.021606445312</v>
       </c>
       <c r="H4" t="n">
-        <v>1316.968994140625</v>
+        <v>1030.212768554688</v>
       </c>
       <c r="I4" t="n">
-        <v>1310.674072265625</v>
+        <v>1029.794555664062</v>
       </c>
       <c r="J4" t="n">
-        <v>1303.800048828125</v>
+        <v>1030.002075195312</v>
       </c>
       <c r="K4" t="n">
-        <v>1300.537841796875</v>
+        <v>1030.443115234375</v>
       </c>
       <c r="L4" t="n">
-        <v>1298.412475585938</v>
+        <v>1030.7265625</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.670166015625</v>
+        <v>1030.90380859375</v>
       </c>
       <c r="N4" t="n">
-        <v>1287.80810546875</v>
+        <v>1030.923461914062</v>
       </c>
       <c r="O4" t="n">
-        <v>1281.004760742188</v>
+        <v>1031.10595703125</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.879638671875</v>
+        <v>1031.364013671875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1275.234008789062</v>
+        <v>1031.58203125</v>
       </c>
       <c r="R4" t="n">
-        <v>1275.03125</v>
+        <v>1031.743286132812</v>
       </c>
       <c r="S4" t="n">
-        <v>1275.27978515625</v>
+        <v>1031.8779296875</v>
       </c>
       <c r="T4" t="n">
-        <v>1274.542846679688</v>
+        <v>1031.978149414062</v>
       </c>
       <c r="U4" t="n">
-        <v>1272.267822265625</v>
+        <v>1032.055908203125</v>
       </c>
       <c r="V4" t="n">
-        <v>1268.975463867188</v>
+        <v>1032.123168945312</v>
       </c>
       <c r="W4" t="n">
-        <v>1267.025146484375</v>
+        <v>1032.135620117188</v>
       </c>
       <c r="X4" t="n">
-        <v>1263.860107421875</v>
+        <v>1032.135986328125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1259.553955078125</v>
+        <v>1032.100952148438</v>
       </c>
       <c r="Z4" t="n">
-        <v>1249.084350585938</v>
+        <v>1031.934692382812</v>
       </c>
       <c r="AA4" t="n">
-        <v>1237.1474609375</v>
+        <v>1030.63525390625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1225.967163085938</v>
+        <v>1029.394775390625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1218.932006835938</v>
+        <v>1027.113647460938</v>
       </c>
       <c r="AD4" t="n">
-        <v>1213.351196289062</v>
+        <v>1025.333984375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1209.357421875</v>
+        <v>1024.489013671875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1206.70947265625</v>
+        <v>1023.902099609375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1204.250366210938</v>
+        <v>1024.446044921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1197.5068359375</v>
+        <v>1024.87890625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1189.268920898438</v>
+        <v>1025.234985351562</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1181.375</v>
+        <v>1025.520874023438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1173.8486328125</v>
+        <v>1025.762329101562</v>
       </c>
       <c r="AL4" t="n">
-        <v>1167.500610351562</v>
+        <v>1026.190063476562</v>
       </c>
       <c r="AM4" t="n">
-        <v>1162.139038085938</v>
+        <v>1026.511596679688</v>
       </c>
       <c r="AN4" t="n">
-        <v>1158.3583984375</v>
+        <v>1026.694946289062</v>
       </c>
       <c r="AO4" t="n">
-        <v>1153.629516601562</v>
+        <v>1026.888916015625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1148.710327148438</v>
+        <v>1027.364624023438</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1145.829956054688</v>
+        <v>1032.317260742188</v>
       </c>
       <c r="AR4" t="n">
-        <v>1144.112548828125</v>
+        <v>1044.096435546875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1142.225952148438</v>
+        <v>1049.677124023438</v>
       </c>
       <c r="AT4" t="n">
-        <v>1140.3994140625</v>
+        <v>1057.82275390625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1138.596557617188</v>
+        <v>1061.49560546875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1136.51123046875</v>
+        <v>1066.1728515625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1134.190063476562</v>
+        <v>1070.086791992188</v>
       </c>
       <c r="AX4" t="n">
-        <v>1132.360595703125</v>
+        <v>1075.1181640625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1131.227905273438</v>
+        <v>1080.465209960938</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1130.108764648438</v>
+        <v>1084.3623046875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1128.915649414062</v>
+        <v>1085.469360351562</v>
       </c>
       <c r="BB4" t="n">
-        <v>1127.886596679688</v>
+        <v>1085.82470703125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1126.635864257812</v>
+        <v>1087.378662109375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1125.288696289062</v>
+        <v>1090.2958984375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1124.045166015625</v>
+        <v>1093.8935546875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1122.723876953125</v>
+        <v>1097.036376953125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1121.198608398438</v>
+        <v>1098.85009765625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1119.703369140625</v>
+        <v>1106.790161132812</v>
       </c>
       <c r="BI4" t="n">
-        <v>1118.831909179688</v>
+        <v>1112.0791015625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1118.227905273438</v>
+        <v>1117.092041015625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1117.586303710938</v>
+        <v>1122.004516601562</v>
       </c>
       <c r="BL4" t="n">
-        <v>1116.287841796875</v>
+        <v>1123.5439453125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1113.935791015625</v>
+        <v>1125.453002929688</v>
       </c>
       <c r="BN4" t="n">
-        <v>1109.084716796875</v>
+        <v>1125.471313476562</v>
       </c>
       <c r="BO4" t="n">
-        <v>1102.389038085938</v>
+        <v>1125.394165039062</v>
       </c>
       <c r="BP4" t="n">
-        <v>1092.8369140625</v>
+        <v>1125.062866210938</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1086.073608398438</v>
+        <v>1123.414428710938</v>
       </c>
       <c r="BR4" t="n">
-        <v>1082.222900390625</v>
+        <v>1121.488525390625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1079.886962890625</v>
+        <v>1119.35546875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1078.697265625</v>
+        <v>1115.193481445312</v>
       </c>
       <c r="BU4" t="n">
-        <v>1077.926513671875</v>
+        <v>1111.421752929688</v>
       </c>
       <c r="BV4" t="n">
-        <v>1076.350830078125</v>
+        <v>1108.06494140625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1073.13427734375</v>
+        <v>1106.89111328125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1069.856323242188</v>
+        <v>1107.000122070312</v>
       </c>
       <c r="BY4" t="n">
-        <v>1066.293823242188</v>
+        <v>1107.9677734375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1057.393798828125</v>
+        <v>1109.481079101562</v>
       </c>
       <c r="CA4" t="n">
-        <v>1052.025634765625</v>
+        <v>1110.836181640625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1045.588012695312</v>
+        <v>1112.0263671875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1039.306518554688</v>
+        <v>1113.003295898438</v>
       </c>
       <c r="CD4" t="n">
-        <v>1033.070556640625</v>
+        <v>1113.623046875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1025.283813476562</v>
+        <v>1113.941162109375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1009.582824707031</v>
+        <v>1113.697265625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1006.573669433594</v>
+        <v>1112.260986328125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1006.03369140625</v>
+        <v>1110.131103515625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1007.770568847656</v>
+        <v>1106.735595703125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1010.731201171875</v>
+        <v>1104.737915039062</v>
       </c>
       <c r="CK4" t="n">
-        <v>1015.205444335938</v>
+        <v>1110.450805664062</v>
       </c>
       <c r="CL4" t="n">
-        <v>1020.09375</v>
+        <v>1117.116333007812</v>
       </c>
       <c r="CM4" t="n">
-        <v>1021.405029296875</v>
+        <v>1125.216674804688</v>
       </c>
       <c r="CN4" t="n">
-        <v>1022.259338378906</v>
+        <v>1135.281494140625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1025.07421875</v>
+        <v>1143.763793945312</v>
       </c>
       <c r="CP4" t="n">
-        <v>1026.566284179688</v>
+        <v>1148.969360351562</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1027.630004882812</v>
+        <v>1150.965087890625</v>
       </c>
       <c r="CR4" t="n">
-        <v>1028.446411132812</v>
+        <v>1152.419067382812</v>
       </c>
       <c r="CS4" t="n">
-        <v>1029.1845703125</v>
+        <v>1152.587890625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1032.348022460938</v>
+        <v>1152.631103515625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1036.330078125</v>
+        <v>1152.479736328125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1042.125</v>
+        <v>1152.225341796875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1051.390502929688</v>
+        <v>1152.080810546875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1052.774291992188</v>
+        <v>1152.103271484375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1053.615966796875</v>
+        <v>1152.18896484375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1053.775512695312</v>
+        <v>1152.598510742188</v>
       </c>
       <c r="DA4" t="n">
-        <v>1053.908935546875</v>
+        <v>1153.151000976562</v>
       </c>
       <c r="DB4" t="n">
-        <v>1054.01123046875</v>
+        <v>1154.439453125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1053.89892578125</v>
+        <v>1154.903076171875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1053.672973632812</v>
+        <v>1155.294189453125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1053.431030273438</v>
+        <v>1155.575317382812</v>
       </c>
       <c r="DF4" t="n">
-        <v>1053.047485351562</v>
+        <v>1155.736206054688</v>
       </c>
       <c r="DG4" t="n">
-        <v>1054.0732421875</v>
+        <v>1155.901733398438</v>
       </c>
       <c r="DH4" t="n">
-        <v>1054.418334960938</v>
+        <v>1152.0673828125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1054.115600585938</v>
+        <v>1145.733032226562</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1053.419189453125</v>
+        <v>1135.487915039062</v>
       </c>
       <c r="DK4" t="n">
-        <v>1052.736083984375</v>
+        <v>1123.8623046875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1051.334350585938</v>
+        <v>1111.88916015625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1050.66357421875</v>
+        <v>1103.34375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1048.82177734375</v>
+        <v>1096.9384765625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1045.674682617188</v>
+        <v>1086.106079101562</v>
       </c>
       <c r="DP4" t="n">
-        <v>1042.192138671875</v>
+        <v>1081.96728515625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1037.909423828125</v>
+        <v>1078.225952148438</v>
       </c>
       <c r="DR4" t="n">
-        <v>1036.668090820312</v>
+        <v>1078.795654296875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1035.586669921875</v>
+        <v>1083.42431640625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1035.376953125</v>
+        <v>1103.45849609375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1036.237426757812</v>
+        <v>1115.87060546875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1039.056518554688</v>
+        <v>1125.534423828125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1040.636474609375</v>
+        <v>1141.869995117188</v>
       </c>
       <c r="DX4" t="n">
-        <v>1042.29833984375</v>
+        <v>1149.07958984375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1045.381469726562</v>
+        <v>1160.12353515625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1045.92578125</v>
+        <v>1163.1298828125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1046.103881835938</v>
+        <v>1170.870361328125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1046.252563476562</v>
+        <v>1175.210083007812</v>
       </c>
       <c r="EC4" t="n">
-        <v>1046.337646484375</v>
+        <v>1178.343383789062</v>
       </c>
       <c r="ED4" t="n">
-        <v>1046.363525390625</v>
+        <v>1187.393676757812</v>
       </c>
       <c r="EE4" t="n">
-        <v>1046.407104492188</v>
+        <v>1204.391845703125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1046.501831054688</v>
+        <v>1212.206176757812</v>
       </c>
       <c r="EG4" t="n">
-        <v>1047.145751953125</v>
+        <v>1226.795776367188</v>
       </c>
       <c r="EH4" t="n">
-        <v>1050.426025390625</v>
+        <v>1245.407958984375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1052.00634765625</v>
+        <v>1260.037719726562</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1054.5107421875</v>
+        <v>1276.085327148438</v>
       </c>
       <c r="EK4" t="n">
-        <v>1055.285766601562</v>
+        <v>1293.97021484375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1052.7734375</v>
+        <v>1298.019287109375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1047.479125976562</v>
+        <v>1305.527587890625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1044.197509765625</v>
+        <v>1308.598388671875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1040.366333007812</v>
+        <v>1313.549072265625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1035.297241210938</v>
+        <v>1314.404541015625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1028.833740234375</v>
+        <v>1316.299926757812</v>
       </c>
       <c r="ER4" t="n">
-        <v>1028.278686523438</v>
+        <v>1317.0654296875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1029.617309570312</v>
+        <v>1318.94287109375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1030.821411132812</v>
+        <v>1324.937744140625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1032.420043945312</v>
+        <v>1312.643432617188</v>
       </c>
       <c r="EV4" t="n">
-        <v>1033.082397460938</v>
+        <v>1301.096069335938</v>
       </c>
       <c r="EW4" t="n">
-        <v>1033.448974609375</v>
+        <v>1270.116088867188</v>
       </c>
       <c r="EX4" t="n">
-        <v>1033.801635742188</v>
+        <v>1252.805297851562</v>
       </c>
       <c r="EY4" t="n">
-        <v>1034.655395507812</v>
+        <v>1240.429321289062</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1037.54052734375</v>
+        <v>1224.848266601562</v>
       </c>
       <c r="FA4" t="n">
-        <v>1039.188842773438</v>
+        <v>1220.781860351562</v>
       </c>
       <c r="FB4" t="n">
-        <v>1039.664672851562</v>
+        <v>1218.561401367188</v>
       </c>
       <c r="FC4" t="n">
-        <v>1038.62158203125</v>
+        <v>1216.583740234375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1037.03173828125</v>
+        <v>1211.143676757812</v>
       </c>
       <c r="FE4" t="n">
-        <v>1035.09912109375</v>
+        <v>1193.065673828125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1033.98681640625</v>
+        <v>1180.252075195312</v>
       </c>
       <c r="FG4" t="n">
-        <v>1033.137939453125</v>
+        <v>1151.1640625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1032.096069335938</v>
+        <v>1120.231689453125</v>
       </c>
       <c r="FI4" t="n">
-        <v>1028.42041015625</v>
+        <v>1110.058715820312</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1026.799560546875</v>
+        <v>1103.463256835938</v>
       </c>
       <c r="FK4" t="n">
-        <v>1026.321533203125</v>
+        <v>1085.73828125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1026.34423828125</v>
+        <v>1075.627685546875</v>
       </c>
       <c r="FM4" t="n">
-        <v>1026.267333984375</v>
+        <v>1053.180419921875</v>
       </c>
       <c r="FN4" t="n">
-        <v>1010.623229980469</v>
+        <v>1024.705322265625</v>
       </c>
       <c r="FO4" t="n">
-        <v>997.466796875</v>
+        <v>1010.952331542969</v>
       </c>
       <c r="FP4" t="n">
-        <v>978.8163452148438</v>
+        <v>998.886474609375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>958.7002563476562</v>
+        <v>979.6693725585938</v>
       </c>
       <c r="FR4" t="n">
-        <v>953.065185546875</v>
+        <v>968.2536010742188</v>
       </c>
       <c r="FS4" t="n">
-        <v>941.1511840820312</v>
+        <v>942.8349609375</v>
       </c>
       <c r="FT4" t="n">
-        <v>910.648681640625</v>
+        <v>921.8207397460938</v>
       </c>
       <c r="FU4" t="n">
-        <v>900.6826782226562</v>
+        <v>906.037109375</v>
       </c>
       <c r="FV4" t="n">
-        <v>886.3617553710938</v>
+        <v>897.1080322265625</v>
       </c>
       <c r="FW4" t="n">
-        <v>877.795166015625</v>
+        <v>857.9194946289062</v>
       </c>
       <c r="FX4" t="n">
-        <v>868.622802734375</v>
+        <v>838.4110107421875</v>
       </c>
       <c r="FY4" t="n">
-        <v>865.064697265625</v>
+        <v>786.8912353515625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>861.552734375</v>
+        <v>754.812255859375</v>
       </c>
       <c r="GA4" t="n">
-        <v>856.5816650390625</v>
+        <v>699.9199829101562</v>
       </c>
       <c r="GB4" t="n">
-        <v>849.8905029296875</v>
+        <v>700.166748046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>847.4926147460938</v>
+        <v>723.7581176757812</v>
       </c>
       <c r="GD4" t="n">
-        <v>841.4503173828125</v>
+        <v>728.3489379882812</v>
       </c>
       <c r="GE4" t="n">
-        <v>836.7130126953125</v>
+        <v>730.8036499023438</v>
       </c>
       <c r="GF4" t="n">
-        <v>807.87890625</v>
+        <v>725.7594604492188</v>
       </c>
       <c r="GG4" t="n">
-        <v>784.0247802734375</v>
+        <v>717.1626586914062</v>
       </c>
       <c r="GH4" t="n">
-        <v>758.738525390625</v>
+        <v>697.5814819335938</v>
       </c>
       <c r="GI4" t="n">
-        <v>740.015625</v>
+        <v>691.3861083984375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>718.0819091796875</v>
+        <v>687.0230102539062</v>
       </c>
       <c r="GK4" t="n">
-        <v>701.0101318359375</v>
+        <v>673.9027709960938</v>
       </c>
       <c r="GL4" t="n">
-        <v>688.2446899414062</v>
+        <v>666.6365966796875</v>
       </c>
       <c r="GM4" t="n">
-        <v>670.4166870117188</v>
+        <v>642.3399658203125</v>
       </c>
       <c r="GN4" t="n">
-        <v>655.64306640625</v>
+        <v>614.18798828125</v>
       </c>
       <c r="GO4" t="n">
-        <v>648.7301025390625</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>645.2172241210938</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>637.9130859375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>630.3866577148438</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>626.1311645507812</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>619.6890258789062</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>613.809814453125</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>604.715576171875</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>591.539794921875</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>584.43994140625</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>537.9652709960938</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>503.1255187988281</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>495.1371765136719</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>480.2094116210938</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>514.8596801757812</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>553.6680908203125</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>577.4315185546875</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>585.1316528320312</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>593.2079467773438</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>598.1392822265625</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>595.7763061523438</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>594.9068603515625</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>607.7748413085938</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>608.4183349609375</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>569.6832275390625</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>543.49951171875</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>548.6524658203125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>546.27392578125</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>528.9480590820312</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>515.767822265625</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>500.7726745605469</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>499.7897033691406</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>499.9073181152344</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>498.2239990234375</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>497.6286010742188</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>502.8983459472656</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>503.9606323242188</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>501.2766723632812</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>500.4388122558594</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>504.8347778320312</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>513.1455078125</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>518.3431396484375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>527.1828002929688</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>530.4512329101562</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>531.8199462890625</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>532.0929565429688</v>
-      </c>
-      <c r="II4" t="n">
-        <v>530.4840087890625</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>529.5009765625</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>527.58544921875</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>525.8760375976562</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>525.1376953125</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>525.7821655273438</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>526.13427734375</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>526.380859375</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>526.59033203125</v>
+        <v>605.54443359375</v>
       </c>
     </row>
   </sheetData>

--- a/waist_Data.xlsx
+++ b/waist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>214.1993560791016</v>
       </c>
       <c r="B2" t="n">
-        <v>361.9454956054688</v>
+        <v>214.4358673095703</v>
       </c>
       <c r="C2" t="n">
-        <v>356.88916015625</v>
+        <v>214.4736938476562</v>
       </c>
       <c r="D2" t="n">
-        <v>354.914794921875</v>
+        <v>214.5059509277344</v>
       </c>
       <c r="E2" t="n">
-        <v>353.791748046875</v>
+        <v>214.556640625</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3651428222656</v>
+        <v>214.5822143554688</v>
       </c>
       <c r="G2" t="n">
-        <v>353.2453002929688</v>
+        <v>214.6036529541016</v>
       </c>
       <c r="H2" t="n">
-        <v>353.3312683105469</v>
+        <v>214.6502380371094</v>
       </c>
       <c r="I2" t="n">
-        <v>353.5366821289062</v>
+        <v>214.7338256835938</v>
       </c>
       <c r="J2" t="n">
-        <v>353.7457885742188</v>
+        <v>214.8097534179688</v>
       </c>
       <c r="K2" t="n">
-        <v>353.9533081054688</v>
+        <v>214.8786010742188</v>
       </c>
       <c r="L2" t="n">
-        <v>354.1869812011719</v>
+        <v>214.9952392578125</v>
       </c>
       <c r="M2" t="n">
-        <v>354.422119140625</v>
+        <v>215.1159515380859</v>
       </c>
       <c r="N2" t="n">
-        <v>354.5262145996094</v>
+        <v>215.2288513183594</v>
       </c>
       <c r="O2" t="n">
-        <v>354.56982421875</v>
+        <v>215.2508850097656</v>
       </c>
       <c r="P2" t="n">
-        <v>354.6018676757812</v>
+        <v>215.212646484375</v>
       </c>
       <c r="Q2" t="n">
-        <v>354.6148071289062</v>
+        <v>215.1483764648438</v>
       </c>
       <c r="R2" t="n">
-        <v>354.6304321289062</v>
+        <v>215.0728149414062</v>
       </c>
       <c r="S2" t="n">
-        <v>354.6453247070312</v>
+        <v>214.94189453125</v>
       </c>
       <c r="T2" t="n">
-        <v>354.6607971191406</v>
+        <v>214.5769348144531</v>
       </c>
       <c r="U2" t="n">
-        <v>354.6761474609375</v>
+        <v>213.8782043457031</v>
       </c>
       <c r="V2" t="n">
-        <v>354.7003784179688</v>
+        <v>213.0045471191406</v>
       </c>
       <c r="W2" t="n">
-        <v>354.7231750488281</v>
+        <v>212.688232421875</v>
       </c>
       <c r="X2" t="n">
-        <v>354.7479553222656</v>
+        <v>214.2633666992188</v>
       </c>
       <c r="Y2" t="n">
-        <v>354.7882690429688</v>
+        <v>218.6858367919922</v>
       </c>
       <c r="Z2" t="n">
-        <v>354.8274536132812</v>
+        <v>223.42431640625</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.9468688964844</v>
+        <v>227.5113220214844</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.0914916992188</v>
+        <v>231.3475646972656</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.2455139160156</v>
+        <v>234.1332855224609</v>
       </c>
       <c r="AD2" t="n">
-        <v>355.3295593261719</v>
+        <v>237.3563385009766</v>
       </c>
       <c r="AE2" t="n">
-        <v>355.4019775390625</v>
+        <v>241.2014465332031</v>
       </c>
       <c r="AF2" t="n">
-        <v>355.4320678710938</v>
+        <v>244.5624084472656</v>
       </c>
       <c r="AG2" t="n">
-        <v>355.4117126464844</v>
+        <v>248.1894073486328</v>
       </c>
       <c r="AH2" t="n">
-        <v>355.3944091796875</v>
+        <v>250.3615112304688</v>
       </c>
       <c r="AI2" t="n">
-        <v>355.3799133300781</v>
+        <v>252.5447387695312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>355.3680725097656</v>
+        <v>254.5986022949219</v>
       </c>
       <c r="AK2" t="n">
-        <v>355.3589477539062</v>
+        <v>255.5962982177734</v>
       </c>
       <c r="AL2" t="n">
-        <v>355.3427734375</v>
+        <v>256.9307250976562</v>
       </c>
       <c r="AM2" t="n">
-        <v>355.3302001953125</v>
+        <v>258.3071594238281</v>
       </c>
       <c r="AN2" t="n">
-        <v>355.3233032226562</v>
+        <v>260.0363464355469</v>
       </c>
       <c r="AO2" t="n">
-        <v>355.31591796875</v>
+        <v>261.4683837890625</v>
       </c>
       <c r="AP2" t="n">
-        <v>355.2997436523438</v>
+        <v>263.1809387207031</v>
       </c>
       <c r="AQ2" t="n">
-        <v>356.6940307617188</v>
+        <v>263.6170654296875</v>
       </c>
       <c r="AR2" t="n">
-        <v>363.22607421875</v>
+        <v>264.5375061035156</v>
       </c>
       <c r="AS2" t="n">
-        <v>367.5794067382812</v>
+        <v>267.9861755371094</v>
       </c>
       <c r="AT2" t="n">
-        <v>378.1580810546875</v>
+        <v>272.3436584472656</v>
       </c>
       <c r="AU2" t="n">
-        <v>382.9012756347656</v>
+        <v>275.66064453125</v>
       </c>
       <c r="AV2" t="n">
-        <v>386.1494750976562</v>
+        <v>278.68310546875</v>
       </c>
       <c r="AW2" t="n">
-        <v>389.7178344726562</v>
+        <v>284.2600708007812</v>
       </c>
       <c r="AX2" t="n">
-        <v>393.4382934570312</v>
+        <v>290.9324951171875</v>
       </c>
       <c r="AY2" t="n">
-        <v>398.7189331054688</v>
+        <v>295.0496520996094</v>
       </c>
       <c r="AZ2" t="n">
-        <v>405.776123046875</v>
+        <v>297.3505859375</v>
       </c>
       <c r="BA2" t="n">
-        <v>411.4965209960938</v>
+        <v>298.6770935058594</v>
       </c>
       <c r="BB2" t="n">
-        <v>416.0300903320312</v>
+        <v>299.4884033203125</v>
       </c>
       <c r="BC2" t="n">
-        <v>419.5421752929688</v>
+        <v>300.4183654785156</v>
       </c>
       <c r="BD2" t="n">
-        <v>422.765380859375</v>
+        <v>301.9243774414062</v>
       </c>
       <c r="BE2" t="n">
-        <v>426.2835083007812</v>
+        <v>304.1292724609375</v>
       </c>
       <c r="BF2" t="n">
-        <v>428.1138305664062</v>
+        <v>306.5338134765625</v>
       </c>
       <c r="BG2" t="n">
-        <v>428.2359313964844</v>
+        <v>308.9049072265625</v>
       </c>
       <c r="BH2" t="n">
-        <v>427.1786193847656</v>
+        <v>311.4717712402344</v>
       </c>
       <c r="BI2" t="n">
-        <v>425.0228271484375</v>
+        <v>317.5323791503906</v>
       </c>
       <c r="BJ2" t="n">
-        <v>411.5628662109375</v>
+        <v>321.8432312011719</v>
       </c>
       <c r="BK2" t="n">
-        <v>400.0639343261719</v>
+        <v>325.1116638183594</v>
       </c>
       <c r="BL2" t="n">
-        <v>392.6706237792969</v>
+        <v>327.0614013671875</v>
       </c>
       <c r="BM2" t="n">
-        <v>379.9851989746094</v>
+        <v>328.2937622070312</v>
       </c>
       <c r="BN2" t="n">
-        <v>374.03759765625</v>
+        <v>329.2913818359375</v>
       </c>
       <c r="BO2" t="n">
-        <v>367.9314880371094</v>
+        <v>330.9859619140625</v>
       </c>
       <c r="BP2" t="n">
-        <v>361.0411987304688</v>
+        <v>332.7955627441406</v>
       </c>
       <c r="BQ2" t="n">
-        <v>354.5824890136719</v>
+        <v>334.7489013671875</v>
       </c>
       <c r="BR2" t="n">
-        <v>348.0374755859375</v>
+        <v>337.34619140625</v>
       </c>
       <c r="BS2" t="n">
-        <v>341.2153625488281</v>
+        <v>341.3326721191406</v>
       </c>
       <c r="BT2" t="n">
-        <v>333.5361328125</v>
+        <v>345.0439147949219</v>
       </c>
       <c r="BU2" t="n">
-        <v>326.2959289550781</v>
+        <v>349.8005676269531</v>
       </c>
       <c r="BV2" t="n">
-        <v>318.9836120605469</v>
+        <v>353.5619506835938</v>
       </c>
       <c r="BW2" t="n">
-        <v>313.0257263183594</v>
+        <v>357.2225341796875</v>
       </c>
       <c r="BX2" t="n">
-        <v>306.6783752441406</v>
+        <v>359.2544555664062</v>
       </c>
       <c r="BY2" t="n">
-        <v>302.5216369628906</v>
+        <v>360.3436889648438</v>
       </c>
       <c r="BZ2" t="n">
-        <v>298.4721984863281</v>
+        <v>360.614013671875</v>
       </c>
       <c r="CA2" t="n">
-        <v>293.8433532714844</v>
+        <v>361.2496948242188</v>
       </c>
       <c r="CB2" t="n">
-        <v>288.594482421875</v>
+        <v>361.8875122070312</v>
       </c>
       <c r="CC2" t="n">
-        <v>283.4724731445312</v>
+        <v>362.6699829101562</v>
       </c>
       <c r="CD2" t="n">
-        <v>279.2862243652344</v>
+        <v>363.5652160644531</v>
       </c>
       <c r="CE2" t="n">
-        <v>275.6949462890625</v>
+        <v>364.2457275390625</v>
       </c>
       <c r="CF2" t="n">
-        <v>272.9010009765625</v>
+        <v>364.5062866210938</v>
       </c>
       <c r="CG2" t="n">
-        <v>270.2363586425781</v>
+        <v>364.4916381835938</v>
       </c>
       <c r="CH2" t="n">
-        <v>268.2457580566406</v>
+        <v>364.3804626464844</v>
       </c>
       <c r="CI2" t="n">
-        <v>266.8145141601562</v>
+        <v>364.3102416992188</v>
       </c>
       <c r="CJ2" t="n">
-        <v>266.2712097167969</v>
+        <v>364.1881713867188</v>
       </c>
       <c r="CK2" t="n">
-        <v>266.9638977050781</v>
+        <v>364.0316162109375</v>
       </c>
       <c r="CL2" t="n">
-        <v>269.8554992675781</v>
+        <v>363.751220703125</v>
       </c>
       <c r="CM2" t="n">
-        <v>274.3888244628906</v>
+        <v>363.2482299804688</v>
       </c>
       <c r="CN2" t="n">
-        <v>280.7617492675781</v>
+        <v>362.6701354980469</v>
       </c>
       <c r="CO2" t="n">
-        <v>287.1924133300781</v>
+        <v>361.8543090820312</v>
       </c>
       <c r="CP2" t="n">
-        <v>293.2872009277344</v>
+        <v>360.4455871582031</v>
       </c>
       <c r="CQ2" t="n">
-        <v>299.5946044921875</v>
+        <v>359.0260314941406</v>
       </c>
       <c r="CR2" t="n">
-        <v>311.2937927246094</v>
+        <v>357.5363159179688</v>
       </c>
       <c r="CS2" t="n">
-        <v>315.6548767089844</v>
+        <v>356.5741577148438</v>
       </c>
       <c r="CT2" t="n">
-        <v>320.422607421875</v>
+        <v>355.5490112304688</v>
       </c>
       <c r="CU2" t="n">
-        <v>327.9444580078125</v>
+        <v>353.2025756835938</v>
       </c>
       <c r="CV2" t="n">
-        <v>337.4959106445312</v>
+        <v>350.4153747558594</v>
       </c>
       <c r="CW2" t="n">
-        <v>345.043701171875</v>
+        <v>347.7545776367188</v>
       </c>
       <c r="CX2" t="n">
-        <v>350.1697082519531</v>
+        <v>346.166015625</v>
       </c>
       <c r="CY2" t="n">
-        <v>354.416259765625</v>
+        <v>344.2193908691406</v>
       </c>
       <c r="CZ2" t="n">
-        <v>358.0994873046875</v>
+        <v>342.9114074707031</v>
       </c>
       <c r="DA2" t="n">
-        <v>363.288330078125</v>
+        <v>340.5356140136719</v>
       </c>
       <c r="DB2" t="n">
-        <v>374.8236694335938</v>
+        <v>339.9358520507812</v>
       </c>
       <c r="DC2" t="n">
-        <v>380.2355346679688</v>
+        <v>339.5487670898438</v>
       </c>
       <c r="DD2" t="n">
-        <v>384.4676513671875</v>
+        <v>339.2207641601562</v>
       </c>
       <c r="DE2" t="n">
-        <v>387.9461364746094</v>
+        <v>338.9164428710938</v>
       </c>
       <c r="DF2" t="n">
-        <v>391.5355834960938</v>
+        <v>338.7658996582031</v>
       </c>
       <c r="DG2" t="n">
-        <v>394.9548034667969</v>
+        <v>338.6813049316406</v>
       </c>
       <c r="DH2" t="n">
-        <v>397.8499145507812</v>
+        <v>338.6212768554688</v>
       </c>
       <c r="DI2" t="n">
-        <v>398.6973266601562</v>
+        <v>338.6400146484375</v>
       </c>
       <c r="DJ2" t="n">
-        <v>399.6145324707031</v>
+        <v>338.6583862304688</v>
       </c>
       <c r="DK2" t="n">
-        <v>400.5046997070312</v>
+        <v>338.6733703613281</v>
       </c>
       <c r="DL2" t="n">
-        <v>401.3880004882812</v>
+        <v>338.6701049804688</v>
       </c>
       <c r="DM2" t="n">
-        <v>400.3496704101562</v>
+        <v>338.6641845703125</v>
       </c>
       <c r="DN2" t="n">
-        <v>397.7142639160156</v>
+        <v>338.6593017578125</v>
       </c>
       <c r="DO2" t="n">
-        <v>392.5394287109375</v>
+        <v>338.6527099609375</v>
       </c>
       <c r="DP2" t="n">
-        <v>389.0433349609375</v>
+        <v>338.6507873535156</v>
       </c>
       <c r="DQ2" t="n">
-        <v>382.2821044921875</v>
+        <v>338.6371459960938</v>
       </c>
       <c r="DR2" t="n">
-        <v>379.5150146484375</v>
+        <v>338.5970764160156</v>
       </c>
       <c r="DS2" t="n">
-        <v>377.6087036132812</v>
+        <v>338.5271606445312</v>
       </c>
       <c r="DT2" t="n">
-        <v>373.3990478515625</v>
+        <v>338.1143493652344</v>
       </c>
       <c r="DU2" t="n">
-        <v>370.1248779296875</v>
+        <v>337.9126586914062</v>
       </c>
       <c r="DV2" t="n">
-        <v>366.5173950195312</v>
+        <v>337.7417602539062</v>
       </c>
       <c r="DW2" t="n">
-        <v>361.1284790039062</v>
+        <v>337.5341796875</v>
       </c>
       <c r="DX2" t="n">
-        <v>359.2618408203125</v>
+        <v>337.544921875</v>
       </c>
       <c r="DY2" t="n">
-        <v>356.4300231933594</v>
+        <v>337.5599365234375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>355.8343811035156</v>
+        <v>337.603759765625</v>
       </c>
       <c r="EA2" t="n">
-        <v>354.7168273925781</v>
+        <v>338.0328674316406</v>
       </c>
       <c r="EB2" t="n">
-        <v>352.4214477539062</v>
+        <v>338.6153564453125</v>
       </c>
       <c r="EC2" t="n">
-        <v>350.7534484863281</v>
+        <v>339.943115234375</v>
       </c>
       <c r="ED2" t="n">
-        <v>348.4168090820312</v>
+        <v>340.2922973632812</v>
       </c>
       <c r="EE2" t="n">
-        <v>347.22998046875</v>
+        <v>340.5936279296875</v>
       </c>
       <c r="EF2" t="n">
-        <v>347.3027954101562</v>
+        <v>340.6248474121094</v>
       </c>
       <c r="EG2" t="n">
-        <v>351.2254638671875</v>
+        <v>340.6164245605469</v>
       </c>
       <c r="EH2" t="n">
-        <v>357.5464477539062</v>
+        <v>340.6100463867188</v>
       </c>
       <c r="EI2" t="n">
-        <v>358.9337768554688</v>
+        <v>340.6051940917969</v>
       </c>
       <c r="EJ2" t="n">
-        <v>359.4361572265625</v>
+        <v>340.6104125976562</v>
       </c>
       <c r="EK2" t="n">
-        <v>360.8272094726562</v>
+        <v>340.626953125</v>
       </c>
       <c r="EL2" t="n">
-        <v>362.7496337890625</v>
+        <v>340.6440734863281</v>
       </c>
       <c r="EM2" t="n">
-        <v>370.6560974121094</v>
+        <v>340.7055053710938</v>
       </c>
       <c r="EN2" t="n">
-        <v>373.0999145507812</v>
+        <v>342.0253295898438</v>
       </c>
       <c r="EO2" t="n">
-        <v>375.7340698242188</v>
+        <v>343.8421325683594</v>
       </c>
       <c r="EP2" t="n">
-        <v>377.4395141601562</v>
+        <v>345.9893493652344</v>
       </c>
       <c r="EQ2" t="n">
-        <v>380.5879211425781</v>
+        <v>346.4854125976562</v>
       </c>
       <c r="ER2" t="n">
-        <v>381.3421325683594</v>
+        <v>346.8489990234375</v>
       </c>
       <c r="ES2" t="n">
-        <v>380.9261474609375</v>
+        <v>346.8843078613281</v>
       </c>
       <c r="ET2" t="n">
-        <v>373.4146728515625</v>
+        <v>346.9185791015625</v>
       </c>
       <c r="EU2" t="n">
-        <v>365.6574096679688</v>
+        <v>346.9307250976562</v>
       </c>
       <c r="EV2" t="n">
-        <v>358.9800415039062</v>
+        <v>346.8442077636719</v>
       </c>
       <c r="EW2" t="n">
-        <v>349.560302734375</v>
+        <v>346.6741333007812</v>
       </c>
       <c r="EX2" t="n">
-        <v>347.3019714355469</v>
+        <v>346.546630859375</v>
       </c>
       <c r="EY2" t="n">
-        <v>346.520263671875</v>
+        <v>346.4700317382812</v>
       </c>
       <c r="EZ2" t="n">
-        <v>343.3994140625</v>
+        <v>346.3919677734375</v>
       </c>
       <c r="FA2" t="n">
-        <v>331.1531066894531</v>
+        <v>346.275634765625</v>
       </c>
       <c r="FB2" t="n">
-        <v>324.75732421875</v>
+        <v>346.1978759765625</v>
       </c>
       <c r="FC2" t="n">
-        <v>316.0400390625</v>
+        <v>346.1233825683594</v>
       </c>
       <c r="FD2" t="n">
-        <v>313.9115295410156</v>
+        <v>346.072021484375</v>
       </c>
       <c r="FE2" t="n">
-        <v>312.65087890625</v>
+        <v>346.0602416992188</v>
       </c>
       <c r="FF2" t="n">
-        <v>312.6625671386719</v>
+        <v>346.0561828613281</v>
       </c>
       <c r="FG2" t="n">
-        <v>312.1298522949219</v>
+        <v>346.0548095703125</v>
       </c>
       <c r="FH2" t="n">
-        <v>306.4906005859375</v>
+        <v>345.961181640625</v>
       </c>
       <c r="FI2" t="n">
-        <v>304.5022583007812</v>
+        <v>345.9083557128906</v>
       </c>
       <c r="FJ2" t="n">
-        <v>306.8185424804688</v>
+        <v>345.8736572265625</v>
       </c>
       <c r="FK2" t="n">
-        <v>317.0169067382812</v>
+        <v>345.8605346679688</v>
       </c>
       <c r="FL2" t="n">
-        <v>321.6190795898438</v>
+        <v>345.8605651855469</v>
       </c>
       <c r="FM2" t="n">
-        <v>330.7239074707031</v>
+        <v>345.8586120605469</v>
       </c>
       <c r="FN2" t="n">
-        <v>340.6774291992188</v>
+        <v>345.8590698242188</v>
       </c>
       <c r="FO2" t="n">
-        <v>345.1174926757812</v>
+        <v>345.8602600097656</v>
       </c>
       <c r="FP2" t="n">
-        <v>349.2803955078125</v>
+        <v>345.8622741699219</v>
       </c>
       <c r="FQ2" t="n">
-        <v>357.6405639648438</v>
+        <v>345.8640747070312</v>
       </c>
       <c r="FR2" t="n">
-        <v>362.9630126953125</v>
+        <v>345.8654174804688</v>
       </c>
       <c r="FS2" t="n">
-        <v>371.0191040039062</v>
+        <v>345.8997192382812</v>
       </c>
       <c r="FT2" t="n">
-        <v>376.2156372070312</v>
+        <v>345.9402770996094</v>
       </c>
       <c r="FU2" t="n">
-        <v>377.6774291992188</v>
+        <v>346.0496215820312</v>
       </c>
       <c r="FV2" t="n">
-        <v>377.9767456054688</v>
+        <v>346.1218872070312</v>
       </c>
       <c r="FW2" t="n">
-        <v>373.3761291503906</v>
+        <v>346.3570556640625</v>
       </c>
       <c r="FX2" t="n">
-        <v>371.75146484375</v>
+        <v>346.472412109375</v>
       </c>
       <c r="FY2" t="n">
-        <v>378.3228149414062</v>
+        <v>346.43408203125</v>
       </c>
       <c r="FZ2" t="n">
-        <v>388.1304626464844</v>
+        <v>346.29736328125</v>
       </c>
       <c r="GA2" t="n">
-        <v>422.8576049804688</v>
+        <v>345.8176879882812</v>
       </c>
       <c r="GB2" t="n">
-        <v>425.3259887695312</v>
+        <v>345.4896850585938</v>
       </c>
       <c r="GC2" t="n">
-        <v>391.9214477539062</v>
+        <v>344.8095092773438</v>
       </c>
       <c r="GD2" t="n">
-        <v>367.4429321289062</v>
+        <v>344.2266235351562</v>
       </c>
       <c r="GE2" t="n">
-        <v>335.6026611328125</v>
+        <v>344.0518798828125</v>
       </c>
       <c r="GF2" t="n">
-        <v>326.8737182617188</v>
+        <v>343.7117919921875</v>
       </c>
       <c r="GG2" t="n">
-        <v>323.4668579101562</v>
+        <v>343.5889892578125</v>
       </c>
       <c r="GH2" t="n">
-        <v>319.1416320800781</v>
+        <v>343.2437744140625</v>
       </c>
       <c r="GI2" t="n">
-        <v>313.9631652832031</v>
+        <v>342.95947265625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>309.2627868652344</v>
+        <v>342.8362426757812</v>
       </c>
       <c r="GK2" t="n">
-        <v>301.4671630859375</v>
+        <v>342.5699462890625</v>
       </c>
       <c r="GL2" t="n">
-        <v>298.6526489257812</v>
+        <v>342.39404296875</v>
       </c>
       <c r="GM2" t="n">
-        <v>296.2663269042969</v>
+        <v>342.2398376464844</v>
       </c>
       <c r="GN2" t="n">
-        <v>294.3431396484375</v>
+        <v>342.1052856445312</v>
       </c>
       <c r="GO2" t="n">
-        <v>293.8088073730469</v>
+        <v>342.0459289550781</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>341.9237976074219</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>341.7062072753906</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>341.4301147460938</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>341.2664184570312</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>340.8438110351562</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>340.4482727050781</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>339.1459655761719</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>337.3807373046875</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>336.707275390625</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>335.592041015625</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>335.2054443359375</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>334.9594421386719</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>333.2344055175781</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>330.6309814453125</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>329.7680358886719</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>328.3587036132812</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>328.1719970703125</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>328.0678100585938</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>327.9253845214844</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>327.2529296875</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>326.7381286621094</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>325.625244140625</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>324.4561462402344</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>322.1500244140625</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>319.9851379394531</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>317.5751647949219</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>316.5494995117188</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>315.9320678710938</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>315.448974609375</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>314.8718872070312</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>313.3345031738281</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>308.922119140625</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>306.4571533203125</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>300.528076171875</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>294.139892578125</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>287.697265625</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>281.3441162109375</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>276.9227905273438</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>273.4457397460938</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>273.4505615234375</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>275.7311706542969</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>276.6664123535156</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>276.230712890625</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>276.9130859375</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>282.0943603515625</v>
+      </c>
+      <c r="II2" t="n">
+        <v>286.3256530761719</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>286.8652648925781</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>290.5950927734375</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>292.4878540039062</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>293.7282104492188</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>293</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>277.3093566894531</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>217.6113586425781</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>204.2370910644531</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>219.9636840820312</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>233.6440887451172</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>167.7621612548828</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>159.6765441894531</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>174.6292419433594</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>170.6468048095703</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>159.1120147705078</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>147.8461761474609</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>150.9800872802734</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>157.669921875</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>158.6956024169922</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>159.5237426757812</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>171.5803375244141</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>189.0991363525391</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>218.7909545898438</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>258.3343811035156</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>267.5875549316406</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>264.871337890625</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>236.8224182128906</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>188.5529327392578</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>176.6286926269531</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>175.2347564697266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>359.6025390625</v>
       </c>
       <c r="B3" t="n">
-        <v>483.4285888671875</v>
+        <v>358.9107971191406</v>
       </c>
       <c r="C3" t="n">
-        <v>476.3956298828125</v>
+        <v>358.7792358398438</v>
       </c>
       <c r="D3" t="n">
-        <v>472.849365234375</v>
+        <v>358.6814575195312</v>
       </c>
       <c r="E3" t="n">
-        <v>471.3775329589844</v>
+        <v>358.6041259765625</v>
       </c>
       <c r="F3" t="n">
-        <v>470.7597351074219</v>
+        <v>358.5403747558594</v>
       </c>
       <c r="G3" t="n">
-        <v>468.8630065917969</v>
+        <v>358.490478515625</v>
       </c>
       <c r="H3" t="n">
-        <v>467.6593933105469</v>
+        <v>358.4531860351562</v>
       </c>
       <c r="I3" t="n">
-        <v>466.8346557617188</v>
+        <v>358.4263000488281</v>
       </c>
       <c r="J3" t="n">
-        <v>464.3891906738281</v>
+        <v>358.4053649902344</v>
       </c>
       <c r="K3" t="n">
-        <v>462.3525390625</v>
+        <v>358.38916015625</v>
       </c>
       <c r="L3" t="n">
-        <v>460.7260131835938</v>
+        <v>358.4269409179688</v>
       </c>
       <c r="M3" t="n">
-        <v>459.4453430175781</v>
+        <v>358.480712890625</v>
       </c>
       <c r="N3" t="n">
-        <v>458.4577331542969</v>
+        <v>358.5450439453125</v>
       </c>
       <c r="O3" t="n">
-        <v>457.6671447753906</v>
+        <v>358.6231994628906</v>
       </c>
       <c r="P3" t="n">
-        <v>457.0345458984375</v>
+        <v>358.695068359375</v>
       </c>
       <c r="Q3" t="n">
-        <v>456.533447265625</v>
+        <v>358.7695007324219</v>
       </c>
       <c r="R3" t="n">
-        <v>456.1414184570312</v>
+        <v>358.8439025878906</v>
       </c>
       <c r="S3" t="n">
-        <v>455.8355712890625</v>
+        <v>358.9286804199219</v>
       </c>
       <c r="T3" t="n">
-        <v>455.601806640625</v>
+        <v>359.2562561035156</v>
       </c>
       <c r="U3" t="n">
-        <v>455.4189453125</v>
+        <v>360.1192932128906</v>
       </c>
       <c r="V3" t="n">
-        <v>455.2753295898438</v>
+        <v>361.8932495117188</v>
       </c>
       <c r="W3" t="n">
-        <v>455.1355895996094</v>
+        <v>364.574951171875</v>
       </c>
       <c r="X3" t="n">
-        <v>455.0176696777344</v>
+        <v>367.7501525878906</v>
       </c>
       <c r="Y3" t="n">
-        <v>454.8934020996094</v>
+        <v>367.6803894042969</v>
       </c>
       <c r="Z3" t="n">
-        <v>454.7094421386719</v>
+        <v>367.6609497070312</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.3787841796875</v>
+        <v>370.2877502441406</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.5744018554688</v>
+        <v>371.77197265625</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.085693359375</v>
+        <v>371.7392883300781</v>
       </c>
       <c r="AD3" t="n">
-        <v>462.0587768554688</v>
+        <v>370.4110107421875</v>
       </c>
       <c r="AE3" t="n">
-        <v>463.5597839355469</v>
+        <v>368.2835388183594</v>
       </c>
       <c r="AF3" t="n">
-        <v>464.7167358398438</v>
+        <v>366.3768005371094</v>
       </c>
       <c r="AG3" t="n">
-        <v>463.9565124511719</v>
+        <v>364.8995056152344</v>
       </c>
       <c r="AH3" t="n">
-        <v>463.3754272460938</v>
+        <v>363.5981140136719</v>
       </c>
       <c r="AI3" t="n">
-        <v>462.9307861328125</v>
+        <v>362.1180419921875</v>
       </c>
       <c r="AJ3" t="n">
-        <v>462.5979919433594</v>
+        <v>361.1648559570312</v>
       </c>
       <c r="AK3" t="n">
-        <v>462.3347473144531</v>
+        <v>360.9029235839844</v>
       </c>
       <c r="AL3" t="n">
-        <v>461.9225769042969</v>
+        <v>360.840087890625</v>
       </c>
       <c r="AM3" t="n">
-        <v>461.6763000488281</v>
+        <v>361.1142883300781</v>
       </c>
       <c r="AN3" t="n">
-        <v>461.5621643066406</v>
+        <v>361.1432800292969</v>
       </c>
       <c r="AO3" t="n">
-        <v>461.4482421875</v>
+        <v>360.0803833007812</v>
       </c>
       <c r="AP3" t="n">
-        <v>461.0986938476562</v>
+        <v>356.4279174804688</v>
       </c>
       <c r="AQ3" t="n">
-        <v>458.3150939941406</v>
+        <v>353.956298828125</v>
       </c>
       <c r="AR3" t="n">
-        <v>453.4555358886719</v>
+        <v>350.4827575683594</v>
       </c>
       <c r="AS3" t="n">
-        <v>451.1574096679688</v>
+        <v>348.0701293945312</v>
       </c>
       <c r="AT3" t="n">
-        <v>447.727294921875</v>
+        <v>346.8375549316406</v>
       </c>
       <c r="AU3" t="n">
-        <v>446.064208984375</v>
+        <v>349.0289916992188</v>
       </c>
       <c r="AV3" t="n">
-        <v>444.2611083984375</v>
+        <v>354.8165283203125</v>
       </c>
       <c r="AW3" t="n">
-        <v>444.1848754882812</v>
+        <v>360.9342956542969</v>
       </c>
       <c r="AX3" t="n">
-        <v>442.2205810546875</v>
+        <v>362.5659484863281</v>
       </c>
       <c r="AY3" t="n">
-        <v>440.4414978027344</v>
+        <v>361.7510070800781</v>
       </c>
       <c r="AZ3" t="n">
-        <v>440.6687622070312</v>
+        <v>359.8731994628906</v>
       </c>
       <c r="BA3" t="n">
-        <v>440.725341796875</v>
+        <v>359.4213256835938</v>
       </c>
       <c r="BB3" t="n">
-        <v>440.4603881835938</v>
+        <v>358.3037719726562</v>
       </c>
       <c r="BC3" t="n">
-        <v>439.6653747558594</v>
+        <v>356.8521423339844</v>
       </c>
       <c r="BD3" t="n">
-        <v>438.6869201660156</v>
+        <v>354.4071960449219</v>
       </c>
       <c r="BE3" t="n">
-        <v>437.4100036621094</v>
+        <v>351.8193969726562</v>
       </c>
       <c r="BF3" t="n">
-        <v>436.7134399414062</v>
+        <v>348.4659423828125</v>
       </c>
       <c r="BG3" t="n">
-        <v>436.3292846679688</v>
+        <v>345.0434875488281</v>
       </c>
       <c r="BH3" t="n">
-        <v>435.0871887207031</v>
+        <v>342.8494873046875</v>
       </c>
       <c r="BI3" t="n">
-        <v>434.1338195800781</v>
+        <v>340.8125305175781</v>
       </c>
       <c r="BJ3" t="n">
-        <v>433.7370910644531</v>
+        <v>340.8581848144531</v>
       </c>
       <c r="BK3" t="n">
-        <v>432.793212890625</v>
+        <v>341.097900390625</v>
       </c>
       <c r="BL3" t="n">
-        <v>432.4536743164062</v>
+        <v>341.4136657714844</v>
       </c>
       <c r="BM3" t="n">
-        <v>433.3291320800781</v>
+        <v>340.4096984863281</v>
       </c>
       <c r="BN3" t="n">
-        <v>433.8200073242188</v>
+        <v>339.7646789550781</v>
       </c>
       <c r="BO3" t="n">
-        <v>434.0729064941406</v>
+        <v>339.9296875</v>
       </c>
       <c r="BP3" t="n">
-        <v>434.5778198242188</v>
+        <v>340.2105407714844</v>
       </c>
       <c r="BQ3" t="n">
-        <v>436.9061889648438</v>
+        <v>340.6255798339844</v>
       </c>
       <c r="BR3" t="n">
-        <v>438.7264709472656</v>
+        <v>340.7183837890625</v>
       </c>
       <c r="BS3" t="n">
-        <v>439.8961181640625</v>
+        <v>341.2982177734375</v>
       </c>
       <c r="BT3" t="n">
-        <v>440.6792602539062</v>
+        <v>342.6329040527344</v>
       </c>
       <c r="BU3" t="n">
-        <v>440.9715576171875</v>
+        <v>343.2902221679688</v>
       </c>
       <c r="BV3" t="n">
-        <v>441.060546875</v>
+        <v>342.8627014160156</v>
       </c>
       <c r="BW3" t="n">
-        <v>440.7715454101562</v>
+        <v>341.3515319824219</v>
       </c>
       <c r="BX3" t="n">
-        <v>440.523681640625</v>
+        <v>339.5960083007812</v>
       </c>
       <c r="BY3" t="n">
-        <v>439.9384460449219</v>
+        <v>338.2484436035156</v>
       </c>
       <c r="BZ3" t="n">
-        <v>439.5397644042969</v>
+        <v>337.0559997558594</v>
       </c>
       <c r="CA3" t="n">
-        <v>439.5628356933594</v>
+        <v>336.0393981933594</v>
       </c>
       <c r="CB3" t="n">
-        <v>439.6824645996094</v>
+        <v>335.0504150390625</v>
       </c>
       <c r="CC3" t="n">
-        <v>439.7303466796875</v>
+        <v>333.9654235839844</v>
       </c>
       <c r="CD3" t="n">
-        <v>439.6643981933594</v>
+        <v>333.0454406738281</v>
       </c>
       <c r="CE3" t="n">
-        <v>439.6603088378906</v>
+        <v>332.0902099609375</v>
       </c>
       <c r="CF3" t="n">
-        <v>439.54248046875</v>
+        <v>330.9048156738281</v>
       </c>
       <c r="CG3" t="n">
-        <v>439.1234130859375</v>
+        <v>329.8968505859375</v>
       </c>
       <c r="CH3" t="n">
-        <v>438.3882751464844</v>
+        <v>329.3093872070312</v>
       </c>
       <c r="CI3" t="n">
-        <v>437.1214599609375</v>
+        <v>329.0971069335938</v>
       </c>
       <c r="CJ3" t="n">
-        <v>436.4070434570312</v>
+        <v>329.035400390625</v>
       </c>
       <c r="CK3" t="n">
-        <v>433.6989135742188</v>
+        <v>329.4075622558594</v>
       </c>
       <c r="CL3" t="n">
-        <v>431.6727905273438</v>
+        <v>330.3539123535156</v>
       </c>
       <c r="CM3" t="n">
-        <v>429.7707214355469</v>
+        <v>331.19775390625</v>
       </c>
       <c r="CN3" t="n">
-        <v>427.9884948730469</v>
+        <v>332.2658081054688</v>
       </c>
       <c r="CO3" t="n">
-        <v>427.3040771484375</v>
+        <v>333.1386413574219</v>
       </c>
       <c r="CP3" t="n">
-        <v>425.8957214355469</v>
+        <v>334.6004638671875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>425.8484802246094</v>
+        <v>335.7763671875</v>
       </c>
       <c r="CR3" t="n">
-        <v>425.4629516601562</v>
+        <v>336.8768005371094</v>
       </c>
       <c r="CS3" t="n">
-        <v>425.2203979492188</v>
+        <v>337.8693237304688</v>
       </c>
       <c r="CT3" t="n">
-        <v>424.9542541503906</v>
+        <v>337.8767395019531</v>
       </c>
       <c r="CU3" t="n">
-        <v>424.5622253417969</v>
+        <v>337.4539489746094</v>
       </c>
       <c r="CV3" t="n">
-        <v>424.23583984375</v>
+        <v>336.7610778808594</v>
       </c>
       <c r="CW3" t="n">
-        <v>423.9508666992188</v>
+        <v>336.0702209472656</v>
       </c>
       <c r="CX3" t="n">
-        <v>423.6682739257812</v>
+        <v>335.4488220214844</v>
       </c>
       <c r="CY3" t="n">
-        <v>423.3336791992188</v>
+        <v>334.7032165527344</v>
       </c>
       <c r="CZ3" t="n">
-        <v>422.934326171875</v>
+        <v>334.5152282714844</v>
       </c>
       <c r="DA3" t="n">
-        <v>422.6245422363281</v>
+        <v>334.56884765625</v>
       </c>
       <c r="DB3" t="n">
-        <v>422.2752075195312</v>
+        <v>334.81689453125</v>
       </c>
       <c r="DC3" t="n">
-        <v>422.3378601074219</v>
+        <v>335.1021423339844</v>
       </c>
       <c r="DD3" t="n">
-        <v>422.2165832519531</v>
+        <v>335.2539672851562</v>
       </c>
       <c r="DE3" t="n">
-        <v>422.1154174804688</v>
+        <v>335.2150573730469</v>
       </c>
       <c r="DF3" t="n">
-        <v>422.0032958984375</v>
+        <v>335.1473693847656</v>
       </c>
       <c r="DG3" t="n">
-        <v>421.779052734375</v>
+        <v>335.0887145996094</v>
       </c>
       <c r="DH3" t="n">
-        <v>421.875</v>
+        <v>334.868408203125</v>
       </c>
       <c r="DI3" t="n">
-        <v>422.6641540527344</v>
+        <v>334.8504943847656</v>
       </c>
       <c r="DJ3" t="n">
-        <v>423.9806213378906</v>
+        <v>334.8529052734375</v>
       </c>
       <c r="DK3" t="n">
-        <v>426.5361328125</v>
+        <v>334.8154296875</v>
       </c>
       <c r="DL3" t="n">
-        <v>429.1185913085938</v>
+        <v>334.7344665527344</v>
       </c>
       <c r="DM3" t="n">
-        <v>431.0181274414062</v>
+        <v>334.6928405761719</v>
       </c>
       <c r="DN3" t="n">
-        <v>432.2885131835938</v>
+        <v>334.6927490234375</v>
       </c>
       <c r="DO3" t="n">
-        <v>430.8487243652344</v>
+        <v>334.7271118164062</v>
       </c>
       <c r="DP3" t="n">
-        <v>428.1066284179688</v>
+        <v>334.7709655761719</v>
       </c>
       <c r="DQ3" t="n">
-        <v>416.4516296386719</v>
+        <v>334.8851928710938</v>
       </c>
       <c r="DR3" t="n">
-        <v>409.2767028808594</v>
+        <v>334.9305419921875</v>
       </c>
       <c r="DS3" t="n">
-        <v>401.4832458496094</v>
+        <v>334.9486083984375</v>
       </c>
       <c r="DT3" t="n">
-        <v>384.2093200683594</v>
+        <v>334.9493408203125</v>
       </c>
       <c r="DU3" t="n">
-        <v>375.2268371582031</v>
+        <v>334.9517517089844</v>
       </c>
       <c r="DV3" t="n">
-        <v>367.2273559570312</v>
+        <v>334.9462585449219</v>
       </c>
       <c r="DW3" t="n">
-        <v>352.12841796875</v>
+        <v>334.9237060546875</v>
       </c>
       <c r="DX3" t="n">
-        <v>345.4968872070312</v>
+        <v>334.9095458984375</v>
       </c>
       <c r="DY3" t="n">
-        <v>336.3101806640625</v>
+        <v>334.9056091308594</v>
       </c>
       <c r="DZ3" t="n">
-        <v>334.9298095703125</v>
+        <v>334.9479064941406</v>
       </c>
       <c r="EA3" t="n">
-        <v>336.7717895507812</v>
+        <v>334.9430847167969</v>
       </c>
       <c r="EB3" t="n">
-        <v>346.0312194824219</v>
+        <v>334.9523010253906</v>
       </c>
       <c r="EC3" t="n">
-        <v>351.9549560546875</v>
+        <v>335.1312255859375</v>
       </c>
       <c r="ED3" t="n">
-        <v>371.0766296386719</v>
+        <v>335.3357238769531</v>
       </c>
       <c r="EE3" t="n">
-        <v>390.6397399902344</v>
+        <v>335.9175415039062</v>
       </c>
       <c r="EF3" t="n">
-        <v>397.2843017578125</v>
+        <v>336.154541015625</v>
       </c>
       <c r="EG3" t="n">
-        <v>416.2364196777344</v>
+        <v>336.1765747070312</v>
       </c>
       <c r="EH3" t="n">
-        <v>426.0712280273438</v>
+        <v>336.1545104980469</v>
       </c>
       <c r="EI3" t="n">
-        <v>427.3617553710938</v>
+        <v>336.1984558105469</v>
       </c>
       <c r="EJ3" t="n">
-        <v>428.8978271484375</v>
+        <v>336.2542724609375</v>
       </c>
       <c r="EK3" t="n">
-        <v>435.3259887695312</v>
+        <v>336.3917236328125</v>
       </c>
       <c r="EL3" t="n">
-        <v>437.8221740722656</v>
+        <v>336.4274597167969</v>
       </c>
       <c r="EM3" t="n">
-        <v>439.3850402832031</v>
+        <v>336.4559020996094</v>
       </c>
       <c r="EN3" t="n">
-        <v>439.0831909179688</v>
+        <v>336.358154296875</v>
       </c>
       <c r="EO3" t="n">
-        <v>439.0804748535156</v>
+        <v>336.2528076171875</v>
       </c>
       <c r="EP3" t="n">
-        <v>439.512939453125</v>
+        <v>336.0340270996094</v>
       </c>
       <c r="EQ3" t="n">
-        <v>439.7325439453125</v>
+        <v>336.0422058105469</v>
       </c>
       <c r="ER3" t="n">
-        <v>439.4266052246094</v>
+        <v>336.0509338378906</v>
       </c>
       <c r="ES3" t="n">
-        <v>439.4874267578125</v>
+        <v>336.0557556152344</v>
       </c>
       <c r="ET3" t="n">
-        <v>442.0048217773438</v>
+        <v>335.9650573730469</v>
       </c>
       <c r="EU3" t="n">
-        <v>449.3638000488281</v>
+        <v>335.9585571289062</v>
       </c>
       <c r="EV3" t="n">
-        <v>453.6526489257812</v>
+        <v>335.9434814453125</v>
       </c>
       <c r="EW3" t="n">
-        <v>458.4352722167969</v>
+        <v>335.8887329101562</v>
       </c>
       <c r="EX3" t="n">
-        <v>462.26416015625</v>
+        <v>335.8714599609375</v>
       </c>
       <c r="EY3" t="n">
-        <v>466.3280029296875</v>
+        <v>335.8519592285156</v>
       </c>
       <c r="EZ3" t="n">
-        <v>471.1181640625</v>
+        <v>335.8442993164062</v>
       </c>
       <c r="FA3" t="n">
-        <v>473.4961853027344</v>
+        <v>335.8539428710938</v>
       </c>
       <c r="FB3" t="n">
-        <v>474.7010498046875</v>
+        <v>335.8529357910156</v>
       </c>
       <c r="FC3" t="n">
-        <v>471.0370788574219</v>
+        <v>335.8457336425781</v>
       </c>
       <c r="FD3" t="n">
-        <v>468.0271606445312</v>
+        <v>335.8208618164062</v>
       </c>
       <c r="FE3" t="n">
-        <v>462.6383361816406</v>
+        <v>335.7489929199219</v>
       </c>
       <c r="FF3" t="n">
-        <v>461.8958740234375</v>
+        <v>335.7121887207031</v>
       </c>
       <c r="FG3" t="n">
-        <v>463.033203125</v>
+        <v>335.6927795410156</v>
       </c>
       <c r="FH3" t="n">
-        <v>467.5078430175781</v>
+        <v>335.6286010742188</v>
       </c>
       <c r="FI3" t="n">
-        <v>468.5062866210938</v>
+        <v>335.5597534179688</v>
       </c>
       <c r="FJ3" t="n">
-        <v>465.6459045410156</v>
+        <v>335.5062561035156</v>
       </c>
       <c r="FK3" t="n">
-        <v>461.316162109375</v>
+        <v>335.4956665039062</v>
       </c>
       <c r="FL3" t="n">
-        <v>460.6632995605469</v>
+        <v>335.4945678710938</v>
       </c>
       <c r="FM3" t="n">
-        <v>462.0517883300781</v>
+        <v>335.4784851074219</v>
       </c>
       <c r="FN3" t="n">
-        <v>465.8794860839844</v>
+        <v>335.484619140625</v>
       </c>
       <c r="FO3" t="n">
-        <v>467.8380432128906</v>
+        <v>335.4999694824219</v>
       </c>
       <c r="FP3" t="n">
-        <v>469.5029296875</v>
+        <v>335.53076171875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>471.0391540527344</v>
+        <v>335.5613708496094</v>
       </c>
       <c r="FR3" t="n">
-        <v>472.4563598632812</v>
+        <v>335.587158203125</v>
       </c>
       <c r="FS3" t="n">
-        <v>473.4564208984375</v>
+        <v>335.7715759277344</v>
       </c>
       <c r="FT3" t="n">
-        <v>474.471923828125</v>
+        <v>335.9786376953125</v>
       </c>
       <c r="FU3" t="n">
-        <v>472.481201171875</v>
+        <v>336.5041809082031</v>
       </c>
       <c r="FV3" t="n">
-        <v>471.8927307128906</v>
+        <v>336.7079467773438</v>
       </c>
       <c r="FW3" t="n">
-        <v>480.3064270019531</v>
+        <v>337.0798034667969</v>
       </c>
       <c r="FX3" t="n">
-        <v>485.1669006347656</v>
+        <v>337.200927734375</v>
       </c>
       <c r="FY3" t="n">
-        <v>499.2989807128906</v>
+        <v>337.2608337402344</v>
       </c>
       <c r="FZ3" t="n">
-        <v>510.1732177734375</v>
+        <v>337.2832641601562</v>
       </c>
       <c r="GA3" t="n">
-        <v>526.398681640625</v>
+        <v>337.3135070800781</v>
       </c>
       <c r="GB3" t="n">
-        <v>526.8742065429688</v>
+        <v>337.3150939941406</v>
       </c>
       <c r="GC3" t="n">
-        <v>522.1399536132812</v>
+        <v>337.2767639160156</v>
       </c>
       <c r="GD3" t="n">
-        <v>520.5848388671875</v>
+        <v>337.1868896484375</v>
       </c>
       <c r="GE3" t="n">
-        <v>518.3745727539062</v>
+        <v>337.1326904296875</v>
       </c>
       <c r="GF3" t="n">
-        <v>516.9627075195312</v>
+        <v>337.06396484375</v>
       </c>
       <c r="GG3" t="n">
-        <v>516.3199462890625</v>
+        <v>337.0965576171875</v>
       </c>
       <c r="GH3" t="n">
-        <v>521.58837890625</v>
+        <v>337.2730407714844</v>
       </c>
       <c r="GI3" t="n">
-        <v>523.71630859375</v>
+        <v>337.2893981933594</v>
       </c>
       <c r="GJ3" t="n">
-        <v>524.4029541015625</v>
+        <v>337.1512145996094</v>
       </c>
       <c r="GK3" t="n">
-        <v>529.7103881835938</v>
+        <v>336.4696350097656</v>
       </c>
       <c r="GL3" t="n">
-        <v>530.8223876953125</v>
+        <v>337.3841552734375</v>
       </c>
       <c r="GM3" t="n">
-        <v>536.9407348632812</v>
+        <v>336.462158203125</v>
       </c>
       <c r="GN3" t="n">
-        <v>546.2269897460938</v>
+        <v>336.0042114257812</v>
       </c>
       <c r="GO3" t="n">
-        <v>548.4910888671875</v>
+        <v>335.8869018554688</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>335.7012634277344</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>335.544189453125</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>335.4350891113281</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>335.3978881835938</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>335.3586120605469</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>335.3387756347656</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>335.2505798339844</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>335.4935913085938</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>335.8804626464844</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>336.5795288085938</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>337.1000671386719</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>337.0775451660156</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>337.3327026367188</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>336.8956298828125</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>336.9063720703125</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>337.8928833007812</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>338.344970703125</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>340.2315368652344</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>341.6016540527344</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>338.8225402832031</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>337.214599609375</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>336.1356506347656</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>338.7696228027344</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>340.2886352539062</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>339.8960266113281</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>337.9784545898438</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>336.7630920410156</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>337.7711486816406</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>339.7155456542969</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>344.1322631835938</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>347.3640441894531</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>347.7015075683594</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>348.2289428710938</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>345.5440673828125</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>342.2488098144531</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>346.2670288085938</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>350.29638671875</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>351.4132385253906</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>348.0594177246094</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>348.5301513671875</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>350.19091796875</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>352.4678649902344</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>356.7801818847656</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>363.4747009277344</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>372.2835083007812</v>
+      </c>
+      <c r="II3" t="n">
+        <v>382.7884826660156</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>392.6522216796875</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>404.9234924316406</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>438.6495056152344</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>486.0808715820312</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>606.2279052734375</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>677.1959838867188</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>713.3729858398438</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>700.8611450195312</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>664.2107543945312</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>628.443603515625</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>580.3508911132812</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>538.6615600585938</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>491.7312316894531</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>451.6039733886719</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>432.056396484375</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>448.5332336425781</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>484.6058959960938</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>521.6368408203125</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>562.8922119140625</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>555.7283325195312</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>539.2410278320312</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>523.5473022460938</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>510.9783020019531</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>498.0805053710938</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>495.7006225585938</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>496.5130920410156</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>516.63037109375</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>534.0660400390625</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>537.1549682617188</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>546.2512817382812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>855.3317260742188</v>
       </c>
       <c r="B4" t="n">
-        <v>1008.249084472656</v>
+        <v>855.355712890625</v>
       </c>
       <c r="C4" t="n">
-        <v>1016.266235351562</v>
+        <v>855.4029541015625</v>
       </c>
       <c r="D4" t="n">
-        <v>1018.780395507812</v>
+        <v>855.4435424804688</v>
       </c>
       <c r="E4" t="n">
-        <v>1022.514221191406</v>
+        <v>855.47705078125</v>
       </c>
       <c r="F4" t="n">
-        <v>1026.194580078125</v>
+        <v>855.5037231445312</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.021606445312</v>
+        <v>855.5238037109375</v>
       </c>
       <c r="H4" t="n">
-        <v>1030.212768554688</v>
+        <v>855.5377807617188</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.794555664062</v>
+        <v>855.5465087890625</v>
       </c>
       <c r="J4" t="n">
-        <v>1030.002075195312</v>
+        <v>855.5525512695312</v>
       </c>
       <c r="K4" t="n">
-        <v>1030.443115234375</v>
+        <v>855.5564575195312</v>
       </c>
       <c r="L4" t="n">
-        <v>1030.7265625</v>
+        <v>855.2003173828125</v>
       </c>
       <c r="M4" t="n">
-        <v>1030.90380859375</v>
+        <v>854.789306640625</v>
       </c>
       <c r="N4" t="n">
-        <v>1030.923461914062</v>
+        <v>854.390869140625</v>
       </c>
       <c r="O4" t="n">
-        <v>1031.10595703125</v>
+        <v>853.9557495117188</v>
       </c>
       <c r="P4" t="n">
-        <v>1031.364013671875</v>
+        <v>853.4998779296875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1031.58203125</v>
+        <v>852.9698486328125</v>
       </c>
       <c r="R4" t="n">
-        <v>1031.743286132812</v>
+        <v>852.371337890625</v>
       </c>
       <c r="S4" t="n">
-        <v>1031.8779296875</v>
+        <v>851.7770385742188</v>
       </c>
       <c r="T4" t="n">
-        <v>1031.978149414062</v>
+        <v>850.2655639648438</v>
       </c>
       <c r="U4" t="n">
-        <v>1032.055908203125</v>
+        <v>846.5209350585938</v>
       </c>
       <c r="V4" t="n">
-        <v>1032.123168945312</v>
+        <v>840.6519165039062</v>
       </c>
       <c r="W4" t="n">
-        <v>1032.135620117188</v>
+        <v>836.26611328125</v>
       </c>
       <c r="X4" t="n">
-        <v>1032.135986328125</v>
+        <v>834.3267822265625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1032.100952148438</v>
+        <v>835.61376953125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1031.934692382812</v>
+        <v>836.6038208007812</v>
       </c>
       <c r="AA4" t="n">
-        <v>1030.63525390625</v>
+        <v>835.8499145507812</v>
       </c>
       <c r="AB4" t="n">
-        <v>1029.394775390625</v>
+        <v>835.9971923828125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1027.113647460938</v>
+        <v>841.0948486328125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1025.333984375</v>
+        <v>851.1884155273438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1024.489013671875</v>
+        <v>863.404541015625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1023.902099609375</v>
+        <v>871.9484252929688</v>
       </c>
       <c r="AG4" t="n">
-        <v>1024.446044921875</v>
+        <v>879.2844848632812</v>
       </c>
       <c r="AH4" t="n">
-        <v>1024.87890625</v>
+        <v>886.9475708007812</v>
       </c>
       <c r="AI4" t="n">
-        <v>1025.234985351562</v>
+        <v>896.209228515625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1025.520874023438</v>
+        <v>901.9371948242188</v>
       </c>
       <c r="AK4" t="n">
-        <v>1025.762329101562</v>
+        <v>905.4168701171875</v>
       </c>
       <c r="AL4" t="n">
-        <v>1026.190063476562</v>
+        <v>909.6790771484375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1026.511596679688</v>
+        <v>914.1292114257812</v>
       </c>
       <c r="AN4" t="n">
-        <v>1026.694946289062</v>
+        <v>917.2147827148438</v>
       </c>
       <c r="AO4" t="n">
-        <v>1026.888916015625</v>
+        <v>919.2391357421875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1027.364624023438</v>
+        <v>921.9075317382812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1032.317260742188</v>
+        <v>933.2749633789062</v>
       </c>
       <c r="AR4" t="n">
-        <v>1044.096435546875</v>
+        <v>958.5918579101562</v>
       </c>
       <c r="AS4" t="n">
-        <v>1049.677124023438</v>
+        <v>994.9662475585938</v>
       </c>
       <c r="AT4" t="n">
-        <v>1057.82275390625</v>
+        <v>1032.182861328125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1061.49560546875</v>
+        <v>1061.700439453125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1066.1728515625</v>
+        <v>1087.722900390625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1070.086791992188</v>
+        <v>1113.271606445312</v>
       </c>
       <c r="AX4" t="n">
-        <v>1075.1181640625</v>
+        <v>1143.146240234375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1080.465209960938</v>
+        <v>1176.515502929688</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1084.3623046875</v>
+        <v>1208.643676757812</v>
       </c>
       <c r="BA4" t="n">
-        <v>1085.469360351562</v>
+        <v>1232.996826171875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1085.82470703125</v>
+        <v>1251.817504882812</v>
       </c>
       <c r="BC4" t="n">
-        <v>1087.378662109375</v>
+        <v>1270.98193359375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1090.2958984375</v>
+        <v>1293.829711914062</v>
       </c>
       <c r="BE4" t="n">
-        <v>1093.8935546875</v>
+        <v>1317.458984375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1097.036376953125</v>
+        <v>1340.557983398438</v>
       </c>
       <c r="BG4" t="n">
-        <v>1098.85009765625</v>
+        <v>1361.367797851562</v>
       </c>
       <c r="BH4" t="n">
-        <v>1106.790161132812</v>
+        <v>1376.771240234375</v>
       </c>
       <c r="BI4" t="n">
-        <v>1112.0791015625</v>
+        <v>1409.980346679688</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1117.092041015625</v>
+        <v>1431.358764648438</v>
       </c>
       <c r="BK4" t="n">
-        <v>1122.004516601562</v>
+        <v>1452.469604492188</v>
       </c>
       <c r="BL4" t="n">
-        <v>1123.5439453125</v>
+        <v>1470.971435546875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1125.453002929688</v>
+        <v>1486.677001953125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1125.471313476562</v>
+        <v>1502.979736328125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1125.394165039062</v>
+        <v>1521.924194335938</v>
       </c>
       <c r="BP4" t="n">
-        <v>1125.062866210938</v>
+        <v>1540.094848632812</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1123.414428710938</v>
+        <v>1559.406860351562</v>
       </c>
       <c r="BR4" t="n">
-        <v>1121.488525390625</v>
+        <v>1579.1884765625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1119.35546875</v>
+        <v>1601.179077148438</v>
       </c>
       <c r="BT4" t="n">
-        <v>1115.193481445312</v>
+        <v>1620.334350585938</v>
       </c>
       <c r="BU4" t="n">
-        <v>1111.421752929688</v>
+        <v>1636.397338867188</v>
       </c>
       <c r="BV4" t="n">
-        <v>1108.06494140625</v>
+        <v>1660.90966796875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1106.89111328125</v>
+        <v>1684.482421875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1107.000122070312</v>
+        <v>1706.894165039062</v>
       </c>
       <c r="BY4" t="n">
-        <v>1107.9677734375</v>
+        <v>1725.661376953125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1109.481079101562</v>
+        <v>1747.691162109375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1110.836181640625</v>
+        <v>1771.631713867188</v>
       </c>
       <c r="CB4" t="n">
-        <v>1112.0263671875</v>
+        <v>1791.569702148438</v>
       </c>
       <c r="CC4" t="n">
-        <v>1113.003295898438</v>
+        <v>1809.97509765625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1113.623046875</v>
+        <v>1827.474487304688</v>
       </c>
       <c r="CE4" t="n">
-        <v>1113.941162109375</v>
+        <v>1844.200317382812</v>
       </c>
       <c r="CF4" t="n">
-        <v>1113.697265625</v>
+        <v>1865.1435546875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1112.260986328125</v>
+        <v>1883.483032226562</v>
       </c>
       <c r="CH4" t="n">
-        <v>1110.131103515625</v>
+        <v>1897.777221679688</v>
       </c>
       <c r="CI4" t="n">
-        <v>1106.735595703125</v>
+        <v>1906.051879882812</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1104.737915039062</v>
+        <v>1914.034423828125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1110.450805664062</v>
+        <v>1921.899780273438</v>
       </c>
       <c r="CL4" t="n">
-        <v>1117.116333007812</v>
+        <v>1930.6484375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1125.216674804688</v>
+        <v>1940.403930664062</v>
       </c>
       <c r="CN4" t="n">
-        <v>1135.281494140625</v>
+        <v>1948.278442382812</v>
       </c>
       <c r="CO4" t="n">
-        <v>1143.763793945312</v>
+        <v>1956.534912109375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1148.969360351562</v>
+        <v>1963.008911132812</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1150.965087890625</v>
+        <v>1968.037231445312</v>
       </c>
       <c r="CR4" t="n">
-        <v>1152.419067382812</v>
+        <v>1970.974853515625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1152.587890625</v>
+        <v>1974.5458984375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1152.631103515625</v>
+        <v>1982.703979492188</v>
       </c>
       <c r="CU4" t="n">
-        <v>1152.479736328125</v>
+        <v>1996.102783203125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1152.225341796875</v>
+        <v>2016.413452148438</v>
       </c>
       <c r="CW4" t="n">
-        <v>1152.080810546875</v>
+        <v>2033.168823242188</v>
       </c>
       <c r="CX4" t="n">
-        <v>1152.103271484375</v>
+        <v>2045.191162109375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1152.18896484375</v>
+        <v>2056.761962890625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1152.598510742188</v>
+        <v>2061.113037109375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1153.151000976562</v>
+        <v>2067.550048828125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1154.439453125</v>
+        <v>2071.46826171875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1154.903076171875</v>
+        <v>2074.345458984375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1155.294189453125</v>
+        <v>2076.4990234375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1155.575317382812</v>
+        <v>2077.1416015625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1155.736206054688</v>
+        <v>2077.3876953125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1155.901733398438</v>
+        <v>2077.6240234375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1152.0673828125</v>
+        <v>2078.127685546875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1145.733032226562</v>
+        <v>2078.218994140625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1135.487915039062</v>
+        <v>2078.324951171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1123.8623046875</v>
+        <v>2078.80029296875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1111.88916015625</v>
+        <v>2079.5732421875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1103.34375</v>
+        <v>2080.124755859375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1096.9384765625</v>
+        <v>2080.42041015625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1086.106079101562</v>
+        <v>2080.839599609375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1081.96728515625</v>
+        <v>2080.9697265625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1078.225952148438</v>
+        <v>2081.545654296875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1078.795654296875</v>
+        <v>2081.84326171875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1083.42431640625</v>
+        <v>2082.1484375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1103.45849609375</v>
+        <v>2082.9306640625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1115.87060546875</v>
+        <v>2083.1083984375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1125.534423828125</v>
+        <v>2083.28515625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1141.869995117188</v>
+        <v>2083.45556640625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1149.07958984375</v>
+        <v>2083.38525390625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1160.12353515625</v>
+        <v>2083.327392578125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1163.1298828125</v>
+        <v>2082.864013671875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1170.870361328125</v>
+        <v>2080.9423828125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1175.210083007812</v>
+        <v>2077.345947265625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1178.343383789062</v>
+        <v>2066.713623046875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1187.393676757812</v>
+        <v>2063.2236328125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1204.391845703125</v>
+        <v>2058.979736328125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1212.206176757812</v>
+        <v>2057.5693359375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1226.795776367188</v>
+        <v>2057.62255859375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1245.407958984375</v>
+        <v>2057.822509765625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1260.037719726562</v>
+        <v>2058.1103515625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1276.085327148438</v>
+        <v>2058.185791015625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1293.97021484375</v>
+        <v>2058.323974609375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1298.019287109375</v>
+        <v>2058.26416015625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1305.527587890625</v>
+        <v>2058.143798828125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1308.598388671875</v>
+        <v>2058.242919921875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1313.549072265625</v>
+        <v>2058.36474609375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1314.404541015625</v>
+        <v>2058.580078125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1316.299926757812</v>
+        <v>2057.496337890625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1317.0654296875</v>
+        <v>2055.3056640625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1318.94287109375</v>
+        <v>2055.154296875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1324.937744140625</v>
+        <v>2054.406005859375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1312.643432617188</v>
+        <v>2053.990234375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1301.096069335938</v>
+        <v>2053.596435546875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1270.116088867188</v>
+        <v>2052.865234375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1252.805297851562</v>
+        <v>2052.2265625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1240.429321289062</v>
+        <v>2051.94287109375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1224.848266601562</v>
+        <v>2051.309326171875</v>
       </c>
       <c r="FA4" t="n">
-        <v>1220.781860351562</v>
+        <v>2050.482421875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1218.561401367188</v>
+        <v>2050.3466796875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1216.583740234375</v>
+        <v>2050.290771484375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1211.143676757812</v>
+        <v>2050.23681640625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1193.065673828125</v>
+        <v>2050.2861328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1180.252075195312</v>
+        <v>2050.345703125</v>
       </c>
       <c r="FG4" t="n">
-        <v>1151.1640625</v>
+        <v>2050.3779296875</v>
       </c>
       <c r="FH4" t="n">
-        <v>1120.231689453125</v>
+        <v>2050.977783203125</v>
       </c>
       <c r="FI4" t="n">
-        <v>1110.058715820312</v>
+        <v>2051.49169921875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1103.463256835938</v>
+        <v>2051.770751953125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1085.73828125</v>
+        <v>2051.822265625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1075.627685546875</v>
+        <v>2051.765869140625</v>
       </c>
       <c r="FM4" t="n">
-        <v>1053.180419921875</v>
+        <v>2051.712646484375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1024.705322265625</v>
+        <v>2051.689697265625</v>
       </c>
       <c r="FO4" t="n">
-        <v>1010.952331542969</v>
+        <v>2051.65380859375</v>
       </c>
       <c r="FP4" t="n">
-        <v>998.886474609375</v>
+        <v>2051.587158203125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>979.6693725585938</v>
+        <v>2051.52685546875</v>
       </c>
       <c r="FR4" t="n">
-        <v>968.2536010742188</v>
+        <v>2051.486328125</v>
       </c>
       <c r="FS4" t="n">
-        <v>942.8349609375</v>
+        <v>2050.7529296875</v>
       </c>
       <c r="FT4" t="n">
-        <v>921.8207397460938</v>
+        <v>2050.02685546875</v>
       </c>
       <c r="FU4" t="n">
-        <v>906.037109375</v>
+        <v>2048.289794921875</v>
       </c>
       <c r="FV4" t="n">
-        <v>897.1080322265625</v>
+        <v>2046.913818359375</v>
       </c>
       <c r="FW4" t="n">
-        <v>857.9194946289062</v>
+        <v>2043.564208984375</v>
       </c>
       <c r="FX4" t="n">
-        <v>838.4110107421875</v>
+        <v>2042.932006835938</v>
       </c>
       <c r="FY4" t="n">
-        <v>786.8912353515625</v>
+        <v>2042.853393554688</v>
       </c>
       <c r="FZ4" t="n">
-        <v>754.812255859375</v>
+        <v>2042.924682617188</v>
       </c>
       <c r="GA4" t="n">
-        <v>699.9199829101562</v>
+        <v>2043.183715820312</v>
       </c>
       <c r="GB4" t="n">
-        <v>700.166748046875</v>
+        <v>2043.44677734375</v>
       </c>
       <c r="GC4" t="n">
-        <v>723.7581176757812</v>
+        <v>2044.558959960938</v>
       </c>
       <c r="GD4" t="n">
-        <v>728.3489379882812</v>
+        <v>2045.711669921875</v>
       </c>
       <c r="GE4" t="n">
-        <v>730.8036499023438</v>
+        <v>2046.29931640625</v>
       </c>
       <c r="GF4" t="n">
-        <v>725.7594604492188</v>
+        <v>2046.683227539062</v>
       </c>
       <c r="GG4" t="n">
-        <v>717.1626586914062</v>
+        <v>2044.690185546875</v>
       </c>
       <c r="GH4" t="n">
-        <v>697.5814819335938</v>
+        <v>2037.064331054688</v>
       </c>
       <c r="GI4" t="n">
-        <v>691.3861083984375</v>
+        <v>2033.539916992188</v>
       </c>
       <c r="GJ4" t="n">
-        <v>687.0230102539062</v>
+        <v>2032.306030273438</v>
       </c>
       <c r="GK4" t="n">
-        <v>673.9027709960938</v>
+        <v>2030.695556640625</v>
       </c>
       <c r="GL4" t="n">
-        <v>666.6365966796875</v>
+        <v>2028.74169921875</v>
       </c>
       <c r="GM4" t="n">
-        <v>642.3399658203125</v>
+        <v>2029.815185546875</v>
       </c>
       <c r="GN4" t="n">
-        <v>614.18798828125</v>
+        <v>2030.761962890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>605.54443359375</v>
+        <v>2031.0654296875</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2031.353759765625</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2031.6005859375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2031.836181640625</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2031.93017578125</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2032.179321289062</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2032.354248046875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2036.699584960938</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2048.806396484375</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2054.2412109375</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2056.639404296875</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2044.697509765625</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2035.034423828125</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2005.977905273438</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1987.615600585938</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1976.175415039062</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1925.099487304688</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1913.209350585938</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1867.30712890625</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1812.15478515625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1777.471557617188</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1756.69482421875</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1701.47216796875</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1648.680908203125</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1619.335815429688</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1606.878662109375</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1584.279907226562</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1557.599853515625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1527.725341796875</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1496.307495117188</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1453.251098632812</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1411.675537109375</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1376.075805664062</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1354.00390625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1315.837280273438</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1277.53857421875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1231.186279296875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1198.701171875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1171.123046875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1119.987060546875</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1099.327514648438</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1059.818725585938</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1018.559387207031</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>971.579345703125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>916.2918090820312</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>852.9708251953125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>788.5048217773438</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>733.3789672851562</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>671.0232543945312</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>595.4764404296875</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>534.871826171875</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>477.21142578125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>448.7957763671875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>425.4058837890625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>430.5174865722656</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>461.158935546875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>484.0726623535156</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>452.1918334960938</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>519.0267333984375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>611.4132080078125</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>672.0540771484375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>706.37646484375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>718.012451171875</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>703.8231811523438</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>689.790283203125</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>691.6753540039062</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>746.8275146484375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>790.1427612304688</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>820.6165161132812</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>857.6195068359375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>899.0938110351562</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>914.101806640625</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>923.5421142578125</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>870.7886962890625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>813.8692626953125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>801.0513916015625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>779.9320678710938</v>
       </c>
     </row>
   </sheetData>

--- a/waist_Data.xlsx
+++ b/waist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>214.1993560791016</v>
+        <v>417.9511108398438</v>
       </c>
       <c r="B2" t="n">
-        <v>214.4358673095703</v>
+        <v>420.4754638671875</v>
       </c>
       <c r="C2" t="n">
-        <v>214.4736938476562</v>
+        <v>421.2569580078125</v>
       </c>
       <c r="D2" t="n">
-        <v>214.5059509277344</v>
+        <v>422.5581665039062</v>
       </c>
       <c r="E2" t="n">
-        <v>214.556640625</v>
+        <v>423.3215942382812</v>
       </c>
       <c r="F2" t="n">
-        <v>214.5822143554688</v>
+        <v>424.1464233398438</v>
       </c>
       <c r="G2" t="n">
-        <v>214.6036529541016</v>
+        <v>425.4075622558594</v>
       </c>
       <c r="H2" t="n">
-        <v>214.6502380371094</v>
+        <v>426.4205932617188</v>
       </c>
       <c r="I2" t="n">
-        <v>214.7338256835938</v>
+        <v>426.9062805175781</v>
       </c>
       <c r="J2" t="n">
-        <v>214.8097534179688</v>
+        <v>426.9876098632812</v>
       </c>
       <c r="K2" t="n">
-        <v>214.8786010742188</v>
+        <v>426.6160278320312</v>
       </c>
       <c r="L2" t="n">
-        <v>214.9952392578125</v>
+        <v>425.5814208984375</v>
       </c>
       <c r="M2" t="n">
-        <v>215.1159515380859</v>
+        <v>420.848388671875</v>
       </c>
       <c r="N2" t="n">
-        <v>215.2288513183594</v>
+        <v>411.5470581054688</v>
       </c>
       <c r="O2" t="n">
-        <v>215.2508850097656</v>
+        <v>403.233642578125</v>
       </c>
       <c r="P2" t="n">
-        <v>215.212646484375</v>
+        <v>398.7802734375</v>
       </c>
       <c r="Q2" t="n">
-        <v>215.1483764648438</v>
+        <v>396.3348693847656</v>
       </c>
       <c r="R2" t="n">
-        <v>215.0728149414062</v>
+        <v>394.8721313476562</v>
       </c>
       <c r="S2" t="n">
-        <v>214.94189453125</v>
+        <v>394.0322265625</v>
       </c>
       <c r="T2" t="n">
-        <v>214.5769348144531</v>
+        <v>392.8730773925781</v>
       </c>
       <c r="U2" t="n">
-        <v>213.8782043457031</v>
+        <v>390.4475708007812</v>
       </c>
       <c r="V2" t="n">
-        <v>213.0045471191406</v>
+        <v>386.75439453125</v>
       </c>
       <c r="W2" t="n">
-        <v>212.688232421875</v>
+        <v>382.9540710449219</v>
       </c>
       <c r="X2" t="n">
-        <v>214.2633666992188</v>
+        <v>380.6685180664062</v>
       </c>
       <c r="Y2" t="n">
-        <v>218.6858367919922</v>
+        <v>378.5123291015625</v>
       </c>
       <c r="Z2" t="n">
-        <v>223.42431640625</v>
+        <v>375.9458923339844</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.5113220214844</v>
+        <v>372.8563842773438</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.3475646972656</v>
+        <v>369.9902648925781</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.1332855224609</v>
+        <v>368.80126953125</v>
       </c>
       <c r="AD2" t="n">
-        <v>237.3563385009766</v>
+        <v>369.1651000976562</v>
       </c>
       <c r="AE2" t="n">
-        <v>241.2014465332031</v>
+        <v>369.911376953125</v>
       </c>
       <c r="AF2" t="n">
-        <v>244.5624084472656</v>
+        <v>370.6570739746094</v>
       </c>
       <c r="AG2" t="n">
-        <v>248.1894073486328</v>
+        <v>371.3758850097656</v>
       </c>
       <c r="AH2" t="n">
-        <v>250.3615112304688</v>
+        <v>371.8524169921875</v>
       </c>
       <c r="AI2" t="n">
-        <v>252.5447387695312</v>
+        <v>372.1472778320312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>254.5986022949219</v>
+        <v>372.355712890625</v>
       </c>
       <c r="AK2" t="n">
-        <v>255.5962982177734</v>
+        <v>372.5493774414062</v>
       </c>
       <c r="AL2" t="n">
-        <v>256.9307250976562</v>
+        <v>371.8240966796875</v>
       </c>
       <c r="AM2" t="n">
-        <v>258.3071594238281</v>
+        <v>370.285400390625</v>
       </c>
       <c r="AN2" t="n">
-        <v>260.0363464355469</v>
+        <v>368.0349731445312</v>
       </c>
       <c r="AO2" t="n">
-        <v>261.4683837890625</v>
+        <v>365.9264831542969</v>
       </c>
       <c r="AP2" t="n">
-        <v>263.1809387207031</v>
+        <v>364.862548828125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>263.6170654296875</v>
+        <v>364.5609130859375</v>
       </c>
       <c r="AR2" t="n">
-        <v>264.5375061035156</v>
+        <v>364.4289855957031</v>
       </c>
       <c r="AS2" t="n">
-        <v>267.9861755371094</v>
+        <v>364.1958618164062</v>
       </c>
       <c r="AT2" t="n">
-        <v>272.3436584472656</v>
+        <v>363.7772216796875</v>
       </c>
       <c r="AU2" t="n">
-        <v>275.66064453125</v>
+        <v>359.3275451660156</v>
       </c>
       <c r="AV2" t="n">
-        <v>278.68310546875</v>
+        <v>351.748291015625</v>
       </c>
       <c r="AW2" t="n">
-        <v>284.2600708007812</v>
+        <v>344.6752319335938</v>
       </c>
       <c r="AX2" t="n">
-        <v>290.9324951171875</v>
+        <v>338.7239990234375</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.0496520996094</v>
+        <v>333.6572570800781</v>
       </c>
       <c r="AZ2" t="n">
-        <v>297.3505859375</v>
+        <v>326.6306762695312</v>
       </c>
       <c r="BA2" t="n">
-        <v>298.6770935058594</v>
+        <v>318.8229675292969</v>
       </c>
       <c r="BB2" t="n">
-        <v>299.4884033203125</v>
+        <v>309.6228637695312</v>
       </c>
       <c r="BC2" t="n">
-        <v>300.4183654785156</v>
+        <v>300.8602600097656</v>
       </c>
       <c r="BD2" t="n">
-        <v>301.9243774414062</v>
+        <v>294.9827575683594</v>
       </c>
       <c r="BE2" t="n">
-        <v>304.1292724609375</v>
+        <v>289.2110595703125</v>
       </c>
       <c r="BF2" t="n">
-        <v>306.5338134765625</v>
+        <v>283.2181701660156</v>
       </c>
       <c r="BG2" t="n">
-        <v>308.9049072265625</v>
+        <v>278.0753173828125</v>
       </c>
       <c r="BH2" t="n">
-        <v>311.4717712402344</v>
+        <v>273.5089111328125</v>
       </c>
       <c r="BI2" t="n">
-        <v>317.5323791503906</v>
+        <v>270.1793518066406</v>
       </c>
       <c r="BJ2" t="n">
-        <v>321.8432312011719</v>
+        <v>267.9890441894531</v>
       </c>
       <c r="BK2" t="n">
-        <v>325.1116638183594</v>
+        <v>266.6747741699219</v>
       </c>
       <c r="BL2" t="n">
-        <v>327.0614013671875</v>
+        <v>265.0940856933594</v>
       </c>
       <c r="BM2" t="n">
-        <v>328.2937622070312</v>
+        <v>261.6775817871094</v>
       </c>
       <c r="BN2" t="n">
-        <v>329.2913818359375</v>
+        <v>256.3258056640625</v>
       </c>
       <c r="BO2" t="n">
-        <v>330.9859619140625</v>
+        <v>251.3893280029297</v>
       </c>
       <c r="BP2" t="n">
-        <v>332.7955627441406</v>
+        <v>248.1812744140625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>334.7489013671875</v>
+        <v>245.9056854248047</v>
       </c>
       <c r="BR2" t="n">
-        <v>337.34619140625</v>
+        <v>243.5523376464844</v>
       </c>
       <c r="BS2" t="n">
-        <v>341.3326721191406</v>
+        <v>241.4114379882812</v>
       </c>
       <c r="BT2" t="n">
-        <v>345.0439147949219</v>
+        <v>239.3152160644531</v>
       </c>
       <c r="BU2" t="n">
-        <v>349.8005676269531</v>
+        <v>237.5226745605469</v>
       </c>
       <c r="BV2" t="n">
-        <v>353.5619506835938</v>
+        <v>236.4985961914062</v>
       </c>
       <c r="BW2" t="n">
-        <v>357.2225341796875</v>
+        <v>235.9192199707031</v>
       </c>
       <c r="BX2" t="n">
-        <v>359.2544555664062</v>
+        <v>235.5585021972656</v>
       </c>
       <c r="BY2" t="n">
-        <v>360.3436889648438</v>
+        <v>235.1346435546875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>360.614013671875</v>
+        <v>234.9832916259766</v>
       </c>
       <c r="CA2" t="n">
-        <v>361.2496948242188</v>
+        <v>234.9415588378906</v>
       </c>
       <c r="CB2" t="n">
-        <v>361.8875122070312</v>
+        <v>234.9404296875</v>
       </c>
       <c r="CC2" t="n">
-        <v>362.6699829101562</v>
+        <v>234.9493560791016</v>
       </c>
       <c r="CD2" t="n">
-        <v>363.5652160644531</v>
+        <v>234.9617919921875</v>
       </c>
       <c r="CE2" t="n">
-        <v>364.2457275390625</v>
+        <v>234.9830627441406</v>
       </c>
       <c r="CF2" t="n">
-        <v>364.5062866210938</v>
+        <v>235.1045532226562</v>
       </c>
       <c r="CG2" t="n">
-        <v>364.4916381835938</v>
+        <v>236.2766723632812</v>
       </c>
       <c r="CH2" t="n">
-        <v>364.3804626464844</v>
+        <v>238.5772552490234</v>
       </c>
       <c r="CI2" t="n">
-        <v>364.3102416992188</v>
+        <v>241.3675079345703</v>
       </c>
       <c r="CJ2" t="n">
-        <v>364.1881713867188</v>
+        <v>243.1998901367188</v>
       </c>
       <c r="CK2" t="n">
-        <v>364.0316162109375</v>
+        <v>244.3897857666016</v>
       </c>
       <c r="CL2" t="n">
-        <v>363.751220703125</v>
+        <v>245.2319641113281</v>
       </c>
       <c r="CM2" t="n">
-        <v>363.2482299804688</v>
+        <v>245.3394927978516</v>
       </c>
       <c r="CN2" t="n">
-        <v>362.6701354980469</v>
+        <v>245.3902893066406</v>
       </c>
       <c r="CO2" t="n">
-        <v>361.8543090820312</v>
+        <v>245.4136352539062</v>
       </c>
       <c r="CP2" t="n">
-        <v>360.4455871582031</v>
+        <v>245.4252319335938</v>
       </c>
       <c r="CQ2" t="n">
-        <v>359.0260314941406</v>
+        <v>245.4324340820312</v>
       </c>
       <c r="CR2" t="n">
-        <v>357.5363159179688</v>
+        <v>245.4412536621094</v>
       </c>
       <c r="CS2" t="n">
-        <v>356.5741577148438</v>
+        <v>245.4187622070312</v>
       </c>
       <c r="CT2" t="n">
-        <v>355.5490112304688</v>
+        <v>244.8907775878906</v>
       </c>
       <c r="CU2" t="n">
-        <v>353.2025756835938</v>
+        <v>243.6344299316406</v>
       </c>
       <c r="CV2" t="n">
-        <v>350.4153747558594</v>
+        <v>241.8492889404297</v>
       </c>
       <c r="CW2" t="n">
-        <v>347.7545776367188</v>
+        <v>240.5144500732422</v>
       </c>
       <c r="CX2" t="n">
-        <v>346.166015625</v>
+        <v>240.2743225097656</v>
       </c>
       <c r="CY2" t="n">
-        <v>344.2193908691406</v>
+        <v>240.2838745117188</v>
       </c>
       <c r="CZ2" t="n">
-        <v>342.9114074707031</v>
+        <v>240.3072967529297</v>
       </c>
       <c r="DA2" t="n">
-        <v>340.5356140136719</v>
+        <v>240.3486480712891</v>
       </c>
       <c r="DB2" t="n">
-        <v>339.9358520507812</v>
+        <v>240.4068908691406</v>
       </c>
       <c r="DC2" t="n">
-        <v>339.5487670898438</v>
+        <v>240.4502105712891</v>
       </c>
       <c r="DD2" t="n">
-        <v>339.2207641601562</v>
+        <v>240.5832061767578</v>
       </c>
       <c r="DE2" t="n">
-        <v>338.9164428710938</v>
+        <v>242.2016143798828</v>
       </c>
       <c r="DF2" t="n">
-        <v>338.7658996582031</v>
+        <v>245.3741302490234</v>
       </c>
       <c r="DG2" t="n">
-        <v>338.6813049316406</v>
+        <v>249.9900665283203</v>
       </c>
       <c r="DH2" t="n">
-        <v>338.6212768554688</v>
+        <v>255.2435455322266</v>
       </c>
       <c r="DI2" t="n">
-        <v>338.6400146484375</v>
+        <v>260.4459533691406</v>
       </c>
       <c r="DJ2" t="n">
-        <v>338.6583862304688</v>
+        <v>264.9742431640625</v>
       </c>
       <c r="DK2" t="n">
-        <v>338.6733703613281</v>
+        <v>270.387451171875</v>
       </c>
       <c r="DL2" t="n">
-        <v>338.6701049804688</v>
+        <v>283.6802673339844</v>
       </c>
       <c r="DM2" t="n">
-        <v>338.6641845703125</v>
+        <v>291.4065246582031</v>
       </c>
       <c r="DN2" t="n">
-        <v>338.6593017578125</v>
+        <v>299.3208312988281</v>
       </c>
       <c r="DO2" t="n">
-        <v>338.6527099609375</v>
+        <v>306.5671081542969</v>
       </c>
       <c r="DP2" t="n">
-        <v>338.6507873535156</v>
+        <v>324.6082763671875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>338.6371459960938</v>
+        <v>334.2016296386719</v>
       </c>
       <c r="DR2" t="n">
-        <v>338.5970764160156</v>
+        <v>342.5997924804688</v>
       </c>
       <c r="DS2" t="n">
-        <v>338.5271606445312</v>
+        <v>355.1809387207031</v>
       </c>
       <c r="DT2" t="n">
-        <v>338.1143493652344</v>
+        <v>360.658203125</v>
       </c>
       <c r="DU2" t="n">
-        <v>337.9126586914062</v>
+        <v>363.4584350585938</v>
       </c>
       <c r="DV2" t="n">
-        <v>337.7417602539062</v>
+        <v>364.2510681152344</v>
       </c>
       <c r="DW2" t="n">
-        <v>337.5341796875</v>
+        <v>366.4531860351562</v>
       </c>
       <c r="DX2" t="n">
-        <v>337.544921875</v>
+        <v>368.5686645507812</v>
       </c>
       <c r="DY2" t="n">
-        <v>337.5599365234375</v>
+        <v>370.9997253417969</v>
       </c>
       <c r="DZ2" t="n">
-        <v>337.603759765625</v>
+        <v>374.3717956542969</v>
       </c>
       <c r="EA2" t="n">
-        <v>338.0328674316406</v>
+        <v>375.415283203125</v>
       </c>
       <c r="EB2" t="n">
-        <v>338.6153564453125</v>
+        <v>377.5254516601562</v>
       </c>
       <c r="EC2" t="n">
-        <v>339.943115234375</v>
+        <v>377.9699096679688</v>
       </c>
       <c r="ED2" t="n">
-        <v>340.2922973632812</v>
+        <v>378.2054443359375</v>
       </c>
       <c r="EE2" t="n">
-        <v>340.5936279296875</v>
+        <v>377.229248046875</v>
       </c>
       <c r="EF2" t="n">
-        <v>340.6248474121094</v>
+        <v>374.9365234375</v>
       </c>
       <c r="EG2" t="n">
-        <v>340.6164245605469</v>
+        <v>368.2891235351562</v>
       </c>
       <c r="EH2" t="n">
-        <v>340.6100463867188</v>
+        <v>365.9846496582031</v>
       </c>
       <c r="EI2" t="n">
-        <v>340.6051940917969</v>
+        <v>362.8265991210938</v>
       </c>
       <c r="EJ2" t="n">
-        <v>340.6104125976562</v>
+        <v>361.2483215332031</v>
       </c>
       <c r="EK2" t="n">
-        <v>340.626953125</v>
+        <v>357.4010620117188</v>
       </c>
       <c r="EL2" t="n">
-        <v>340.6440734863281</v>
+        <v>352.6985473632812</v>
       </c>
       <c r="EM2" t="n">
-        <v>340.7055053710938</v>
+        <v>341.3904113769531</v>
       </c>
       <c r="EN2" t="n">
-        <v>342.0253295898438</v>
+        <v>335.64990234375</v>
       </c>
       <c r="EO2" t="n">
-        <v>343.8421325683594</v>
+        <v>323.2772216796875</v>
       </c>
       <c r="EP2" t="n">
-        <v>345.9893493652344</v>
+        <v>318.5900268554688</v>
       </c>
       <c r="EQ2" t="n">
-        <v>346.4854125976562</v>
+        <v>309.9691467285156</v>
       </c>
       <c r="ER2" t="n">
-        <v>346.8489990234375</v>
+        <v>304.52587890625</v>
       </c>
       <c r="ES2" t="n">
-        <v>346.8843078613281</v>
+        <v>299.6097412109375</v>
       </c>
       <c r="ET2" t="n">
-        <v>346.9185791015625</v>
+        <v>298.5945129394531</v>
       </c>
       <c r="EU2" t="n">
-        <v>346.9307250976562</v>
+        <v>298.0029296875</v>
       </c>
       <c r="EV2" t="n">
-        <v>346.8442077636719</v>
+        <v>297.2456359863281</v>
       </c>
       <c r="EW2" t="n">
-        <v>346.6741333007812</v>
+        <v>290.5971374511719</v>
       </c>
       <c r="EX2" t="n">
-        <v>346.546630859375</v>
+        <v>286.4804077148438</v>
       </c>
       <c r="EY2" t="n">
-        <v>346.4700317382812</v>
+        <v>283.0978698730469</v>
       </c>
       <c r="EZ2" t="n">
-        <v>346.3919677734375</v>
+        <v>286.9851379394531</v>
       </c>
       <c r="FA2" t="n">
-        <v>346.275634765625</v>
+        <v>293.6015014648438</v>
       </c>
       <c r="FB2" t="n">
-        <v>346.1978759765625</v>
+        <v>300.1278381347656</v>
       </c>
       <c r="FC2" t="n">
-        <v>346.1233825683594</v>
+        <v>306.0835266113281</v>
       </c>
       <c r="FD2" t="n">
-        <v>346.072021484375</v>
+        <v>309.8020935058594</v>
       </c>
       <c r="FE2" t="n">
-        <v>346.0602416992188</v>
+        <v>312.7007751464844</v>
       </c>
       <c r="FF2" t="n">
-        <v>346.0561828613281</v>
+        <v>320.5845642089844</v>
       </c>
       <c r="FG2" t="n">
-        <v>346.0548095703125</v>
+        <v>324.5313110351562</v>
       </c>
       <c r="FH2" t="n">
-        <v>345.961181640625</v>
+        <v>330.7732849121094</v>
       </c>
       <c r="FI2" t="n">
-        <v>345.9083557128906</v>
+        <v>335.93310546875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>345.8736572265625</v>
+        <v>348.5698852539062</v>
       </c>
       <c r="FK2" t="n">
-        <v>345.8605346679688</v>
+        <v>357.337158203125</v>
       </c>
       <c r="FL2" t="n">
-        <v>345.8605651855469</v>
+        <v>384.2695922851562</v>
       </c>
       <c r="FM2" t="n">
-        <v>345.8586120605469</v>
+        <v>397.3932495117188</v>
       </c>
       <c r="FN2" t="n">
-        <v>345.8590698242188</v>
+        <v>410.5095825195312</v>
       </c>
       <c r="FO2" t="n">
-        <v>345.8602600097656</v>
+        <v>427.7300415039062</v>
       </c>
       <c r="FP2" t="n">
-        <v>345.8622741699219</v>
+        <v>444.836669921875</v>
       </c>
       <c r="FQ2" t="n">
-        <v>345.8640747070312</v>
+        <v>455.6204833984375</v>
       </c>
       <c r="FR2" t="n">
-        <v>345.8654174804688</v>
+        <v>462.3858642578125</v>
       </c>
       <c r="FS2" t="n">
-        <v>345.8997192382812</v>
+        <v>459.5950927734375</v>
       </c>
       <c r="FT2" t="n">
-        <v>345.9402770996094</v>
+        <v>457.0967102050781</v>
       </c>
       <c r="FU2" t="n">
-        <v>346.0496215820312</v>
+        <v>457.240966796875</v>
       </c>
       <c r="FV2" t="n">
-        <v>346.1218872070312</v>
+        <v>462.2179870605469</v>
       </c>
       <c r="FW2" t="n">
-        <v>346.3570556640625</v>
+        <v>474.8271484375</v>
       </c>
       <c r="FX2" t="n">
-        <v>346.472412109375</v>
+        <v>476.7867431640625</v>
       </c>
       <c r="FY2" t="n">
-        <v>346.43408203125</v>
+        <v>476.6570434570312</v>
       </c>
       <c r="FZ2" t="n">
-        <v>346.29736328125</v>
+        <v>476.4736633300781</v>
       </c>
       <c r="GA2" t="n">
-        <v>345.8176879882812</v>
+        <v>474.8123779296875</v>
       </c>
       <c r="GB2" t="n">
-        <v>345.4896850585938</v>
+        <v>479.9276733398438</v>
       </c>
       <c r="GC2" t="n">
-        <v>344.8095092773438</v>
+        <v>493.0635070800781</v>
       </c>
       <c r="GD2" t="n">
-        <v>344.2266235351562</v>
+        <v>497.8497619628906</v>
       </c>
       <c r="GE2" t="n">
-        <v>344.0518798828125</v>
+        <v>497.9210815429688</v>
       </c>
       <c r="GF2" t="n">
-        <v>343.7117919921875</v>
+        <v>491.5320129394531</v>
       </c>
       <c r="GG2" t="n">
-        <v>343.5889892578125</v>
+        <v>459.0162963867188</v>
       </c>
       <c r="GH2" t="n">
-        <v>343.2437744140625</v>
+        <v>438.0846557617188</v>
       </c>
       <c r="GI2" t="n">
-        <v>342.95947265625</v>
+        <v>377.0028686523438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>342.8362426757812</v>
+        <v>365.4096069335938</v>
       </c>
       <c r="GK2" t="n">
-        <v>342.5699462890625</v>
+        <v>387.7047729492188</v>
       </c>
       <c r="GL2" t="n">
-        <v>342.39404296875</v>
+        <v>395.8900451660156</v>
       </c>
       <c r="GM2" t="n">
-        <v>342.2398376464844</v>
+        <v>379.4752502441406</v>
       </c>
       <c r="GN2" t="n">
-        <v>342.1052856445312</v>
+        <v>335.232177734375</v>
       </c>
       <c r="GO2" t="n">
-        <v>342.0459289550781</v>
+        <v>325.6065063476562</v>
       </c>
       <c r="GP2" t="n">
-        <v>341.9237976074219</v>
+        <v>327.3233642578125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>341.7062072753906</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>341.4301147460938</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>341.2664184570312</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>340.8438110351562</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>340.4482727050781</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>339.1459655761719</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>337.3807373046875</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>336.707275390625</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>335.592041015625</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>335.2054443359375</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>334.9594421386719</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>333.2344055175781</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>330.6309814453125</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>329.7680358886719</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>328.3587036132812</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>328.1719970703125</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>328.0678100585938</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>327.9253845214844</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>327.2529296875</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>326.7381286621094</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>325.625244140625</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>324.4561462402344</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>322.1500244140625</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>319.9851379394531</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>317.5751647949219</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>316.5494995117188</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>315.9320678710938</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>315.448974609375</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>314.8718872070312</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>313.3345031738281</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>308.922119140625</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>306.4571533203125</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>300.528076171875</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>294.139892578125</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>287.697265625</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>281.3441162109375</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>276.9227905273438</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>273.4457397460938</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>273.4505615234375</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>275.7311706542969</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>276.6664123535156</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>276.230712890625</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>276.9130859375</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>282.0943603515625</v>
-      </c>
-      <c r="II2" t="n">
-        <v>286.3256530761719</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>286.8652648925781</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>290.5950927734375</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>292.4878540039062</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>293.7282104492188</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>293</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>277.3093566894531</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>217.6113586425781</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>204.2370910644531</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>219.9636840820312</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>233.6440887451172</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>167.7621612548828</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>159.6765441894531</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>174.6292419433594</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>170.6468048095703</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>159.1120147705078</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>147.8461761474609</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>150.9800872802734</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>157.669921875</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>158.6956024169922</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>159.5237426757812</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>171.5803375244141</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>189.0991363525391</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>218.7909545898438</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>258.3343811035156</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>267.5875549316406</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>264.871337890625</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>236.8224182128906</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>188.5529327392578</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>176.6286926269531</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>175.2347564697266</v>
+        <v>326.6210327148438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>359.6025390625</v>
+        <v>431.2836303710938</v>
       </c>
       <c r="B3" t="n">
-        <v>358.9107971191406</v>
+        <v>425.7057495117188</v>
       </c>
       <c r="C3" t="n">
-        <v>358.7792358398438</v>
+        <v>420.4639892578125</v>
       </c>
       <c r="D3" t="n">
-        <v>358.6814575195312</v>
+        <v>417.6524047851562</v>
       </c>
       <c r="E3" t="n">
-        <v>358.6041259765625</v>
+        <v>415.7971496582031</v>
       </c>
       <c r="F3" t="n">
-        <v>358.5403747558594</v>
+        <v>413.9363708496094</v>
       </c>
       <c r="G3" t="n">
-        <v>358.490478515625</v>
+        <v>409.5875549316406</v>
       </c>
       <c r="H3" t="n">
-        <v>358.4531860351562</v>
+        <v>405.23974609375</v>
       </c>
       <c r="I3" t="n">
-        <v>358.4263000488281</v>
+        <v>400.3394165039062</v>
       </c>
       <c r="J3" t="n">
-        <v>358.4053649902344</v>
+        <v>394.4181823730469</v>
       </c>
       <c r="K3" t="n">
-        <v>358.38916015625</v>
+        <v>387.6543579101562</v>
       </c>
       <c r="L3" t="n">
-        <v>358.4269409179688</v>
+        <v>379.3795471191406</v>
       </c>
       <c r="M3" t="n">
-        <v>358.480712890625</v>
+        <v>370.3580627441406</v>
       </c>
       <c r="N3" t="n">
-        <v>358.5450439453125</v>
+        <v>358.0363159179688</v>
       </c>
       <c r="O3" t="n">
-        <v>358.6231994628906</v>
+        <v>346.1078796386719</v>
       </c>
       <c r="P3" t="n">
-        <v>358.695068359375</v>
+        <v>335.0488891601562</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.7695007324219</v>
+        <v>328.0374450683594</v>
       </c>
       <c r="R3" t="n">
-        <v>358.8439025878906</v>
+        <v>323.3642578125</v>
       </c>
       <c r="S3" t="n">
-        <v>358.9286804199219</v>
+        <v>319.6059875488281</v>
       </c>
       <c r="T3" t="n">
-        <v>359.2562561035156</v>
+        <v>315.7226867675781</v>
       </c>
       <c r="U3" t="n">
-        <v>360.1192932128906</v>
+        <v>311.5608520507812</v>
       </c>
       <c r="V3" t="n">
-        <v>361.8932495117188</v>
+        <v>307.336181640625</v>
       </c>
       <c r="W3" t="n">
-        <v>364.574951171875</v>
+        <v>303.6627807617188</v>
       </c>
       <c r="X3" t="n">
-        <v>367.7501525878906</v>
+        <v>300.7020568847656</v>
       </c>
       <c r="Y3" t="n">
-        <v>367.6803894042969</v>
+        <v>298.40966796875</v>
       </c>
       <c r="Z3" t="n">
-        <v>367.6609497070312</v>
+        <v>296.6262817382812</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.2877502441406</v>
+        <v>295.480712890625</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.77197265625</v>
+        <v>294.9147644042969</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.7392883300781</v>
+        <v>294.9805297851562</v>
       </c>
       <c r="AD3" t="n">
-        <v>370.4110107421875</v>
+        <v>295.5888977050781</v>
       </c>
       <c r="AE3" t="n">
-        <v>368.2835388183594</v>
+        <v>296.6646728515625</v>
       </c>
       <c r="AF3" t="n">
-        <v>366.3768005371094</v>
+        <v>297.9149475097656</v>
       </c>
       <c r="AG3" t="n">
-        <v>364.8995056152344</v>
+        <v>299.1260986328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>363.5981140136719</v>
+        <v>300.1126403808594</v>
       </c>
       <c r="AI3" t="n">
-        <v>362.1180419921875</v>
+        <v>300.8860778808594</v>
       </c>
       <c r="AJ3" t="n">
-        <v>361.1648559570312</v>
+        <v>301.5059814453125</v>
       </c>
       <c r="AK3" t="n">
-        <v>360.9029235839844</v>
+        <v>301.9897155761719</v>
       </c>
       <c r="AL3" t="n">
-        <v>360.840087890625</v>
+        <v>302.3862915039062</v>
       </c>
       <c r="AM3" t="n">
-        <v>361.1142883300781</v>
+        <v>302.7388305664062</v>
       </c>
       <c r="AN3" t="n">
-        <v>361.1432800292969</v>
+        <v>302.8035278320312</v>
       </c>
       <c r="AO3" t="n">
-        <v>360.0803833007812</v>
+        <v>302.2218017578125</v>
       </c>
       <c r="AP3" t="n">
-        <v>356.4279174804688</v>
+        <v>301.3046875</v>
       </c>
       <c r="AQ3" t="n">
-        <v>353.956298828125</v>
+        <v>300.4774475097656</v>
       </c>
       <c r="AR3" t="n">
-        <v>350.4827575683594</v>
+        <v>299.8619384765625</v>
       </c>
       <c r="AS3" t="n">
-        <v>348.0701293945312</v>
+        <v>299.8192138671875</v>
       </c>
       <c r="AT3" t="n">
-        <v>346.8375549316406</v>
+        <v>300.3638610839844</v>
       </c>
       <c r="AU3" t="n">
-        <v>349.0289916992188</v>
+        <v>302.2622985839844</v>
       </c>
       <c r="AV3" t="n">
-        <v>354.8165283203125</v>
+        <v>303.86767578125</v>
       </c>
       <c r="AW3" t="n">
-        <v>360.9342956542969</v>
+        <v>305.1871337890625</v>
       </c>
       <c r="AX3" t="n">
-        <v>362.5659484863281</v>
+        <v>306.1653442382812</v>
       </c>
       <c r="AY3" t="n">
-        <v>361.7510070800781</v>
+        <v>307.3689575195312</v>
       </c>
       <c r="AZ3" t="n">
-        <v>359.8731994628906</v>
+        <v>308.1275024414062</v>
       </c>
       <c r="BA3" t="n">
-        <v>359.4213256835938</v>
+        <v>308.5337829589844</v>
       </c>
       <c r="BB3" t="n">
-        <v>358.3037719726562</v>
+        <v>308.7496337890625</v>
       </c>
       <c r="BC3" t="n">
-        <v>356.8521423339844</v>
+        <v>309.3171691894531</v>
       </c>
       <c r="BD3" t="n">
-        <v>354.4071960449219</v>
+        <v>309.8280944824219</v>
       </c>
       <c r="BE3" t="n">
-        <v>351.8193969726562</v>
+        <v>309.5798034667969</v>
       </c>
       <c r="BF3" t="n">
-        <v>348.4659423828125</v>
+        <v>308.630126953125</v>
       </c>
       <c r="BG3" t="n">
-        <v>345.0434875488281</v>
+        <v>307.2417907714844</v>
       </c>
       <c r="BH3" t="n">
-        <v>342.8494873046875</v>
+        <v>305.7683715820312</v>
       </c>
       <c r="BI3" t="n">
-        <v>340.8125305175781</v>
+        <v>304.6888122558594</v>
       </c>
       <c r="BJ3" t="n">
-        <v>340.8581848144531</v>
+        <v>303.8053588867188</v>
       </c>
       <c r="BK3" t="n">
-        <v>341.097900390625</v>
+        <v>303.2668762207031</v>
       </c>
       <c r="BL3" t="n">
-        <v>341.4136657714844</v>
+        <v>302.996337890625</v>
       </c>
       <c r="BM3" t="n">
-        <v>340.4096984863281</v>
+        <v>303.0177001953125</v>
       </c>
       <c r="BN3" t="n">
-        <v>339.7646789550781</v>
+        <v>303.3504943847656</v>
       </c>
       <c r="BO3" t="n">
-        <v>339.9296875</v>
+        <v>303.6324462890625</v>
       </c>
       <c r="BP3" t="n">
-        <v>340.2105407714844</v>
+        <v>303.715087890625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>340.6255798339844</v>
+        <v>303.7407836914062</v>
       </c>
       <c r="BR3" t="n">
-        <v>340.7183837890625</v>
+        <v>303.7814331054688</v>
       </c>
       <c r="BS3" t="n">
-        <v>341.2982177734375</v>
+        <v>303.7647094726562</v>
       </c>
       <c r="BT3" t="n">
-        <v>342.6329040527344</v>
+        <v>303.7001342773438</v>
       </c>
       <c r="BU3" t="n">
-        <v>343.2902221679688</v>
+        <v>303.5947875976562</v>
       </c>
       <c r="BV3" t="n">
-        <v>342.8627014160156</v>
+        <v>303.4854125976562</v>
       </c>
       <c r="BW3" t="n">
-        <v>341.3515319824219</v>
+        <v>303.4545288085938</v>
       </c>
       <c r="BX3" t="n">
-        <v>339.5960083007812</v>
+        <v>303.4774169921875</v>
       </c>
       <c r="BY3" t="n">
-        <v>338.2484436035156</v>
+        <v>303.5562744140625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>337.0559997558594</v>
+        <v>303.680908203125</v>
       </c>
       <c r="CA3" t="n">
-        <v>336.0393981933594</v>
+        <v>303.8722839355469</v>
       </c>
       <c r="CB3" t="n">
-        <v>335.0504150390625</v>
+        <v>304.1014099121094</v>
       </c>
       <c r="CC3" t="n">
-        <v>333.9654235839844</v>
+        <v>304.3723449707031</v>
       </c>
       <c r="CD3" t="n">
-        <v>333.0454406738281</v>
+        <v>304.6753540039062</v>
       </c>
       <c r="CE3" t="n">
-        <v>332.0902099609375</v>
+        <v>304.9776000976562</v>
       </c>
       <c r="CF3" t="n">
-        <v>330.9048156738281</v>
+        <v>305.2851867675781</v>
       </c>
       <c r="CG3" t="n">
-        <v>329.8968505859375</v>
+        <v>305.5589599609375</v>
       </c>
       <c r="CH3" t="n">
-        <v>329.3093872070312</v>
+        <v>305.9276428222656</v>
       </c>
       <c r="CI3" t="n">
-        <v>329.0971069335938</v>
+        <v>306.4615783691406</v>
       </c>
       <c r="CJ3" t="n">
-        <v>329.035400390625</v>
+        <v>306.9421997070312</v>
       </c>
       <c r="CK3" t="n">
-        <v>329.4075622558594</v>
+        <v>307.2951049804688</v>
       </c>
       <c r="CL3" t="n">
-        <v>330.3539123535156</v>
+        <v>307.7079162597656</v>
       </c>
       <c r="CM3" t="n">
-        <v>331.19775390625</v>
+        <v>307.8802185058594</v>
       </c>
       <c r="CN3" t="n">
-        <v>332.2658081054688</v>
+        <v>308.0051879882812</v>
       </c>
       <c r="CO3" t="n">
-        <v>333.1386413574219</v>
+        <v>308.0219421386719</v>
       </c>
       <c r="CP3" t="n">
-        <v>334.6004638671875</v>
+        <v>308.0211791992188</v>
       </c>
       <c r="CQ3" t="n">
-        <v>335.7763671875</v>
+        <v>308.024658203125</v>
       </c>
       <c r="CR3" t="n">
-        <v>336.8768005371094</v>
+        <v>308.0621337890625</v>
       </c>
       <c r="CS3" t="n">
-        <v>337.8693237304688</v>
+        <v>308.0628662109375</v>
       </c>
       <c r="CT3" t="n">
-        <v>337.8767395019531</v>
+        <v>308.1613159179688</v>
       </c>
       <c r="CU3" t="n">
-        <v>337.4539489746094</v>
+        <v>308.3660278320312</v>
       </c>
       <c r="CV3" t="n">
-        <v>336.7610778808594</v>
+        <v>308.6420288085938</v>
       </c>
       <c r="CW3" t="n">
-        <v>336.0702209472656</v>
+        <v>308.7991943359375</v>
       </c>
       <c r="CX3" t="n">
-        <v>335.4488220214844</v>
+        <v>308.8338928222656</v>
       </c>
       <c r="CY3" t="n">
-        <v>334.7032165527344</v>
+        <v>308.8962707519531</v>
       </c>
       <c r="CZ3" t="n">
-        <v>334.5152282714844</v>
+        <v>308.939697265625</v>
       </c>
       <c r="DA3" t="n">
-        <v>334.56884765625</v>
+        <v>308.8961791992188</v>
       </c>
       <c r="DB3" t="n">
-        <v>334.81689453125</v>
+        <v>308.7370910644531</v>
       </c>
       <c r="DC3" t="n">
-        <v>335.1021423339844</v>
+        <v>308.6229553222656</v>
       </c>
       <c r="DD3" t="n">
-        <v>335.2539672851562</v>
+        <v>308.5378723144531</v>
       </c>
       <c r="DE3" t="n">
-        <v>335.2150573730469</v>
+        <v>308.4430847167969</v>
       </c>
       <c r="DF3" t="n">
-        <v>335.1473693847656</v>
+        <v>308.3454284667969</v>
       </c>
       <c r="DG3" t="n">
-        <v>335.0887145996094</v>
+        <v>308.2338256835938</v>
       </c>
       <c r="DH3" t="n">
-        <v>334.868408203125</v>
+        <v>308.1327514648438</v>
       </c>
       <c r="DI3" t="n">
-        <v>334.8504943847656</v>
+        <v>308.0736083984375</v>
       </c>
       <c r="DJ3" t="n">
-        <v>334.8529052734375</v>
+        <v>308.1006164550781</v>
       </c>
       <c r="DK3" t="n">
-        <v>334.8154296875</v>
+        <v>308.3518676757812</v>
       </c>
       <c r="DL3" t="n">
-        <v>334.7344665527344</v>
+        <v>309.5670166015625</v>
       </c>
       <c r="DM3" t="n">
-        <v>334.6928405761719</v>
+        <v>310.1446228027344</v>
       </c>
       <c r="DN3" t="n">
-        <v>334.6927490234375</v>
+        <v>313.5301208496094</v>
       </c>
       <c r="DO3" t="n">
-        <v>334.7271118164062</v>
+        <v>316.6813049316406</v>
       </c>
       <c r="DP3" t="n">
-        <v>334.7709655761719</v>
+        <v>318.5923767089844</v>
       </c>
       <c r="DQ3" t="n">
-        <v>334.8851928710938</v>
+        <v>318.392822265625</v>
       </c>
       <c r="DR3" t="n">
-        <v>334.9305419921875</v>
+        <v>318.0370178222656</v>
       </c>
       <c r="DS3" t="n">
-        <v>334.9486083984375</v>
+        <v>317.7584228515625</v>
       </c>
       <c r="DT3" t="n">
-        <v>334.9493408203125</v>
+        <v>317.6744079589844</v>
       </c>
       <c r="DU3" t="n">
-        <v>334.9517517089844</v>
+        <v>317.5878295898438</v>
       </c>
       <c r="DV3" t="n">
-        <v>334.9462585449219</v>
+        <v>313.0894165039062</v>
       </c>
       <c r="DW3" t="n">
-        <v>334.9237060546875</v>
+        <v>306.1909484863281</v>
       </c>
       <c r="DX3" t="n">
-        <v>334.9095458984375</v>
+        <v>303.9266967773438</v>
       </c>
       <c r="DY3" t="n">
-        <v>334.9056091308594</v>
+        <v>302.7752685546875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>334.9479064941406</v>
+        <v>301.990966796875</v>
       </c>
       <c r="EA3" t="n">
-        <v>334.9430847167969</v>
+        <v>301.8513793945312</v>
       </c>
       <c r="EB3" t="n">
-        <v>334.9523010253906</v>
+        <v>301.7528381347656</v>
       </c>
       <c r="EC3" t="n">
-        <v>335.1312255859375</v>
+        <v>301.5484008789062</v>
       </c>
       <c r="ED3" t="n">
-        <v>335.3357238769531</v>
+        <v>301.1383056640625</v>
       </c>
       <c r="EE3" t="n">
-        <v>335.9175415039062</v>
+        <v>300.758544921875</v>
       </c>
       <c r="EF3" t="n">
-        <v>336.154541015625</v>
+        <v>300.0996398925781</v>
       </c>
       <c r="EG3" t="n">
-        <v>336.1765747070312</v>
+        <v>298.6135864257812</v>
       </c>
       <c r="EH3" t="n">
-        <v>336.1545104980469</v>
+        <v>298.7907104492188</v>
       </c>
       <c r="EI3" t="n">
-        <v>336.1984558105469</v>
+        <v>300.119873046875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>336.2542724609375</v>
+        <v>301.1667785644531</v>
       </c>
       <c r="EK3" t="n">
-        <v>336.3917236328125</v>
+        <v>302.5954284667969</v>
       </c>
       <c r="EL3" t="n">
-        <v>336.4274597167969</v>
+        <v>303.3507995605469</v>
       </c>
       <c r="EM3" t="n">
-        <v>336.4559020996094</v>
+        <v>304.1925048828125</v>
       </c>
       <c r="EN3" t="n">
-        <v>336.358154296875</v>
+        <v>305.1540832519531</v>
       </c>
       <c r="EO3" t="n">
-        <v>336.2528076171875</v>
+        <v>307.3121032714844</v>
       </c>
       <c r="EP3" t="n">
-        <v>336.0340270996094</v>
+        <v>309.7972717285156</v>
       </c>
       <c r="EQ3" t="n">
-        <v>336.0422058105469</v>
+        <v>316.0165100097656</v>
       </c>
       <c r="ER3" t="n">
-        <v>336.0509338378906</v>
+        <v>317.031982421875</v>
       </c>
       <c r="ES3" t="n">
-        <v>336.0557556152344</v>
+        <v>320.1057739257812</v>
       </c>
       <c r="ET3" t="n">
-        <v>335.9650573730469</v>
+        <v>322.7543640136719</v>
       </c>
       <c r="EU3" t="n">
-        <v>335.9585571289062</v>
+        <v>324.4596862792969</v>
       </c>
       <c r="EV3" t="n">
-        <v>335.9434814453125</v>
+        <v>324.2653198242188</v>
       </c>
       <c r="EW3" t="n">
-        <v>335.8887329101562</v>
+        <v>325.6614379882812</v>
       </c>
       <c r="EX3" t="n">
-        <v>335.8714599609375</v>
+        <v>328.6234436035156</v>
       </c>
       <c r="EY3" t="n">
-        <v>335.8519592285156</v>
+        <v>332.7674865722656</v>
       </c>
       <c r="EZ3" t="n">
-        <v>335.8442993164062</v>
+        <v>333.7273864746094</v>
       </c>
       <c r="FA3" t="n">
-        <v>335.8539428710938</v>
+        <v>333.4417724609375</v>
       </c>
       <c r="FB3" t="n">
-        <v>335.8529357910156</v>
+        <v>331.3764343261719</v>
       </c>
       <c r="FC3" t="n">
-        <v>335.8457336425781</v>
+        <v>332.3274536132812</v>
       </c>
       <c r="FD3" t="n">
-        <v>335.8208618164062</v>
+        <v>335.8904418945312</v>
       </c>
       <c r="FE3" t="n">
-        <v>335.7489929199219</v>
+        <v>338.5318908691406</v>
       </c>
       <c r="FF3" t="n">
-        <v>335.7121887207031</v>
+        <v>350.2244567871094</v>
       </c>
       <c r="FG3" t="n">
-        <v>335.6927795410156</v>
+        <v>357.0362548828125</v>
       </c>
       <c r="FH3" t="n">
-        <v>335.6286010742188</v>
+        <v>367.3187561035156</v>
       </c>
       <c r="FI3" t="n">
-        <v>335.5597534179688</v>
+        <v>371.1041564941406</v>
       </c>
       <c r="FJ3" t="n">
-        <v>335.5062561035156</v>
+        <v>391.4808349609375</v>
       </c>
       <c r="FK3" t="n">
-        <v>335.4956665039062</v>
+        <v>406.6930236816406</v>
       </c>
       <c r="FL3" t="n">
-        <v>335.4945678710938</v>
+        <v>427.5205383300781</v>
       </c>
       <c r="FM3" t="n">
-        <v>335.4784851074219</v>
+        <v>432.5025024414062</v>
       </c>
       <c r="FN3" t="n">
-        <v>335.484619140625</v>
+        <v>437.3287048339844</v>
       </c>
       <c r="FO3" t="n">
-        <v>335.4999694824219</v>
+        <v>458.2278442382812</v>
       </c>
       <c r="FP3" t="n">
-        <v>335.53076171875</v>
+        <v>483.6817321777344</v>
       </c>
       <c r="FQ3" t="n">
-        <v>335.5613708496094</v>
+        <v>496.2236633300781</v>
       </c>
       <c r="FR3" t="n">
-        <v>335.587158203125</v>
+        <v>505.8042602539062</v>
       </c>
       <c r="FS3" t="n">
-        <v>335.7715759277344</v>
+        <v>499.5427856445312</v>
       </c>
       <c r="FT3" t="n">
-        <v>335.9786376953125</v>
+        <v>493.2738952636719</v>
       </c>
       <c r="FU3" t="n">
-        <v>336.5041809082031</v>
+        <v>484.16455078125</v>
       </c>
       <c r="FV3" t="n">
-        <v>336.7079467773438</v>
+        <v>481.0707702636719</v>
       </c>
       <c r="FW3" t="n">
-        <v>337.0798034667969</v>
+        <v>482.5005493164062</v>
       </c>
       <c r="FX3" t="n">
-        <v>337.200927734375</v>
+        <v>484.8333435058594</v>
       </c>
       <c r="FY3" t="n">
-        <v>337.2608337402344</v>
+        <v>485.7586059570312</v>
       </c>
       <c r="FZ3" t="n">
-        <v>337.2832641601562</v>
+        <v>486.2955627441406</v>
       </c>
       <c r="GA3" t="n">
-        <v>337.3135070800781</v>
+        <v>485.324462890625</v>
       </c>
       <c r="GB3" t="n">
-        <v>337.3150939941406</v>
+        <v>490.6172485351562</v>
       </c>
       <c r="GC3" t="n">
-        <v>337.2767639160156</v>
+        <v>502.2149353027344</v>
       </c>
       <c r="GD3" t="n">
-        <v>337.1868896484375</v>
+        <v>508.9038391113281</v>
       </c>
       <c r="GE3" t="n">
-        <v>337.1326904296875</v>
+        <v>509.9320068359375</v>
       </c>
       <c r="GF3" t="n">
-        <v>337.06396484375</v>
+        <v>507.123291015625</v>
       </c>
       <c r="GG3" t="n">
-        <v>337.0965576171875</v>
+        <v>506.2590942382812</v>
       </c>
       <c r="GH3" t="n">
-        <v>337.2730407714844</v>
+        <v>506.550537109375</v>
       </c>
       <c r="GI3" t="n">
-        <v>337.2893981933594</v>
+        <v>506.3202514648438</v>
       </c>
       <c r="GJ3" t="n">
-        <v>337.1512145996094</v>
+        <v>512.7223510742188</v>
       </c>
       <c r="GK3" t="n">
-        <v>336.4696350097656</v>
+        <v>533.2633056640625</v>
       </c>
       <c r="GL3" t="n">
-        <v>337.3841552734375</v>
+        <v>537.9135131835938</v>
       </c>
       <c r="GM3" t="n">
-        <v>336.462158203125</v>
+        <v>545.77587890625</v>
       </c>
       <c r="GN3" t="n">
-        <v>336.0042114257812</v>
+        <v>548.0379028320312</v>
       </c>
       <c r="GO3" t="n">
-        <v>335.8869018554688</v>
+        <v>547.886962890625</v>
       </c>
       <c r="GP3" t="n">
-        <v>335.7012634277344</v>
+        <v>552.9568481445312</v>
       </c>
       <c r="GQ3" t="n">
-        <v>335.544189453125</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>335.4350891113281</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>335.3978881835938</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>335.3586120605469</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>335.3387756347656</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>335.2505798339844</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>335.4935913085938</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>335.8804626464844</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>336.5795288085938</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>337.1000671386719</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>337.0775451660156</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>337.3327026367188</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>336.8956298828125</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>336.9063720703125</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>337.8928833007812</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>338.344970703125</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>340.2315368652344</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>341.6016540527344</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>338.8225402832031</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>337.214599609375</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>336.1356506347656</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>338.7696228027344</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>340.2886352539062</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>339.8960266113281</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>337.9784545898438</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>336.7630920410156</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>337.7711486816406</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>339.7155456542969</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>344.1322631835938</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>347.3640441894531</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>347.7015075683594</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>348.2289428710938</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>345.5440673828125</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>342.2488098144531</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>346.2670288085938</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>350.29638671875</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>351.4132385253906</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>348.0594177246094</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>348.5301513671875</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>350.19091796875</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>352.4678649902344</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>356.7801818847656</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>363.4747009277344</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>372.2835083007812</v>
-      </c>
-      <c r="II3" t="n">
-        <v>382.7884826660156</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>392.6522216796875</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>404.9234924316406</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>438.6495056152344</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>486.0808715820312</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>606.2279052734375</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>677.1959838867188</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>713.3729858398438</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>700.8611450195312</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>664.2107543945312</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>628.443603515625</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>580.3508911132812</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>538.6615600585938</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>491.7312316894531</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>451.6039733886719</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>432.056396484375</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>448.5332336425781</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>484.6058959960938</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>521.6368408203125</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>562.8922119140625</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>555.7283325195312</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>539.2410278320312</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>523.5473022460938</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>510.9783020019531</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>498.0805053710938</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>495.7006225585938</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>496.5130920410156</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>516.63037109375</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>534.0660400390625</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>537.1549682617188</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>546.2512817382812</v>
+        <v>546.9866333007812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>855.3317260742188</v>
+        <v>1170.55029296875</v>
       </c>
       <c r="B4" t="n">
-        <v>855.355712890625</v>
+        <v>1180.129638671875</v>
       </c>
       <c r="C4" t="n">
-        <v>855.4029541015625</v>
+        <v>1189.732666015625</v>
       </c>
       <c r="D4" t="n">
-        <v>855.4435424804688</v>
+        <v>1193.651733398438</v>
       </c>
       <c r="E4" t="n">
-        <v>855.47705078125</v>
+        <v>1194.734130859375</v>
       </c>
       <c r="F4" t="n">
-        <v>855.5037231445312</v>
+        <v>1195.8740234375</v>
       </c>
       <c r="G4" t="n">
-        <v>855.5238037109375</v>
+        <v>1198.8212890625</v>
       </c>
       <c r="H4" t="n">
-        <v>855.5377807617188</v>
+        <v>1200.985595703125</v>
       </c>
       <c r="I4" t="n">
-        <v>855.5465087890625</v>
+        <v>1201.497436523438</v>
       </c>
       <c r="J4" t="n">
-        <v>855.5525512695312</v>
+        <v>1202.668090820312</v>
       </c>
       <c r="K4" t="n">
-        <v>855.5564575195312</v>
+        <v>1207.227294921875</v>
       </c>
       <c r="L4" t="n">
-        <v>855.2003173828125</v>
+        <v>1215.944458007812</v>
       </c>
       <c r="M4" t="n">
-        <v>854.789306640625</v>
+        <v>1233.608032226562</v>
       </c>
       <c r="N4" t="n">
-        <v>854.390869140625</v>
+        <v>1252.9326171875</v>
       </c>
       <c r="O4" t="n">
-        <v>853.9557495117188</v>
+        <v>1266.767944335938</v>
       </c>
       <c r="P4" t="n">
-        <v>853.4998779296875</v>
+        <v>1277.87841796875</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.9698486328125</v>
+        <v>1285.487915039062</v>
       </c>
       <c r="R4" t="n">
-        <v>852.371337890625</v>
+        <v>1291.664306640625</v>
       </c>
       <c r="S4" t="n">
-        <v>851.7770385742188</v>
+        <v>1297.396362304688</v>
       </c>
       <c r="T4" t="n">
-        <v>850.2655639648438</v>
+        <v>1304.315063476562</v>
       </c>
       <c r="U4" t="n">
-        <v>846.5209350585938</v>
+        <v>1313.396362304688</v>
       </c>
       <c r="V4" t="n">
-        <v>840.6519165039062</v>
+        <v>1322.974365234375</v>
       </c>
       <c r="W4" t="n">
-        <v>836.26611328125</v>
+        <v>1331.92333984375</v>
       </c>
       <c r="X4" t="n">
-        <v>834.3267822265625</v>
+        <v>1337.918579101562</v>
       </c>
       <c r="Y4" t="n">
-        <v>835.61376953125</v>
+        <v>1342.191650390625</v>
       </c>
       <c r="Z4" t="n">
-        <v>836.6038208007812</v>
+        <v>1347.1904296875</v>
       </c>
       <c r="AA4" t="n">
-        <v>835.8499145507812</v>
+        <v>1354.017822265625</v>
       </c>
       <c r="AB4" t="n">
-        <v>835.9971923828125</v>
+        <v>1358.603393554688</v>
       </c>
       <c r="AC4" t="n">
-        <v>841.0948486328125</v>
+        <v>1356.084838867188</v>
       </c>
       <c r="AD4" t="n">
-        <v>851.1884155273438</v>
+        <v>1346.924682617188</v>
       </c>
       <c r="AE4" t="n">
-        <v>863.404541015625</v>
+        <v>1333.019775390625</v>
       </c>
       <c r="AF4" t="n">
-        <v>871.9484252929688</v>
+        <v>1320.309692382812</v>
       </c>
       <c r="AG4" t="n">
-        <v>879.2844848632812</v>
+        <v>1308.75341796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>886.9475708007812</v>
+        <v>1300.852905273438</v>
       </c>
       <c r="AI4" t="n">
-        <v>896.209228515625</v>
+        <v>1295.741088867188</v>
       </c>
       <c r="AJ4" t="n">
-        <v>901.9371948242188</v>
+        <v>1291.944213867188</v>
       </c>
       <c r="AK4" t="n">
-        <v>905.4168701171875</v>
+        <v>1287.519775390625</v>
       </c>
       <c r="AL4" t="n">
-        <v>909.6790771484375</v>
+        <v>1283.234252929688</v>
       </c>
       <c r="AM4" t="n">
-        <v>914.1292114257812</v>
+        <v>1278.580078125</v>
       </c>
       <c r="AN4" t="n">
-        <v>917.2147827148438</v>
+        <v>1273.765380859375</v>
       </c>
       <c r="AO4" t="n">
-        <v>919.2391357421875</v>
+        <v>1271.470703125</v>
       </c>
       <c r="AP4" t="n">
-        <v>921.9075317382812</v>
+        <v>1270.521362304688</v>
       </c>
       <c r="AQ4" t="n">
-        <v>933.2749633789062</v>
+        <v>1270.544189453125</v>
       </c>
       <c r="AR4" t="n">
-        <v>958.5918579101562</v>
+        <v>1270.81103515625</v>
       </c>
       <c r="AS4" t="n">
-        <v>994.9662475585938</v>
+        <v>1270.189575195312</v>
       </c>
       <c r="AT4" t="n">
-        <v>1032.182861328125</v>
+        <v>1265.403930664062</v>
       </c>
       <c r="AU4" t="n">
-        <v>1061.700439453125</v>
+        <v>1250.089477539062</v>
       </c>
       <c r="AV4" t="n">
-        <v>1087.722900390625</v>
+        <v>1237.058349609375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1113.271606445312</v>
+        <v>1228.96728515625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1143.146240234375</v>
+        <v>1225.135498046875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1176.515502929688</v>
+        <v>1227.89990234375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1208.643676757812</v>
+        <v>1236.744018554688</v>
       </c>
       <c r="BA4" t="n">
-        <v>1232.996826171875</v>
+        <v>1245.21435546875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1251.817504882812</v>
+        <v>1249.906494140625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1270.98193359375</v>
+        <v>1252.275390625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1293.829711914062</v>
+        <v>1254.056274414062</v>
       </c>
       <c r="BE4" t="n">
-        <v>1317.458984375</v>
+        <v>1258.232666015625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1340.557983398438</v>
+        <v>1266.939697265625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1361.367797851562</v>
+        <v>1279.547973632812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1376.771240234375</v>
+        <v>1288.586059570312</v>
       </c>
       <c r="BI4" t="n">
-        <v>1409.980346679688</v>
+        <v>1294.136352539062</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1431.358764648438</v>
+        <v>1297.305541992188</v>
       </c>
       <c r="BK4" t="n">
-        <v>1452.469604492188</v>
+        <v>1298.8984375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1470.971435546875</v>
+        <v>1299.528564453125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1486.677001953125</v>
+        <v>1299.665771484375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1502.979736328125</v>
+        <v>1298.669799804688</v>
       </c>
       <c r="BO4" t="n">
-        <v>1521.924194335938</v>
+        <v>1297.1474609375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1540.094848632812</v>
+        <v>1296.014770507812</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1559.406860351562</v>
+        <v>1294.986450195312</v>
       </c>
       <c r="BR4" t="n">
-        <v>1579.1884765625</v>
+        <v>1294.194580078125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1601.179077148438</v>
+        <v>1293.810913085938</v>
       </c>
       <c r="BT4" t="n">
-        <v>1620.334350585938</v>
+        <v>1293.712646484375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1636.397338867188</v>
+        <v>1293.71435546875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1660.90966796875</v>
+        <v>1293.788940429688</v>
       </c>
       <c r="BW4" t="n">
-        <v>1684.482421875</v>
+        <v>1293.862915039062</v>
       </c>
       <c r="BX4" t="n">
-        <v>1706.894165039062</v>
+        <v>1293.942993164062</v>
       </c>
       <c r="BY4" t="n">
-        <v>1725.661376953125</v>
+        <v>1293.9921875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1747.691162109375</v>
+        <v>1294.0224609375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1771.631713867188</v>
+        <v>1294.02587890625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1791.569702148438</v>
+        <v>1294.0234375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1809.97509765625</v>
+        <v>1294.000244140625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1827.474487304688</v>
+        <v>1293.97314453125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1844.200317382812</v>
+        <v>1293.947631835938</v>
       </c>
       <c r="CF4" t="n">
-        <v>1865.1435546875</v>
+        <v>1293.935180664062</v>
       </c>
       <c r="CG4" t="n">
-        <v>1883.483032226562</v>
+        <v>1293.942993164062</v>
       </c>
       <c r="CH4" t="n">
-        <v>1897.777221679688</v>
+        <v>1294.36328125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1906.051879882812</v>
+        <v>1294.920166015625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1914.034423828125</v>
+        <v>1297.152954101562</v>
       </c>
       <c r="CK4" t="n">
-        <v>1921.899780273438</v>
+        <v>1300.178466796875</v>
       </c>
       <c r="CL4" t="n">
-        <v>1930.6484375</v>
+        <v>1303.62841796875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1940.403930664062</v>
+        <v>1303.974609375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1948.278442382812</v>
+        <v>1304.111083984375</v>
       </c>
       <c r="CO4" t="n">
-        <v>1956.534912109375</v>
+        <v>1304.195190429688</v>
       </c>
       <c r="CP4" t="n">
-        <v>1963.008911132812</v>
+        <v>1304.246704101562</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1968.037231445312</v>
+        <v>1304.291137695312</v>
       </c>
       <c r="CR4" t="n">
-        <v>1970.974853515625</v>
+        <v>1304.343994140625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1974.5458984375</v>
+        <v>1304.3349609375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1982.703979492188</v>
+        <v>1304.127319335938</v>
       </c>
       <c r="CU4" t="n">
-        <v>1996.102783203125</v>
+        <v>1303.4150390625</v>
       </c>
       <c r="CV4" t="n">
-        <v>2016.413452148438</v>
+        <v>1302.117309570312</v>
       </c>
       <c r="CW4" t="n">
-        <v>2033.168823242188</v>
+        <v>1300.924682617188</v>
       </c>
       <c r="CX4" t="n">
-        <v>2045.191162109375</v>
+        <v>1300.016479492188</v>
       </c>
       <c r="CY4" t="n">
-        <v>2056.761962890625</v>
+        <v>1299.270751953125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2061.113037109375</v>
+        <v>1299.489868164062</v>
       </c>
       <c r="DA4" t="n">
-        <v>2067.550048828125</v>
+        <v>1300.178466796875</v>
       </c>
       <c r="DB4" t="n">
-        <v>2071.46826171875</v>
+        <v>1301.08251953125</v>
       </c>
       <c r="DC4" t="n">
-        <v>2074.345458984375</v>
+        <v>1301.697265625</v>
       </c>
       <c r="DD4" t="n">
-        <v>2076.4990234375</v>
+        <v>1302.130126953125</v>
       </c>
       <c r="DE4" t="n">
-        <v>2077.1416015625</v>
+        <v>1302.525756835938</v>
       </c>
       <c r="DF4" t="n">
-        <v>2077.3876953125</v>
+        <v>1302.95263671875</v>
       </c>
       <c r="DG4" t="n">
-        <v>2077.6240234375</v>
+        <v>1303.407836914062</v>
       </c>
       <c r="DH4" t="n">
-        <v>2078.127685546875</v>
+        <v>1303.845458984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>2078.218994140625</v>
+        <v>1304.2646484375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2078.324951171875</v>
+        <v>1304.1611328125</v>
       </c>
       <c r="DK4" t="n">
-        <v>2078.80029296875</v>
+        <v>1301.254150390625</v>
       </c>
       <c r="DL4" t="n">
-        <v>2079.5732421875</v>
+        <v>1284.641479492188</v>
       </c>
       <c r="DM4" t="n">
-        <v>2080.124755859375</v>
+        <v>1277.848266601562</v>
       </c>
       <c r="DN4" t="n">
-        <v>2080.42041015625</v>
+        <v>1272.2041015625</v>
       </c>
       <c r="DO4" t="n">
-        <v>2080.839599609375</v>
+        <v>1268.63232421875</v>
       </c>
       <c r="DP4" t="n">
-        <v>2080.9697265625</v>
+        <v>1267.907348632812</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2081.545654296875</v>
+        <v>1268.268798828125</v>
       </c>
       <c r="DR4" t="n">
-        <v>2081.84326171875</v>
+        <v>1268.377685546875</v>
       </c>
       <c r="DS4" t="n">
-        <v>2082.1484375</v>
+        <v>1268.363037109375</v>
       </c>
       <c r="DT4" t="n">
-        <v>2082.9306640625</v>
+        <v>1268.574829101562</v>
       </c>
       <c r="DU4" t="n">
-        <v>2083.1083984375</v>
+        <v>1269.096557617188</v>
       </c>
       <c r="DV4" t="n">
-        <v>2083.28515625</v>
+        <v>1278.081909179688</v>
       </c>
       <c r="DW4" t="n">
-        <v>2083.45556640625</v>
+        <v>1285.197998046875</v>
       </c>
       <c r="DX4" t="n">
-        <v>2083.38525390625</v>
+        <v>1285.11865234375</v>
       </c>
       <c r="DY4" t="n">
-        <v>2083.327392578125</v>
+        <v>1282.675170898438</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2082.864013671875</v>
+        <v>1276.162353515625</v>
       </c>
       <c r="EA4" t="n">
-        <v>2080.9423828125</v>
+        <v>1272.5537109375</v>
       </c>
       <c r="EB4" t="n">
-        <v>2077.345947265625</v>
+        <v>1264.370727539062</v>
       </c>
       <c r="EC4" t="n">
-        <v>2066.713623046875</v>
+        <v>1262.286499023438</v>
       </c>
       <c r="ED4" t="n">
-        <v>2063.2236328125</v>
+        <v>1257.966552734375</v>
       </c>
       <c r="EE4" t="n">
-        <v>2058.979736328125</v>
+        <v>1256.050048828125</v>
       </c>
       <c r="EF4" t="n">
-        <v>2057.5693359375</v>
+        <v>1253.95556640625</v>
       </c>
       <c r="EG4" t="n">
-        <v>2057.62255859375</v>
+        <v>1249.933471679688</v>
       </c>
       <c r="EH4" t="n">
-        <v>2057.822509765625</v>
+        <v>1248.675537109375</v>
       </c>
       <c r="EI4" t="n">
-        <v>2058.1103515625</v>
+        <v>1246.29345703125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2058.185791015625</v>
+        <v>1242.849975585938</v>
       </c>
       <c r="EK4" t="n">
-        <v>2058.323974609375</v>
+        <v>1230.511474609375</v>
       </c>
       <c r="EL4" t="n">
-        <v>2058.26416015625</v>
+        <v>1222.864013671875</v>
       </c>
       <c r="EM4" t="n">
-        <v>2058.143798828125</v>
+        <v>1202.543090820312</v>
       </c>
       <c r="EN4" t="n">
-        <v>2058.242919921875</v>
+        <v>1189.082397460938</v>
       </c>
       <c r="EO4" t="n">
-        <v>2058.36474609375</v>
+        <v>1163.248779296875</v>
       </c>
       <c r="EP4" t="n">
-        <v>2058.580078125</v>
+        <v>1150.258422851562</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2057.496337890625</v>
+        <v>1128.253173828125</v>
       </c>
       <c r="ER4" t="n">
-        <v>2055.3056640625</v>
+        <v>1122.343627929688</v>
       </c>
       <c r="ES4" t="n">
-        <v>2055.154296875</v>
+        <v>1106.026977539062</v>
       </c>
       <c r="ET4" t="n">
-        <v>2054.406005859375</v>
+        <v>1093.52392578125</v>
       </c>
       <c r="EU4" t="n">
-        <v>2053.990234375</v>
+        <v>1083.124267578125</v>
       </c>
       <c r="EV4" t="n">
-        <v>2053.596435546875</v>
+        <v>1067.0234375</v>
       </c>
       <c r="EW4" t="n">
-        <v>2052.865234375</v>
+        <v>1045.153564453125</v>
       </c>
       <c r="EX4" t="n">
-        <v>2052.2265625</v>
+        <v>1027.901977539062</v>
       </c>
       <c r="EY4" t="n">
-        <v>2051.94287109375</v>
+        <v>998.8861083984375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2051.309326171875</v>
+        <v>973.111572265625</v>
       </c>
       <c r="FA4" t="n">
-        <v>2050.482421875</v>
+        <v>958.2903442382812</v>
       </c>
       <c r="FB4" t="n">
-        <v>2050.3466796875</v>
+        <v>943.5419311523438</v>
       </c>
       <c r="FC4" t="n">
-        <v>2050.290771484375</v>
+        <v>915.900390625</v>
       </c>
       <c r="FD4" t="n">
-        <v>2050.23681640625</v>
+        <v>886.1334838867188</v>
       </c>
       <c r="FE4" t="n">
-        <v>2050.2861328125</v>
+        <v>872.5291748046875</v>
       </c>
       <c r="FF4" t="n">
-        <v>2050.345703125</v>
+        <v>849.9334716796875</v>
       </c>
       <c r="FG4" t="n">
-        <v>2050.3779296875</v>
+        <v>838.190673828125</v>
       </c>
       <c r="FH4" t="n">
-        <v>2050.977783203125</v>
+        <v>828.9185180664062</v>
       </c>
       <c r="FI4" t="n">
-        <v>2051.49169921875</v>
+        <v>828.8379516601562</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2051.770751953125</v>
+        <v>828.5462646484375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2051.822265625</v>
+        <v>826.760498046875</v>
       </c>
       <c r="FL4" t="n">
-        <v>2051.765869140625</v>
+        <v>813.3079833984375</v>
       </c>
       <c r="FM4" t="n">
-        <v>2051.712646484375</v>
+        <v>809.6884155273438</v>
       </c>
       <c r="FN4" t="n">
-        <v>2051.689697265625</v>
+        <v>803.6650390625</v>
       </c>
       <c r="FO4" t="n">
-        <v>2051.65380859375</v>
+        <v>792.355224609375</v>
       </c>
       <c r="FP4" t="n">
-        <v>2051.587158203125</v>
+        <v>788.158203125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2051.52685546875</v>
+        <v>785.3425903320312</v>
       </c>
       <c r="FR4" t="n">
-        <v>2051.486328125</v>
+        <v>791.0160522460938</v>
       </c>
       <c r="FS4" t="n">
-        <v>2050.7529296875</v>
+        <v>807.9749755859375</v>
       </c>
       <c r="FT4" t="n">
-        <v>2050.02685546875</v>
+        <v>822.5731201171875</v>
       </c>
       <c r="FU4" t="n">
-        <v>2048.289794921875</v>
+        <v>832.3480224609375</v>
       </c>
       <c r="FV4" t="n">
-        <v>2046.913818359375</v>
+        <v>828.8294677734375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2043.564208984375</v>
+        <v>816.5971069335938</v>
       </c>
       <c r="FX4" t="n">
-        <v>2042.932006835938</v>
+        <v>816.469482421875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2042.853393554688</v>
+        <v>819.396240234375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2042.924682617188</v>
+        <v>824.2674560546875</v>
       </c>
       <c r="GA4" t="n">
-        <v>2043.183715820312</v>
+        <v>836.0779418945312</v>
       </c>
       <c r="GB4" t="n">
-        <v>2043.44677734375</v>
+        <v>824.1460571289062</v>
       </c>
       <c r="GC4" t="n">
-        <v>2044.558959960938</v>
+        <v>772.192626953125</v>
       </c>
       <c r="GD4" t="n">
-        <v>2045.711669921875</v>
+        <v>759.2728881835938</v>
       </c>
       <c r="GE4" t="n">
-        <v>2046.29931640625</v>
+        <v>766.2017211914062</v>
       </c>
       <c r="GF4" t="n">
-        <v>2046.683227539062</v>
+        <v>776.6603393554688</v>
       </c>
       <c r="GG4" t="n">
-        <v>2044.690185546875</v>
+        <v>787.11572265625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2037.064331054688</v>
+        <v>792.5446166992188</v>
       </c>
       <c r="GI4" t="n">
-        <v>2033.539916992188</v>
+        <v>802.4810791015625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2032.306030273438</v>
+        <v>781.7965087890625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2030.695556640625</v>
+        <v>698.8582153320312</v>
       </c>
       <c r="GL4" t="n">
-        <v>2028.74169921875</v>
+        <v>683.5886840820312</v>
       </c>
       <c r="GM4" t="n">
-        <v>2029.815185546875</v>
+        <v>689.9112548828125</v>
       </c>
       <c r="GN4" t="n">
-        <v>2030.761962890625</v>
+        <v>721.7890014648438</v>
       </c>
       <c r="GO4" t="n">
-        <v>2031.0654296875</v>
+        <v>721.5848388671875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2031.353759765625</v>
+        <v>694.0931396484375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2031.6005859375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2031.836181640625</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2031.93017578125</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2032.179321289062</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2032.354248046875</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2036.699584960938</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2048.806396484375</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2054.2412109375</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2056.639404296875</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2044.697509765625</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2035.034423828125</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2005.977905273438</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1987.615600585938</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1976.175415039062</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1925.099487304688</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1913.209350585938</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1867.30712890625</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1812.15478515625</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1777.471557617188</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1756.69482421875</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1701.47216796875</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1648.680908203125</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1619.335815429688</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1606.878662109375</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1584.279907226562</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1557.599853515625</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1527.725341796875</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1496.307495117188</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1453.251098632812</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1411.675537109375</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1376.075805664062</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1354.00390625</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1315.837280273438</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1277.53857421875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1231.186279296875</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1198.701171875</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1171.123046875</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1119.987060546875</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1099.327514648438</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1059.818725585938</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1018.559387207031</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>971.579345703125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>916.2918090820312</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>852.9708251953125</v>
-      </c>
-      <c r="II4" t="n">
-        <v>788.5048217773438</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>733.3789672851562</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>671.0232543945312</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>595.4764404296875</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>534.871826171875</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>477.21142578125</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>448.7957763671875</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>425.4058837890625</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>430.5174865722656</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>461.158935546875</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>484.0726623535156</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>452.1918334960938</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>519.0267333984375</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>611.4132080078125</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>672.0540771484375</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>706.37646484375</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>718.012451171875</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>703.8231811523438</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>689.790283203125</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>691.6753540039062</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>746.8275146484375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>790.1427612304688</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>820.6165161132812</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>857.6195068359375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>899.0938110351562</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>914.101806640625</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>923.5421142578125</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>870.7886962890625</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>813.8692626953125</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>801.0513916015625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>779.9320678710938</v>
+        <v>688.8809814453125</v>
       </c>
     </row>
   </sheetData>

--- a/waist_Data.xlsx
+++ b/waist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>417.9511108398438</v>
+        <v>320.3839721679688</v>
       </c>
       <c r="B2" t="n">
-        <v>420.4754638671875</v>
+        <v>323.343505859375</v>
       </c>
       <c r="C2" t="n">
-        <v>421.2569580078125</v>
+        <v>325.0135498046875</v>
       </c>
       <c r="D2" t="n">
-        <v>422.5581665039062</v>
+        <v>325.9928588867188</v>
       </c>
       <c r="E2" t="n">
-        <v>423.3215942382812</v>
+        <v>325.4446105957031</v>
       </c>
       <c r="F2" t="n">
-        <v>424.1464233398438</v>
+        <v>324.1339721679688</v>
       </c>
       <c r="G2" t="n">
-        <v>425.4075622558594</v>
+        <v>323.392578125</v>
       </c>
       <c r="H2" t="n">
-        <v>426.4205932617188</v>
+        <v>322.9985961914062</v>
       </c>
       <c r="I2" t="n">
-        <v>426.9062805175781</v>
+        <v>323.0438842773438</v>
       </c>
       <c r="J2" t="n">
-        <v>426.9876098632812</v>
+        <v>323.1242065429688</v>
       </c>
       <c r="K2" t="n">
-        <v>426.6160278320312</v>
+        <v>323.6314697265625</v>
       </c>
       <c r="L2" t="n">
-        <v>425.5814208984375</v>
+        <v>325.1655578613281</v>
       </c>
       <c r="M2" t="n">
-        <v>420.848388671875</v>
+        <v>325.9541320800781</v>
       </c>
       <c r="N2" t="n">
-        <v>411.5470581054688</v>
+        <v>326.6482238769531</v>
       </c>
       <c r="O2" t="n">
-        <v>403.233642578125</v>
+        <v>327.2001953125</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7802734375</v>
+        <v>327.404052734375</v>
       </c>
       <c r="Q2" t="n">
-        <v>396.3348693847656</v>
+        <v>327.3974914550781</v>
       </c>
       <c r="R2" t="n">
-        <v>394.8721313476562</v>
+        <v>327.085205078125</v>
       </c>
       <c r="S2" t="n">
-        <v>394.0322265625</v>
+        <v>326.1378784179688</v>
       </c>
       <c r="T2" t="n">
-        <v>392.8730773925781</v>
+        <v>325.0372924804688</v>
       </c>
       <c r="U2" t="n">
-        <v>390.4475708007812</v>
+        <v>324.1192016601562</v>
       </c>
       <c r="V2" t="n">
-        <v>386.75439453125</v>
+        <v>323.3601379394531</v>
       </c>
       <c r="W2" t="n">
-        <v>382.9540710449219</v>
+        <v>322.810791015625</v>
       </c>
       <c r="X2" t="n">
-        <v>380.6685180664062</v>
+        <v>322.1666870117188</v>
       </c>
       <c r="Y2" t="n">
-        <v>378.5123291015625</v>
+        <v>321.2002563476562</v>
       </c>
       <c r="Z2" t="n">
-        <v>375.9458923339844</v>
+        <v>320.19287109375</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.8563842773438</v>
+        <v>319.4595642089844</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.9902648925781</v>
+        <v>318.7690124511719</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.80126953125</v>
+        <v>318.2601623535156</v>
       </c>
       <c r="AD2" t="n">
-        <v>369.1651000976562</v>
+        <v>317.879638671875</v>
       </c>
       <c r="AE2" t="n">
-        <v>369.911376953125</v>
+        <v>317.0766296386719</v>
       </c>
       <c r="AF2" t="n">
-        <v>370.6570739746094</v>
+        <v>316.4949340820312</v>
       </c>
       <c r="AG2" t="n">
-        <v>371.3758850097656</v>
+        <v>316.1237487792969</v>
       </c>
       <c r="AH2" t="n">
-        <v>371.8524169921875</v>
+        <v>315.8630981445312</v>
       </c>
       <c r="AI2" t="n">
-        <v>372.1472778320312</v>
+        <v>315.706787109375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>372.355712890625</v>
+        <v>315.6340026855469</v>
       </c>
       <c r="AK2" t="n">
-        <v>372.5493774414062</v>
+        <v>315.6789245605469</v>
       </c>
       <c r="AL2" t="n">
-        <v>371.8240966796875</v>
+        <v>315.7608337402344</v>
       </c>
       <c r="AM2" t="n">
-        <v>370.285400390625</v>
+        <v>315.8339233398438</v>
       </c>
       <c r="AN2" t="n">
-        <v>368.0349731445312</v>
+        <v>316.0563354492188</v>
       </c>
       <c r="AO2" t="n">
-        <v>365.9264831542969</v>
+        <v>316.3352661132812</v>
       </c>
       <c r="AP2" t="n">
-        <v>364.862548828125</v>
+        <v>316.7602233886719</v>
       </c>
       <c r="AQ2" t="n">
-        <v>364.5609130859375</v>
+        <v>317.8739624023438</v>
       </c>
       <c r="AR2" t="n">
-        <v>364.4289855957031</v>
+        <v>319.7894897460938</v>
       </c>
       <c r="AS2" t="n">
-        <v>364.1958618164062</v>
+        <v>321.7777099609375</v>
       </c>
       <c r="AT2" t="n">
-        <v>363.7772216796875</v>
+        <v>323.2271118164062</v>
       </c>
       <c r="AU2" t="n">
-        <v>359.3275451660156</v>
+        <v>324.0022583007812</v>
       </c>
       <c r="AV2" t="n">
-        <v>351.748291015625</v>
+        <v>324.3879699707031</v>
       </c>
       <c r="AW2" t="n">
-        <v>344.6752319335938</v>
+        <v>324.64892578125</v>
       </c>
       <c r="AX2" t="n">
-        <v>338.7239990234375</v>
+        <v>324.7615051269531</v>
       </c>
       <c r="AY2" t="n">
-        <v>333.6572570800781</v>
+        <v>324.8150329589844</v>
       </c>
       <c r="AZ2" t="n">
-        <v>326.6306762695312</v>
+        <v>324.8257751464844</v>
       </c>
       <c r="BA2" t="n">
-        <v>318.8229675292969</v>
+        <v>324.8249816894531</v>
       </c>
       <c r="BB2" t="n">
-        <v>309.6228637695312</v>
+        <v>324.8140258789062</v>
       </c>
       <c r="BC2" t="n">
-        <v>300.8602600097656</v>
+        <v>324.7892456054688</v>
       </c>
       <c r="BD2" t="n">
-        <v>294.9827575683594</v>
+        <v>324.7695617675781</v>
       </c>
       <c r="BE2" t="n">
-        <v>289.2110595703125</v>
+        <v>324.7515258789062</v>
       </c>
       <c r="BF2" t="n">
-        <v>283.2181701660156</v>
+        <v>324.7427368164062</v>
       </c>
       <c r="BG2" t="n">
-        <v>278.0753173828125</v>
+        <v>324.7396240234375</v>
       </c>
       <c r="BH2" t="n">
-        <v>273.5089111328125</v>
+        <v>324.7346801757812</v>
       </c>
       <c r="BI2" t="n">
-        <v>270.1793518066406</v>
+        <v>324.731201171875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>267.9890441894531</v>
+        <v>324.7130737304688</v>
       </c>
       <c r="BK2" t="n">
-        <v>266.6747741699219</v>
+        <v>324.67919921875</v>
       </c>
       <c r="BL2" t="n">
-        <v>265.0940856933594</v>
+        <v>324.2096252441406</v>
       </c>
       <c r="BM2" t="n">
-        <v>261.6775817871094</v>
+        <v>323.5546875</v>
       </c>
       <c r="BN2" t="n">
-        <v>256.3258056640625</v>
+        <v>322.9272155761719</v>
       </c>
       <c r="BO2" t="n">
-        <v>251.3893280029297</v>
+        <v>322.4185791015625</v>
       </c>
       <c r="BP2" t="n">
-        <v>248.1812744140625</v>
+        <v>322.1445922851562</v>
       </c>
       <c r="BQ2" t="n">
-        <v>245.9056854248047</v>
+        <v>321.970947265625</v>
       </c>
       <c r="BR2" t="n">
-        <v>243.5523376464844</v>
+        <v>321.9539184570312</v>
       </c>
       <c r="BS2" t="n">
-        <v>241.4114379882812</v>
+        <v>321.9583740234375</v>
       </c>
       <c r="BT2" t="n">
-        <v>239.3152160644531</v>
+        <v>321.964599609375</v>
       </c>
       <c r="BU2" t="n">
-        <v>237.5226745605469</v>
+        <v>321.9703979492188</v>
       </c>
       <c r="BV2" t="n">
-        <v>236.4985961914062</v>
+        <v>321.9790954589844</v>
       </c>
       <c r="BW2" t="n">
-        <v>235.9192199707031</v>
+        <v>321.989013671875</v>
       </c>
       <c r="BX2" t="n">
-        <v>235.5585021972656</v>
+        <v>321.9991455078125</v>
       </c>
       <c r="BY2" t="n">
-        <v>235.1346435546875</v>
+        <v>322.0096435546875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>234.9832916259766</v>
+        <v>322.021484375</v>
       </c>
       <c r="CA2" t="n">
-        <v>234.9415588378906</v>
+        <v>322.0465698242188</v>
       </c>
       <c r="CB2" t="n">
-        <v>234.9404296875</v>
+        <v>322.0474853515625</v>
       </c>
       <c r="CC2" t="n">
-        <v>234.9493560791016</v>
+        <v>322.0472412109375</v>
       </c>
       <c r="CD2" t="n">
-        <v>234.9617919921875</v>
+        <v>321.9948120117188</v>
       </c>
       <c r="CE2" t="n">
-        <v>234.9830627441406</v>
+        <v>321.9664916992188</v>
       </c>
       <c r="CF2" t="n">
-        <v>235.1045532226562</v>
+        <v>321.9401550292969</v>
       </c>
       <c r="CG2" t="n">
-        <v>236.2766723632812</v>
+        <v>321.908935546875</v>
       </c>
       <c r="CH2" t="n">
-        <v>238.5772552490234</v>
+        <v>321.8770141601562</v>
       </c>
       <c r="CI2" t="n">
-        <v>241.3675079345703</v>
+        <v>321.8463134765625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>243.1998901367188</v>
+        <v>321.8129272460938</v>
       </c>
       <c r="CK2" t="n">
-        <v>244.3897857666016</v>
+        <v>321.7822875976562</v>
       </c>
       <c r="CL2" t="n">
-        <v>245.2319641113281</v>
+        <v>321.7693786621094</v>
       </c>
       <c r="CM2" t="n">
-        <v>245.3394927978516</v>
+        <v>321.7535705566406</v>
       </c>
       <c r="CN2" t="n">
-        <v>245.3902893066406</v>
+        <v>321.73974609375</v>
       </c>
       <c r="CO2" t="n">
-        <v>245.4136352539062</v>
+        <v>321.72802734375</v>
       </c>
       <c r="CP2" t="n">
-        <v>245.4252319335938</v>
+        <v>321.7101440429688</v>
       </c>
       <c r="CQ2" t="n">
-        <v>245.4324340820312</v>
+        <v>321.6915283203125</v>
       </c>
       <c r="CR2" t="n">
-        <v>245.4412536621094</v>
+        <v>321.666748046875</v>
       </c>
       <c r="CS2" t="n">
-        <v>245.4187622070312</v>
+        <v>321.6427001953125</v>
       </c>
       <c r="CT2" t="n">
-        <v>244.8907775878906</v>
+        <v>321.6194458007812</v>
       </c>
       <c r="CU2" t="n">
-        <v>243.6344299316406</v>
+        <v>321.5792236328125</v>
       </c>
       <c r="CV2" t="n">
-        <v>241.8492889404297</v>
+        <v>321.5431213378906</v>
       </c>
       <c r="CW2" t="n">
-        <v>240.5144500732422</v>
+        <v>321.5012817382812</v>
       </c>
       <c r="CX2" t="n">
-        <v>240.2743225097656</v>
+        <v>321.4494323730469</v>
       </c>
       <c r="CY2" t="n">
-        <v>240.2838745117188</v>
+        <v>321.4016418457031</v>
       </c>
       <c r="CZ2" t="n">
-        <v>240.3072967529297</v>
+        <v>321.3555297851562</v>
       </c>
       <c r="DA2" t="n">
-        <v>240.3486480712891</v>
+        <v>321.3089294433594</v>
       </c>
       <c r="DB2" t="n">
-        <v>240.4068908691406</v>
+        <v>321.2191162109375</v>
       </c>
       <c r="DC2" t="n">
-        <v>240.4502105712891</v>
+        <v>321.1756896972656</v>
       </c>
       <c r="DD2" t="n">
-        <v>240.5832061767578</v>
+        <v>321.1339721679688</v>
       </c>
       <c r="DE2" t="n">
-        <v>242.2016143798828</v>
+        <v>321.0885925292969</v>
       </c>
       <c r="DF2" t="n">
-        <v>245.3741302490234</v>
+        <v>321.0449829101562</v>
       </c>
       <c r="DG2" t="n">
-        <v>249.9900665283203</v>
+        <v>320.9984741210938</v>
       </c>
       <c r="DH2" t="n">
-        <v>255.2435455322266</v>
+        <v>320.88037109375</v>
       </c>
       <c r="DI2" t="n">
-        <v>260.4459533691406</v>
+        <v>320.7602233886719</v>
       </c>
       <c r="DJ2" t="n">
-        <v>264.9742431640625</v>
+        <v>320.64453125</v>
       </c>
       <c r="DK2" t="n">
-        <v>270.387451171875</v>
+        <v>320.4512939453125</v>
       </c>
       <c r="DL2" t="n">
-        <v>283.6802673339844</v>
+        <v>320.2740478515625</v>
       </c>
       <c r="DM2" t="n">
-        <v>291.4065246582031</v>
+        <v>320.1552734375</v>
       </c>
       <c r="DN2" t="n">
-        <v>299.3208312988281</v>
+        <v>319.8995666503906</v>
       </c>
       <c r="DO2" t="n">
-        <v>306.5671081542969</v>
+        <v>319.7799987792969</v>
       </c>
       <c r="DP2" t="n">
-        <v>324.6082763671875</v>
+        <v>319.6372375488281</v>
       </c>
       <c r="DQ2" t="n">
-        <v>334.2016296386719</v>
+        <v>319.4846496582031</v>
       </c>
       <c r="DR2" t="n">
-        <v>342.5997924804688</v>
+        <v>319.3317260742188</v>
       </c>
       <c r="DS2" t="n">
-        <v>355.1809387207031</v>
+        <v>319.1636657714844</v>
       </c>
       <c r="DT2" t="n">
-        <v>360.658203125</v>
+        <v>318.8359985351562</v>
       </c>
       <c r="DU2" t="n">
-        <v>363.4584350585938</v>
+        <v>318.6880187988281</v>
       </c>
       <c r="DV2" t="n">
-        <v>364.2510681152344</v>
+        <v>318.34619140625</v>
       </c>
       <c r="DW2" t="n">
-        <v>366.4531860351562</v>
+        <v>318.1716918945312</v>
       </c>
       <c r="DX2" t="n">
-        <v>368.5686645507812</v>
+        <v>317.9779968261719</v>
       </c>
       <c r="DY2" t="n">
-        <v>370.9997253417969</v>
+        <v>317.7056579589844</v>
       </c>
       <c r="DZ2" t="n">
-        <v>374.3717956542969</v>
+        <v>317.5502319335938</v>
       </c>
       <c r="EA2" t="n">
-        <v>375.415283203125</v>
+        <v>317.2594299316406</v>
       </c>
       <c r="EB2" t="n">
-        <v>377.5254516601562</v>
+        <v>317.222900390625</v>
       </c>
       <c r="EC2" t="n">
-        <v>377.9699096679688</v>
+        <v>317.1909790039062</v>
       </c>
       <c r="ED2" t="n">
-        <v>378.2054443359375</v>
+        <v>317.2802124023438</v>
       </c>
       <c r="EE2" t="n">
-        <v>377.229248046875</v>
+        <v>317.3011169433594</v>
       </c>
       <c r="EF2" t="n">
-        <v>374.9365234375</v>
+        <v>317.3348083496094</v>
       </c>
       <c r="EG2" t="n">
-        <v>368.2891235351562</v>
+        <v>317.335693359375</v>
       </c>
       <c r="EH2" t="n">
-        <v>365.9846496582031</v>
+        <v>317.3291931152344</v>
       </c>
       <c r="EI2" t="n">
-        <v>362.8265991210938</v>
+        <v>317.3188781738281</v>
       </c>
       <c r="EJ2" t="n">
-        <v>361.2483215332031</v>
+        <v>317.3189697265625</v>
       </c>
       <c r="EK2" t="n">
-        <v>357.4010620117188</v>
+        <v>317.3190612792969</v>
       </c>
       <c r="EL2" t="n">
-        <v>352.6985473632812</v>
+        <v>317.3178100585938</v>
       </c>
       <c r="EM2" t="n">
-        <v>341.3904113769531</v>
+        <v>317.3165283203125</v>
       </c>
       <c r="EN2" t="n">
-        <v>335.64990234375</v>
+        <v>317.3158874511719</v>
       </c>
       <c r="EO2" t="n">
-        <v>323.2772216796875</v>
+        <v>317.3168640136719</v>
       </c>
       <c r="EP2" t="n">
-        <v>318.5900268554688</v>
+        <v>317.3190612792969</v>
       </c>
       <c r="EQ2" t="n">
-        <v>309.9691467285156</v>
+        <v>317.3212890625</v>
       </c>
       <c r="ER2" t="n">
-        <v>304.52587890625</v>
+        <v>317.3207702636719</v>
       </c>
       <c r="ES2" t="n">
-        <v>299.6097412109375</v>
+        <v>317.3201599121094</v>
       </c>
       <c r="ET2" t="n">
-        <v>298.5945129394531</v>
+        <v>317.3185119628906</v>
       </c>
       <c r="EU2" t="n">
-        <v>298.0029296875</v>
+        <v>317.3175964355469</v>
       </c>
       <c r="EV2" t="n">
-        <v>297.2456359863281</v>
+        <v>317.3167114257812</v>
       </c>
       <c r="EW2" t="n">
-        <v>290.5971374511719</v>
+        <v>317.3149108886719</v>
       </c>
       <c r="EX2" t="n">
-        <v>286.4804077148438</v>
+        <v>317.3134765625</v>
       </c>
       <c r="EY2" t="n">
-        <v>283.0978698730469</v>
+        <v>317.314697265625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>286.9851379394531</v>
+        <v>317.3165283203125</v>
       </c>
       <c r="FA2" t="n">
-        <v>293.6015014648438</v>
+        <v>317.31640625</v>
       </c>
       <c r="FB2" t="n">
-        <v>300.1278381347656</v>
+        <v>317.3157348632812</v>
       </c>
       <c r="FC2" t="n">
-        <v>306.0835266113281</v>
+        <v>317.314453125</v>
       </c>
       <c r="FD2" t="n">
-        <v>309.8020935058594</v>
+        <v>317.3147277832031</v>
       </c>
       <c r="FE2" t="n">
-        <v>312.7007751464844</v>
+        <v>317.3152465820312</v>
       </c>
       <c r="FF2" t="n">
-        <v>320.5845642089844</v>
+        <v>317.3150634765625</v>
       </c>
       <c r="FG2" t="n">
-        <v>324.5313110351562</v>
+        <v>317.3143310546875</v>
       </c>
       <c r="FH2" t="n">
-        <v>330.7732849121094</v>
+        <v>317.3137512207031</v>
       </c>
       <c r="FI2" t="n">
-        <v>335.93310546875</v>
+        <v>317.3123779296875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>348.5698852539062</v>
+        <v>317.3089599609375</v>
       </c>
       <c r="FK2" t="n">
-        <v>357.337158203125</v>
+        <v>317.303955078125</v>
       </c>
       <c r="FL2" t="n">
-        <v>384.2695922851562</v>
+        <v>317.2899169921875</v>
       </c>
       <c r="FM2" t="n">
-        <v>397.3932495117188</v>
+        <v>317.2813415527344</v>
       </c>
       <c r="FN2" t="n">
-        <v>410.5095825195312</v>
+        <v>317.2655944824219</v>
       </c>
       <c r="FO2" t="n">
-        <v>427.7300415039062</v>
+        <v>317.2583923339844</v>
       </c>
       <c r="FP2" t="n">
-        <v>444.836669921875</v>
+        <v>317.2435607910156</v>
       </c>
       <c r="FQ2" t="n">
-        <v>455.6204833984375</v>
+        <v>317.23583984375</v>
       </c>
       <c r="FR2" t="n">
-        <v>462.3858642578125</v>
+        <v>317.2212219238281</v>
       </c>
       <c r="FS2" t="n">
-        <v>459.5950927734375</v>
+        <v>317.2144165039062</v>
       </c>
       <c r="FT2" t="n">
-        <v>457.0967102050781</v>
+        <v>317.2002563476562</v>
       </c>
       <c r="FU2" t="n">
-        <v>457.240966796875</v>
+        <v>317.1877746582031</v>
       </c>
       <c r="FV2" t="n">
-        <v>462.2179870605469</v>
+        <v>317.1781616210938</v>
       </c>
       <c r="FW2" t="n">
-        <v>474.8271484375</v>
+        <v>317.1583862304688</v>
       </c>
       <c r="FX2" t="n">
-        <v>476.7867431640625</v>
+        <v>317.147705078125</v>
       </c>
       <c r="FY2" t="n">
-        <v>476.6570434570312</v>
+        <v>317.057861328125</v>
       </c>
       <c r="FZ2" t="n">
-        <v>476.4736633300781</v>
+        <v>316.99267578125</v>
       </c>
       <c r="GA2" t="n">
-        <v>474.8123779296875</v>
+        <v>316.8995361328125</v>
       </c>
       <c r="GB2" t="n">
-        <v>479.9276733398438</v>
+        <v>316.8695373535156</v>
       </c>
       <c r="GC2" t="n">
-        <v>493.0635070800781</v>
+        <v>316.8227233886719</v>
       </c>
       <c r="GD2" t="n">
-        <v>497.8497619628906</v>
+        <v>316.8267517089844</v>
       </c>
       <c r="GE2" t="n">
-        <v>497.9210815429688</v>
+        <v>316.79296875</v>
       </c>
       <c r="GF2" t="n">
-        <v>491.5320129394531</v>
+        <v>316.6875</v>
       </c>
       <c r="GG2" t="n">
-        <v>459.0162963867188</v>
+        <v>316.4357604980469</v>
       </c>
       <c r="GH2" t="n">
-        <v>438.0846557617188</v>
+        <v>315.8927307128906</v>
       </c>
       <c r="GI2" t="n">
-        <v>377.0028686523438</v>
+        <v>315.4798889160156</v>
       </c>
       <c r="GJ2" t="n">
-        <v>365.4096069335938</v>
+        <v>315.3370971679688</v>
       </c>
       <c r="GK2" t="n">
-        <v>387.7047729492188</v>
+        <v>315.3215026855469</v>
       </c>
       <c r="GL2" t="n">
-        <v>395.8900451660156</v>
+        <v>315.3409118652344</v>
       </c>
       <c r="GM2" t="n">
-        <v>379.4752502441406</v>
+        <v>315.3995971679688</v>
       </c>
       <c r="GN2" t="n">
-        <v>335.232177734375</v>
+        <v>315.4214477539062</v>
       </c>
       <c r="GO2" t="n">
-        <v>325.6065063476562</v>
+        <v>315.4380798339844</v>
       </c>
       <c r="GP2" t="n">
-        <v>327.3233642578125</v>
+        <v>315.4416809082031</v>
       </c>
       <c r="GQ2" t="n">
-        <v>326.6210327148438</v>
+        <v>315.4429016113281</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>315.4430541992188</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>315.4432983398438</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>315.4136352539062</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>315.3792724609375</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>315.3427124023438</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>315.3108215332031</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>315.2792358398438</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>315.2509155273438</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>315.234130859375</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>315.2178039550781</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>315.2118835449219</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>315.1981506347656</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>315.1942138671875</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>315.1895751953125</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>315.1831665039062</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>315.1563720703125</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>315.1313171386719</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>315.1268615722656</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>315.1240539550781</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>315.1202087402344</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>315.1168823242188</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>315.1150207519531</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>315.1142272949219</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>315.1142272949219</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>315.1133728027344</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>315.1130065917969</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>315.1256713867188</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>315.146484375</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>315.1763916015625</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>315.1953735351562</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>315.1997375488281</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>315.2012329101562</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>315.1636352539062</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>315.0894775390625</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>315.0035705566406</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>314.7590026855469</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>314.6463012695312</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>314.4930725097656</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>314.4511108398438</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>314.4263916015625</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>314.4388122558594</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>314.4515075683594</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>314.4517517089844</v>
+      </c>
+      <c r="II2" t="n">
+        <v>314.4508666992188</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>314.4502868652344</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>314.4499816894531</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>314.4498291015625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>314.4389038085938</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>314.418212890625</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>314.3959045410156</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>314.38720703125</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>314.3858337402344</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>314.3855590820312</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>314.3865051269531</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>314.3886413574219</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>314.390625</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>314.6518859863281</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>314.8854675292969</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>315.057373046875</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>315.2610778808594</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>315.286865234375</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>315.2889404296875</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>315.2837829589844</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>315.2772216796875</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>315.2607421875</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>315.2424621582031</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>315.2255249023438</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>315.19482421875</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>315.1081237792969</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>314.9563598632812</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>314.7411499023438</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>314.4832153320312</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>314.2171325683594</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>313.95751953125</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>313.7017211914062</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>313.4947204589844</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>313.3221130371094</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>313.2956848144531</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>313.3370361328125</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>313.3897705078125</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>313.4122619628906</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>313.4098205566406</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>313.4096374511719</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>313.406982421875</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>313.2033996582031</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>313.0415954589844</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>312.85205078125</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>310.9401550292969</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>309.2802124023438</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>308.7073669433594</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>308.1657409667969</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>308.0022888183594</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>307.4303588867188</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>302.4194641113281</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>301.3634338378906</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>301.7070922851562</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>304.6484680175781</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>305.6912536621094</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>306.4868469238281</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>307.0387573242188</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>308.6947326660156</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>315.9474182128906</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>318.3971862792969</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>319.0135192871094</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>319.1860656738281</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>318.8538513183594</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>318.3082885742188</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>317.9295043945312</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>317.5633239746094</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>315.099609375</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>306.6582946777344</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>304.3426208496094</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>303.3865356445312</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>302.22900390625</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>300.7568054199219</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>298.9804382324219</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>297.0716552734375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>431.2836303710938</v>
+        <v>396.5838012695312</v>
       </c>
       <c r="B3" t="n">
-        <v>425.7057495117188</v>
+        <v>398.5357666015625</v>
       </c>
       <c r="C3" t="n">
-        <v>420.4639892578125</v>
+        <v>399.7190246582031</v>
       </c>
       <c r="D3" t="n">
-        <v>417.6524047851562</v>
+        <v>396.9615173339844</v>
       </c>
       <c r="E3" t="n">
-        <v>415.7971496582031</v>
+        <v>388.626220703125</v>
       </c>
       <c r="F3" t="n">
-        <v>413.9363708496094</v>
+        <v>381.4342346191406</v>
       </c>
       <c r="G3" t="n">
-        <v>409.5875549316406</v>
+        <v>376.770751953125</v>
       </c>
       <c r="H3" t="n">
-        <v>405.23974609375</v>
+        <v>374.1737670898438</v>
       </c>
       <c r="I3" t="n">
-        <v>400.3394165039062</v>
+        <v>373.8737487792969</v>
       </c>
       <c r="J3" t="n">
-        <v>394.4181823730469</v>
+        <v>373.1579284667969</v>
       </c>
       <c r="K3" t="n">
-        <v>387.6543579101562</v>
+        <v>372.7583312988281</v>
       </c>
       <c r="L3" t="n">
-        <v>379.3795471191406</v>
+        <v>370.483154296875</v>
       </c>
       <c r="M3" t="n">
-        <v>370.3580627441406</v>
+        <v>368.9098815917969</v>
       </c>
       <c r="N3" t="n">
-        <v>358.0363159179688</v>
+        <v>366.5768737792969</v>
       </c>
       <c r="O3" t="n">
-        <v>346.1078796386719</v>
+        <v>364.29638671875</v>
       </c>
       <c r="P3" t="n">
-        <v>335.0488891601562</v>
+        <v>361.9763793945312</v>
       </c>
       <c r="Q3" t="n">
-        <v>328.0374450683594</v>
+        <v>358.7969055175781</v>
       </c>
       <c r="R3" t="n">
-        <v>323.3642578125</v>
+        <v>354.4208679199219</v>
       </c>
       <c r="S3" t="n">
-        <v>319.6059875488281</v>
+        <v>350.964111328125</v>
       </c>
       <c r="T3" t="n">
-        <v>315.7226867675781</v>
+        <v>348.3758239746094</v>
       </c>
       <c r="U3" t="n">
-        <v>311.5608520507812</v>
+        <v>346.3809509277344</v>
       </c>
       <c r="V3" t="n">
-        <v>307.336181640625</v>
+        <v>345.4761352539062</v>
       </c>
       <c r="W3" t="n">
-        <v>303.6627807617188</v>
+        <v>347.1915588378906</v>
       </c>
       <c r="X3" t="n">
-        <v>300.7020568847656</v>
+        <v>349.1088256835938</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.40966796875</v>
+        <v>350.3404541015625</v>
       </c>
       <c r="Z3" t="n">
-        <v>296.6262817382812</v>
+        <v>352.3106689453125</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.480712890625</v>
+        <v>354.8606567382812</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.9147644042969</v>
+        <v>356.2224731445312</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.9805297851562</v>
+        <v>357.1571350097656</v>
       </c>
       <c r="AD3" t="n">
-        <v>295.5888977050781</v>
+        <v>357.0710754394531</v>
       </c>
       <c r="AE3" t="n">
-        <v>296.6646728515625</v>
+        <v>356.1602478027344</v>
       </c>
       <c r="AF3" t="n">
-        <v>297.9149475097656</v>
+        <v>355.4740905761719</v>
       </c>
       <c r="AG3" t="n">
-        <v>299.1260986328125</v>
+        <v>354.7900695800781</v>
       </c>
       <c r="AH3" t="n">
-        <v>300.1126403808594</v>
+        <v>354.3646850585938</v>
       </c>
       <c r="AI3" t="n">
-        <v>300.8860778808594</v>
+        <v>353.7448425292969</v>
       </c>
       <c r="AJ3" t="n">
-        <v>301.5059814453125</v>
+        <v>352.8164978027344</v>
       </c>
       <c r="AK3" t="n">
-        <v>301.9897155761719</v>
+        <v>352.0845642089844</v>
       </c>
       <c r="AL3" t="n">
-        <v>302.3862915039062</v>
+        <v>351.5560302734375</v>
       </c>
       <c r="AM3" t="n">
-        <v>302.7388305664062</v>
+        <v>351.1053771972656</v>
       </c>
       <c r="AN3" t="n">
-        <v>302.8035278320312</v>
+        <v>350.8081359863281</v>
       </c>
       <c r="AO3" t="n">
-        <v>302.2218017578125</v>
+        <v>350.8497924804688</v>
       </c>
       <c r="AP3" t="n">
-        <v>301.3046875</v>
+        <v>350.2640380859375</v>
       </c>
       <c r="AQ3" t="n">
-        <v>300.4774475097656</v>
+        <v>349.7821044921875</v>
       </c>
       <c r="AR3" t="n">
-        <v>299.8619384765625</v>
+        <v>349.3713684082031</v>
       </c>
       <c r="AS3" t="n">
-        <v>299.8192138671875</v>
+        <v>349.0236206054688</v>
       </c>
       <c r="AT3" t="n">
-        <v>300.3638610839844</v>
+        <v>348.6786499023438</v>
       </c>
       <c r="AU3" t="n">
-        <v>302.2622985839844</v>
+        <v>348.525634765625</v>
       </c>
       <c r="AV3" t="n">
-        <v>303.86767578125</v>
+        <v>348.7851257324219</v>
       </c>
       <c r="AW3" t="n">
-        <v>305.1871337890625</v>
+        <v>349.4215698242188</v>
       </c>
       <c r="AX3" t="n">
-        <v>306.1653442382812</v>
+        <v>351.0479125976562</v>
       </c>
       <c r="AY3" t="n">
-        <v>307.3689575195312</v>
+        <v>352.0946350097656</v>
       </c>
       <c r="AZ3" t="n">
-        <v>308.1275024414062</v>
+        <v>352.8947448730469</v>
       </c>
       <c r="BA3" t="n">
-        <v>308.5337829589844</v>
+        <v>353.4338073730469</v>
       </c>
       <c r="BB3" t="n">
-        <v>308.7496337890625</v>
+        <v>353.8643798828125</v>
       </c>
       <c r="BC3" t="n">
-        <v>309.3171691894531</v>
+        <v>354.09326171875</v>
       </c>
       <c r="BD3" t="n">
-        <v>309.8280944824219</v>
+        <v>354.2064208984375</v>
       </c>
       <c r="BE3" t="n">
-        <v>309.5798034667969</v>
+        <v>354.2938842773438</v>
       </c>
       <c r="BF3" t="n">
-        <v>308.630126953125</v>
+        <v>354.2694396972656</v>
       </c>
       <c r="BG3" t="n">
-        <v>307.2417907714844</v>
+        <v>354.1427307128906</v>
       </c>
       <c r="BH3" t="n">
-        <v>305.7683715820312</v>
+        <v>354.0597534179688</v>
       </c>
       <c r="BI3" t="n">
-        <v>304.6888122558594</v>
+        <v>353.9959106445312</v>
       </c>
       <c r="BJ3" t="n">
-        <v>303.8053588867188</v>
+        <v>353.90087890625</v>
       </c>
       <c r="BK3" t="n">
-        <v>303.2668762207031</v>
+        <v>353.8100280761719</v>
       </c>
       <c r="BL3" t="n">
-        <v>302.996337890625</v>
+        <v>353.851318359375</v>
       </c>
       <c r="BM3" t="n">
-        <v>303.0177001953125</v>
+        <v>353.9377746582031</v>
       </c>
       <c r="BN3" t="n">
-        <v>303.3504943847656</v>
+        <v>353.9935913085938</v>
       </c>
       <c r="BO3" t="n">
-        <v>303.6324462890625</v>
+        <v>354.0289306640625</v>
       </c>
       <c r="BP3" t="n">
-        <v>303.715087890625</v>
+        <v>354.029541015625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>303.7407836914062</v>
+        <v>354.0507507324219</v>
       </c>
       <c r="BR3" t="n">
-        <v>303.7814331054688</v>
+        <v>354.0447998046875</v>
       </c>
       <c r="BS3" t="n">
-        <v>303.7647094726562</v>
+        <v>354.0247497558594</v>
       </c>
       <c r="BT3" t="n">
-        <v>303.7001342773438</v>
+        <v>353.9961853027344</v>
       </c>
       <c r="BU3" t="n">
-        <v>303.5947875976562</v>
+        <v>353.9728698730469</v>
       </c>
       <c r="BV3" t="n">
-        <v>303.4854125976562</v>
+        <v>353.9509887695312</v>
       </c>
       <c r="BW3" t="n">
-        <v>303.4545288085938</v>
+        <v>353.9285278320312</v>
       </c>
       <c r="BX3" t="n">
-        <v>303.4774169921875</v>
+        <v>353.9124145507812</v>
       </c>
       <c r="BY3" t="n">
-        <v>303.5562744140625</v>
+        <v>353.9136047363281</v>
       </c>
       <c r="BZ3" t="n">
-        <v>303.680908203125</v>
+        <v>353.9351501464844</v>
       </c>
       <c r="CA3" t="n">
-        <v>303.8722839355469</v>
+        <v>354.0677795410156</v>
       </c>
       <c r="CB3" t="n">
-        <v>304.1014099121094</v>
+        <v>354.18359375</v>
       </c>
       <c r="CC3" t="n">
-        <v>304.3723449707031</v>
+        <v>354.2933654785156</v>
       </c>
       <c r="CD3" t="n">
-        <v>304.6753540039062</v>
+        <v>354.3852233886719</v>
       </c>
       <c r="CE3" t="n">
-        <v>304.9776000976562</v>
+        <v>354.495361328125</v>
       </c>
       <c r="CF3" t="n">
-        <v>305.2851867675781</v>
+        <v>354.5950927734375</v>
       </c>
       <c r="CG3" t="n">
-        <v>305.5589599609375</v>
+        <v>354.6797180175781</v>
       </c>
       <c r="CH3" t="n">
-        <v>305.9276428222656</v>
+        <v>354.740966796875</v>
       </c>
       <c r="CI3" t="n">
-        <v>306.4615783691406</v>
+        <v>354.8132934570312</v>
       </c>
       <c r="CJ3" t="n">
-        <v>306.9421997070312</v>
+        <v>354.8740234375</v>
       </c>
       <c r="CK3" t="n">
-        <v>307.2951049804688</v>
+        <v>354.8795776367188</v>
       </c>
       <c r="CL3" t="n">
-        <v>307.7079162597656</v>
+        <v>354.8625793457031</v>
       </c>
       <c r="CM3" t="n">
-        <v>307.8802185058594</v>
+        <v>354.8318786621094</v>
       </c>
       <c r="CN3" t="n">
-        <v>308.0051879882812</v>
+        <v>354.8278503417969</v>
       </c>
       <c r="CO3" t="n">
-        <v>308.0219421386719</v>
+        <v>354.8313293457031</v>
       </c>
       <c r="CP3" t="n">
-        <v>308.0211791992188</v>
+        <v>354.8265075683594</v>
       </c>
       <c r="CQ3" t="n">
-        <v>308.024658203125</v>
+        <v>354.826904296875</v>
       </c>
       <c r="CR3" t="n">
-        <v>308.0621337890625</v>
+        <v>354.811767578125</v>
       </c>
       <c r="CS3" t="n">
-        <v>308.0628662109375</v>
+        <v>354.6432189941406</v>
       </c>
       <c r="CT3" t="n">
-        <v>308.1613159179688</v>
+        <v>354.4747009277344</v>
       </c>
       <c r="CU3" t="n">
-        <v>308.3660278320312</v>
+        <v>353.3207092285156</v>
       </c>
       <c r="CV3" t="n">
-        <v>308.6420288085938</v>
+        <v>353.1679992675781</v>
       </c>
       <c r="CW3" t="n">
-        <v>308.7991943359375</v>
+        <v>352.8943481445312</v>
       </c>
       <c r="CX3" t="n">
-        <v>308.8338928222656</v>
+        <v>351.8526000976562</v>
       </c>
       <c r="CY3" t="n">
-        <v>308.8962707519531</v>
+        <v>351.1317749023438</v>
       </c>
       <c r="CZ3" t="n">
-        <v>308.939697265625</v>
+        <v>350.7548522949219</v>
       </c>
       <c r="DA3" t="n">
-        <v>308.8961791992188</v>
+        <v>350.5899963378906</v>
       </c>
       <c r="DB3" t="n">
-        <v>308.7370910644531</v>
+        <v>350.4380798339844</v>
       </c>
       <c r="DC3" t="n">
-        <v>308.6229553222656</v>
+        <v>350.4414672851562</v>
       </c>
       <c r="DD3" t="n">
-        <v>308.5378723144531</v>
+        <v>350.5116271972656</v>
       </c>
       <c r="DE3" t="n">
-        <v>308.4430847167969</v>
+        <v>350.6339111328125</v>
       </c>
       <c r="DF3" t="n">
-        <v>308.3454284667969</v>
+        <v>350.7470703125</v>
       </c>
       <c r="DG3" t="n">
-        <v>308.2338256835938</v>
+        <v>350.8634033203125</v>
       </c>
       <c r="DH3" t="n">
-        <v>308.1327514648438</v>
+        <v>350.970947265625</v>
       </c>
       <c r="DI3" t="n">
-        <v>308.0736083984375</v>
+        <v>351.0264282226562</v>
       </c>
       <c r="DJ3" t="n">
-        <v>308.1006164550781</v>
+        <v>351.0770874023438</v>
       </c>
       <c r="DK3" t="n">
-        <v>308.3518676757812</v>
+        <v>352.2617492675781</v>
       </c>
       <c r="DL3" t="n">
-        <v>309.5670166015625</v>
+        <v>354.5183715820312</v>
       </c>
       <c r="DM3" t="n">
-        <v>310.1446228027344</v>
+        <v>355.3576965332031</v>
       </c>
       <c r="DN3" t="n">
-        <v>313.5301208496094</v>
+        <v>356.5515441894531</v>
       </c>
       <c r="DO3" t="n">
-        <v>316.6813049316406</v>
+        <v>357.0175476074219</v>
       </c>
       <c r="DP3" t="n">
-        <v>318.5923767089844</v>
+        <v>357.2330017089844</v>
       </c>
       <c r="DQ3" t="n">
-        <v>318.392822265625</v>
+        <v>357.2589721679688</v>
       </c>
       <c r="DR3" t="n">
-        <v>318.0370178222656</v>
+        <v>357.1183471679688</v>
       </c>
       <c r="DS3" t="n">
-        <v>317.7584228515625</v>
+        <v>357.0785217285156</v>
       </c>
       <c r="DT3" t="n">
-        <v>317.6744079589844</v>
+        <v>357.1843872070312</v>
       </c>
       <c r="DU3" t="n">
-        <v>317.5878295898438</v>
+        <v>357.3212890625</v>
       </c>
       <c r="DV3" t="n">
-        <v>313.0894165039062</v>
+        <v>357.4823913574219</v>
       </c>
       <c r="DW3" t="n">
-        <v>306.1909484863281</v>
+        <v>357.5443420410156</v>
       </c>
       <c r="DX3" t="n">
-        <v>303.9266967773438</v>
+        <v>357.6207275390625</v>
       </c>
       <c r="DY3" t="n">
-        <v>302.7752685546875</v>
+        <v>357.6668090820312</v>
       </c>
       <c r="DZ3" t="n">
-        <v>301.990966796875</v>
+        <v>357.6805419921875</v>
       </c>
       <c r="EA3" t="n">
-        <v>301.8513793945312</v>
+        <v>357.6949462890625</v>
       </c>
       <c r="EB3" t="n">
-        <v>301.7528381347656</v>
+        <v>357.6879577636719</v>
       </c>
       <c r="EC3" t="n">
-        <v>301.5484008789062</v>
+        <v>357.6793212890625</v>
       </c>
       <c r="ED3" t="n">
-        <v>301.1383056640625</v>
+        <v>357.6671752929688</v>
       </c>
       <c r="EE3" t="n">
-        <v>300.758544921875</v>
+        <v>357.6773376464844</v>
       </c>
       <c r="EF3" t="n">
-        <v>300.0996398925781</v>
+        <v>357.7483215332031</v>
       </c>
       <c r="EG3" t="n">
-        <v>298.6135864257812</v>
+        <v>357.8178405761719</v>
       </c>
       <c r="EH3" t="n">
-        <v>298.7907104492188</v>
+        <v>357.886962890625</v>
       </c>
       <c r="EI3" t="n">
-        <v>300.119873046875</v>
+        <v>358.0230712890625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>301.1667785644531</v>
+        <v>358.0487670898438</v>
       </c>
       <c r="EK3" t="n">
-        <v>302.5954284667969</v>
+        <v>358.0582275390625</v>
       </c>
       <c r="EL3" t="n">
-        <v>303.3507995605469</v>
+        <v>358.0575561523438</v>
       </c>
       <c r="EM3" t="n">
-        <v>304.1925048828125</v>
+        <v>358.0296936035156</v>
       </c>
       <c r="EN3" t="n">
-        <v>305.1540832519531</v>
+        <v>358.0092163085938</v>
       </c>
       <c r="EO3" t="n">
-        <v>307.3121032714844</v>
+        <v>356.6014099121094</v>
       </c>
       <c r="EP3" t="n">
-        <v>309.7972717285156</v>
+        <v>355.4717712402344</v>
       </c>
       <c r="EQ3" t="n">
-        <v>316.0165100097656</v>
+        <v>353.9163208007812</v>
       </c>
       <c r="ER3" t="n">
-        <v>317.031982421875</v>
+        <v>353.0358276367188</v>
       </c>
       <c r="ES3" t="n">
-        <v>320.1057739257812</v>
+        <v>352.766357421875</v>
       </c>
       <c r="ET3" t="n">
-        <v>322.7543640136719</v>
+        <v>352.4146423339844</v>
       </c>
       <c r="EU3" t="n">
-        <v>324.4596862792969</v>
+        <v>352.3078918457031</v>
       </c>
       <c r="EV3" t="n">
-        <v>324.2653198242188</v>
+        <v>352.2289733886719</v>
       </c>
       <c r="EW3" t="n">
-        <v>325.6614379882812</v>
+        <v>352.1281433105469</v>
       </c>
       <c r="EX3" t="n">
-        <v>328.6234436035156</v>
+        <v>352.0798645019531</v>
       </c>
       <c r="EY3" t="n">
-        <v>332.7674865722656</v>
+        <v>352.1064453125</v>
       </c>
       <c r="EZ3" t="n">
-        <v>333.7273864746094</v>
+        <v>352.2687072753906</v>
       </c>
       <c r="FA3" t="n">
-        <v>333.4417724609375</v>
+        <v>354.4040222167969</v>
       </c>
       <c r="FB3" t="n">
-        <v>331.3764343261719</v>
+        <v>354.957275390625</v>
       </c>
       <c r="FC3" t="n">
-        <v>332.3274536132812</v>
+        <v>355.7090148925781</v>
       </c>
       <c r="FD3" t="n">
-        <v>335.8904418945312</v>
+        <v>356.1504211425781</v>
       </c>
       <c r="FE3" t="n">
-        <v>338.5318908691406</v>
+        <v>356.2984619140625</v>
       </c>
       <c r="FF3" t="n">
-        <v>350.2244567871094</v>
+        <v>356.4154357910156</v>
       </c>
       <c r="FG3" t="n">
-        <v>357.0362548828125</v>
+        <v>356.6945190429688</v>
       </c>
       <c r="FH3" t="n">
-        <v>367.3187561035156</v>
+        <v>356.8175354003906</v>
       </c>
       <c r="FI3" t="n">
-        <v>371.1041564941406</v>
+        <v>356.9882202148438</v>
       </c>
       <c r="FJ3" t="n">
-        <v>391.4808349609375</v>
+        <v>357.0846557617188</v>
       </c>
       <c r="FK3" t="n">
-        <v>406.6930236816406</v>
+        <v>357.1156921386719</v>
       </c>
       <c r="FL3" t="n">
-        <v>427.5205383300781</v>
+        <v>357.171142578125</v>
       </c>
       <c r="FM3" t="n">
-        <v>432.5025024414062</v>
+        <v>357.1817626953125</v>
       </c>
       <c r="FN3" t="n">
-        <v>437.3287048339844</v>
+        <v>357.2179565429688</v>
       </c>
       <c r="FO3" t="n">
-        <v>458.2278442382812</v>
+        <v>357.2383728027344</v>
       </c>
       <c r="FP3" t="n">
-        <v>483.6817321777344</v>
+        <v>357.26708984375</v>
       </c>
       <c r="FQ3" t="n">
-        <v>496.2236633300781</v>
+        <v>357.2907409667969</v>
       </c>
       <c r="FR3" t="n">
-        <v>505.8042602539062</v>
+        <v>357.343017578125</v>
       </c>
       <c r="FS3" t="n">
-        <v>499.5427856445312</v>
+        <v>357.3643188476562</v>
       </c>
       <c r="FT3" t="n">
-        <v>493.2738952636719</v>
+        <v>357.4020080566406</v>
       </c>
       <c r="FU3" t="n">
-        <v>484.16455078125</v>
+        <v>357.4259948730469</v>
       </c>
       <c r="FV3" t="n">
-        <v>481.0707702636719</v>
+        <v>357.4287109375</v>
       </c>
       <c r="FW3" t="n">
-        <v>482.5005493164062</v>
+        <v>357.4022827148438</v>
       </c>
       <c r="FX3" t="n">
-        <v>484.8333435058594</v>
+        <v>357.3702392578125</v>
       </c>
       <c r="FY3" t="n">
-        <v>485.7586059570312</v>
+        <v>356.5581970214844</v>
       </c>
       <c r="FZ3" t="n">
-        <v>486.2955627441406</v>
+        <v>355.71044921875</v>
       </c>
       <c r="GA3" t="n">
-        <v>485.324462890625</v>
+        <v>354.4649353027344</v>
       </c>
       <c r="GB3" t="n">
-        <v>490.6172485351562</v>
+        <v>353.9153137207031</v>
       </c>
       <c r="GC3" t="n">
-        <v>502.2149353027344</v>
+        <v>352.77490234375</v>
       </c>
       <c r="GD3" t="n">
-        <v>508.9038391113281</v>
+        <v>353.0828247070312</v>
       </c>
       <c r="GE3" t="n">
-        <v>509.9320068359375</v>
+        <v>353.5342712402344</v>
       </c>
       <c r="GF3" t="n">
-        <v>507.123291015625</v>
+        <v>352.33251953125</v>
       </c>
       <c r="GG3" t="n">
-        <v>506.2590942382812</v>
+        <v>352.015625</v>
       </c>
       <c r="GH3" t="n">
-        <v>506.550537109375</v>
+        <v>351.7742919921875</v>
       </c>
       <c r="GI3" t="n">
-        <v>506.3202514648438</v>
+        <v>351.8760070800781</v>
       </c>
       <c r="GJ3" t="n">
-        <v>512.7223510742188</v>
+        <v>352.2244873046875</v>
       </c>
       <c r="GK3" t="n">
-        <v>533.2633056640625</v>
+        <v>352.58984375</v>
       </c>
       <c r="GL3" t="n">
-        <v>537.9135131835938</v>
+        <v>353.84326171875</v>
       </c>
       <c r="GM3" t="n">
-        <v>545.77587890625</v>
+        <v>355.5429077148438</v>
       </c>
       <c r="GN3" t="n">
-        <v>548.0379028320312</v>
+        <v>356.0979614257812</v>
       </c>
       <c r="GO3" t="n">
-        <v>547.886962890625</v>
+        <v>356.9094543457031</v>
       </c>
       <c r="GP3" t="n">
-        <v>552.9568481445312</v>
+        <v>357.4041442871094</v>
       </c>
       <c r="GQ3" t="n">
-        <v>546.9866333007812</v>
+        <v>357.7092590332031</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>357.7856750488281</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>357.6455688476562</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>357.3374633789062</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>356.9813232421875</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>356.7213134765625</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>356.5572814941406</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>356.4415588378906</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>356.35009765625</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>356.3072204589844</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>356.3003540039062</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>356.3063659667969</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>356.3309936523438</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>356.3660888671875</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>356.4124145507812</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>356.5586547851562</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>355.7101440429688</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>354.132568359375</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>353.1105041503906</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>352.4058227539062</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>352.0092468261719</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>351.9179077148438</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>351.9233703613281</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>351.9805603027344</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>352.044921875</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>352.0108337402344</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>351.9454040527344</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>353.1894226074219</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>354.8284606933594</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>355.9626159667969</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>356.6634521484375</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>357.0253601074219</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>357.2291564941406</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>357.2803955078125</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>357.1961669921875</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>357.0943908691406</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>356.914306640625</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>356.8383178710938</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>356.7255249023438</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>356.67919921875</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>356.6580810546875</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>356.6448364257812</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>356.6170959472656</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>356.5881652832031</v>
+      </c>
+      <c r="II3" t="n">
+        <v>356.5608215332031</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>356.541259765625</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>356.5288391113281</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>356.5209350585938</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>356.6215515136719</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>354.513427734375</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>353.2205200195312</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>352.6035766601562</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>352.2729187011719</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>352.0798034667969</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>352.0339050292969</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>352.09130859375</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>352.1841430664062</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>352.3273315429688</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>354.4052734375</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>355.7051696777344</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>357.0587463378906</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>357.5502014160156</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>357.7138366699219</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>357.6764526367188</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>357.6851196289062</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>357.9329528808594</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>357.9485473632812</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>357.8493041992188</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>357.7431335449219</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>357.6380004882812</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>357.5841674804688</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>357.5341186523438</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>357.4859313964844</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>357.4403076171875</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>357.4007873535156</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>357.3706665039062</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>357.3484191894531</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>357.3255615234375</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>357.2627868652344</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>357.0967102050781</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>355.8944702148438</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>353.4613342285156</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>352.6722717285156</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>352.2691345214844</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>352.3355407714844</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>352.8177490234375</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>353.1524963378906</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>355.1911315917969</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>356.5594787597656</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>357.2503662109375</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>357.6037292480469</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>358.3561401367188</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>358.0098266601562</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>357.3948669433594</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>357.4226989746094</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>357.64208984375</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>357.7878112792969</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>357.0126647949219</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>357.6393127441406</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>360.0154113769531</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>363.1224060058594</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>366.2758178710938</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>362.1289672851562</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>361.4049377441406</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>361.1990051269531</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>361.8419494628906</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>359.8934631347656</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>362.1432495117188</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>368.9287719726562</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>374.9146118164062</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>380.580322265625</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>382.3318481445312</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>381.0709228515625</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>379.8746643066406</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>384.3165588378906</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>383.1252746582031</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>383.7582092285156</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>384.7184448242188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1170.55029296875</v>
+        <v>970.510009765625</v>
       </c>
       <c r="B4" t="n">
-        <v>1180.129638671875</v>
+        <v>946.4408569335938</v>
       </c>
       <c r="C4" t="n">
-        <v>1189.732666015625</v>
+        <v>934.3408203125</v>
       </c>
       <c r="D4" t="n">
-        <v>1193.651733398438</v>
+        <v>953.4205932617188</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.734130859375</v>
+        <v>1002.766296386719</v>
       </c>
       <c r="F4" t="n">
-        <v>1195.8740234375</v>
+        <v>1052.478881835938</v>
       </c>
       <c r="G4" t="n">
-        <v>1198.8212890625</v>
+        <v>1092.498046875</v>
       </c>
       <c r="H4" t="n">
-        <v>1200.985595703125</v>
+        <v>1119.999755859375</v>
       </c>
       <c r="I4" t="n">
-        <v>1201.497436523438</v>
+        <v>1139.626098632812</v>
       </c>
       <c r="J4" t="n">
-        <v>1202.668090820312</v>
+        <v>1163.341186523438</v>
       </c>
       <c r="K4" t="n">
-        <v>1207.227294921875</v>
+        <v>1196.029663085938</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.944458007812</v>
+        <v>1233.34912109375</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.608032226562</v>
+        <v>1272.45263671875</v>
       </c>
       <c r="N4" t="n">
-        <v>1252.9326171875</v>
+        <v>1310.568969726562</v>
       </c>
       <c r="O4" t="n">
-        <v>1266.767944335938</v>
+        <v>1345.59814453125</v>
       </c>
       <c r="P4" t="n">
-        <v>1277.87841796875</v>
+        <v>1376.88720703125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1285.487915039062</v>
+        <v>1405.45849609375</v>
       </c>
       <c r="R4" t="n">
-        <v>1291.664306640625</v>
+        <v>1431.18115234375</v>
       </c>
       <c r="S4" t="n">
-        <v>1297.396362304688</v>
+        <v>1456.670654296875</v>
       </c>
       <c r="T4" t="n">
-        <v>1304.315063476562</v>
+        <v>1479.281372070312</v>
       </c>
       <c r="U4" t="n">
-        <v>1313.396362304688</v>
+        <v>1503.552856445312</v>
       </c>
       <c r="V4" t="n">
-        <v>1322.974365234375</v>
+        <v>1526.893920898438</v>
       </c>
       <c r="W4" t="n">
-        <v>1331.92333984375</v>
+        <v>1551.64453125</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.918579101562</v>
+        <v>1577.468872070312</v>
       </c>
       <c r="Y4" t="n">
-        <v>1342.191650390625</v>
+        <v>1604.670776367188</v>
       </c>
       <c r="Z4" t="n">
-        <v>1347.1904296875</v>
+        <v>1631.615356445312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1354.017822265625</v>
+        <v>1659.536010742188</v>
       </c>
       <c r="AB4" t="n">
-        <v>1358.603393554688</v>
+        <v>1688.890380859375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1356.084838867188</v>
+        <v>1719.114135742188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1346.924682617188</v>
+        <v>1754.581298828125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1333.019775390625</v>
+        <v>1788.864624023438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1320.309692382812</v>
+        <v>1814.783447265625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1308.75341796875</v>
+        <v>1835.394653320312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1300.852905273438</v>
+        <v>1852.573608398438</v>
       </c>
       <c r="AI4" t="n">
-        <v>1295.741088867188</v>
+        <v>1868.201904296875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1291.944213867188</v>
+        <v>1887.434448242188</v>
       </c>
       <c r="AK4" t="n">
-        <v>1287.519775390625</v>
+        <v>1900.438598632812</v>
       </c>
       <c r="AL4" t="n">
-        <v>1283.234252929688</v>
+        <v>1911.904174804688</v>
       </c>
       <c r="AM4" t="n">
-        <v>1278.580078125</v>
+        <v>1922.841796875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1273.765380859375</v>
+        <v>1931.110229492188</v>
       </c>
       <c r="AO4" t="n">
-        <v>1271.470703125</v>
+        <v>1940.932739257812</v>
       </c>
       <c r="AP4" t="n">
-        <v>1270.521362304688</v>
+        <v>1949.791748046875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1270.544189453125</v>
+        <v>1955.78759765625</v>
       </c>
       <c r="AR4" t="n">
-        <v>1270.81103515625</v>
+        <v>1958.933471679688</v>
       </c>
       <c r="AS4" t="n">
-        <v>1270.189575195312</v>
+        <v>1961.439086914062</v>
       </c>
       <c r="AT4" t="n">
-        <v>1265.403930664062</v>
+        <v>1964.068115234375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1250.089477539062</v>
+        <v>1967.48291015625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1237.058349609375</v>
+        <v>1971.572875976562</v>
       </c>
       <c r="AW4" t="n">
-        <v>1228.96728515625</v>
+        <v>1977.122436523438</v>
       </c>
       <c r="AX4" t="n">
-        <v>1225.135498046875</v>
+        <v>1979.9951171875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1227.89990234375</v>
+        <v>1982.908447265625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1236.744018554688</v>
+        <v>1987.143920898438</v>
       </c>
       <c r="BA4" t="n">
-        <v>1245.21435546875</v>
+        <v>1990.0732421875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1249.906494140625</v>
+        <v>1993.616455078125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1252.275390625</v>
+        <v>1999.3984375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1254.056274414062</v>
+        <v>2004.214965820312</v>
       </c>
       <c r="BE4" t="n">
-        <v>1258.232666015625</v>
+        <v>2008.055053710938</v>
       </c>
       <c r="BF4" t="n">
-        <v>1266.939697265625</v>
+        <v>2010.232543945312</v>
       </c>
       <c r="BG4" t="n">
-        <v>1279.547973632812</v>
+        <v>2011.453125</v>
       </c>
       <c r="BH4" t="n">
-        <v>1288.586059570312</v>
+        <v>2012.136352539062</v>
       </c>
       <c r="BI4" t="n">
-        <v>1294.136352539062</v>
+        <v>2012.628051757812</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1297.305541992188</v>
+        <v>2013.156372070312</v>
       </c>
       <c r="BK4" t="n">
-        <v>1298.8984375</v>
+        <v>2013.811279296875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1299.528564453125</v>
+        <v>2014.71435546875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1299.665771484375</v>
+        <v>2015.671875</v>
       </c>
       <c r="BN4" t="n">
-        <v>1298.669799804688</v>
+        <v>2016.398193359375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1297.1474609375</v>
+        <v>2017.14306640625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1296.014770507812</v>
+        <v>2018.051635742188</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1294.986450195312</v>
+        <v>2018.215087890625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1294.194580078125</v>
+        <v>2018.245849609375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1293.810913085938</v>
+        <v>2018.2138671875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1293.712646484375</v>
+        <v>2018.219604492188</v>
       </c>
       <c r="BU4" t="n">
-        <v>1293.71435546875</v>
+        <v>2018.15087890625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1293.788940429688</v>
+        <v>2018.046630859375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1293.862915039062</v>
+        <v>2017.942260742188</v>
       </c>
       <c r="BX4" t="n">
-        <v>1293.942993164062</v>
+        <v>2017.271484375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1293.9921875</v>
+        <v>2015.765625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1294.0224609375</v>
+        <v>2013.80029296875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1294.02587890625</v>
+        <v>2007.126586914062</v>
       </c>
       <c r="CB4" t="n">
-        <v>1294.0234375</v>
+        <v>2005.3984375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1294.000244140625</v>
+        <v>2004.578735351562</v>
       </c>
       <c r="CD4" t="n">
-        <v>1293.97314453125</v>
+        <v>2003.849365234375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1293.947631835938</v>
+        <v>2003.087646484375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1293.935180664062</v>
+        <v>2002.64453125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1293.942993164062</v>
+        <v>2002.419555664062</v>
       </c>
       <c r="CH4" t="n">
-        <v>1294.36328125</v>
+        <v>2002.237060546875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1294.920166015625</v>
+        <v>2002.250732421875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1297.152954101562</v>
+        <v>2002.319213867188</v>
       </c>
       <c r="CK4" t="n">
-        <v>1300.178466796875</v>
+        <v>2002.45458984375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1303.62841796875</v>
+        <v>2002.546264648438</v>
       </c>
       <c r="CM4" t="n">
-        <v>1303.974609375</v>
+        <v>2002.6494140625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1304.111083984375</v>
+        <v>2002.71337890625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1304.195190429688</v>
+        <v>2002.847778320312</v>
       </c>
       <c r="CP4" t="n">
-        <v>1304.246704101562</v>
+        <v>2002.910034179688</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1304.291137695312</v>
+        <v>2002.935791015625</v>
       </c>
       <c r="CR4" t="n">
-        <v>1304.343994140625</v>
+        <v>2002.978515625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1304.3349609375</v>
+        <v>2003.41064453125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1304.127319335938</v>
+        <v>2004.061767578125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1303.4150390625</v>
+        <v>2005.741577148438</v>
       </c>
       <c r="CV4" t="n">
-        <v>1302.117309570312</v>
+        <v>2005.48486328125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1300.924682617188</v>
+        <v>2005.449829101562</v>
       </c>
       <c r="CX4" t="n">
-        <v>1300.016479492188</v>
+        <v>2006.42333984375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1299.270751953125</v>
+        <v>2007.104370117188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1299.489868164062</v>
+        <v>2007.712036132812</v>
       </c>
       <c r="DA4" t="n">
-        <v>1300.178466796875</v>
+        <v>2008.104248046875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1301.08251953125</v>
+        <v>2008.14990234375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1301.697265625</v>
+        <v>2008.106323242188</v>
       </c>
       <c r="DD4" t="n">
-        <v>1302.130126953125</v>
+        <v>2008.117431640625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1302.525756835938</v>
+        <v>2008.063110351562</v>
       </c>
       <c r="DF4" t="n">
-        <v>1302.95263671875</v>
+        <v>2007.898193359375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1303.407836914062</v>
+        <v>2007.691284179688</v>
       </c>
       <c r="DH4" t="n">
-        <v>1303.845458984375</v>
+        <v>2007.486083984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1304.2646484375</v>
+        <v>2007.295654296875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1304.1611328125</v>
+        <v>2007.103759765625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1301.254150390625</v>
+        <v>2005.477416992188</v>
       </c>
       <c r="DL4" t="n">
-        <v>1284.641479492188</v>
+        <v>2003.930053710938</v>
       </c>
       <c r="DM4" t="n">
-        <v>1277.848266601562</v>
+        <v>2003.902709960938</v>
       </c>
       <c r="DN4" t="n">
-        <v>1272.2041015625</v>
+        <v>2003.230834960938</v>
       </c>
       <c r="DO4" t="n">
-        <v>1268.63232421875</v>
+        <v>2002.49609375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1267.907348632812</v>
+        <v>2001.0517578125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1268.268798828125</v>
+        <v>1999.794067382812</v>
       </c>
       <c r="DR4" t="n">
-        <v>1268.377685546875</v>
+        <v>1998.779174804688</v>
       </c>
       <c r="DS4" t="n">
-        <v>1268.363037109375</v>
+        <v>1999.069213867188</v>
       </c>
       <c r="DT4" t="n">
-        <v>1268.574829101562</v>
+        <v>1999.551391601562</v>
       </c>
       <c r="DU4" t="n">
-        <v>1269.096557617188</v>
+        <v>1999.63818359375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1278.081909179688</v>
+        <v>1999.127685546875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1285.197998046875</v>
+        <v>1998.958251953125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1285.11865234375</v>
+        <v>1998.836791992188</v>
       </c>
       <c r="DY4" t="n">
-        <v>1282.675170898438</v>
+        <v>1998.582275390625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1276.162353515625</v>
+        <v>1998.4716796875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1272.5537109375</v>
+        <v>1998.312622070312</v>
       </c>
       <c r="EB4" t="n">
-        <v>1264.370727539062</v>
+        <v>1998.305297851562</v>
       </c>
       <c r="EC4" t="n">
-        <v>1262.286499023438</v>
+        <v>1998.311889648438</v>
       </c>
       <c r="ED4" t="n">
-        <v>1257.966552734375</v>
+        <v>1998.323974609375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1256.050048828125</v>
+        <v>1998.306884765625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1253.95556640625</v>
+        <v>1998.199829101562</v>
       </c>
       <c r="EG4" t="n">
-        <v>1249.933471679688</v>
+        <v>1998.100219726562</v>
       </c>
       <c r="EH4" t="n">
-        <v>1248.675537109375</v>
+        <v>1998.0009765625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1246.29345703125</v>
+        <v>1997.804931640625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1242.849975585938</v>
+        <v>1997.768310546875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1230.511474609375</v>
+        <v>1997.755493164062</v>
       </c>
       <c r="EL4" t="n">
-        <v>1222.864013671875</v>
+        <v>1997.756225585938</v>
       </c>
       <c r="EM4" t="n">
-        <v>1202.543090820312</v>
+        <v>1997.624145507812</v>
       </c>
       <c r="EN4" t="n">
-        <v>1189.082397460938</v>
+        <v>1997.14111328125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1163.248779296875</v>
+        <v>1997.162963867188</v>
       </c>
       <c r="EP4" t="n">
-        <v>1150.258422851562</v>
+        <v>1998.29833984375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1128.253173828125</v>
+        <v>1999.727661132812</v>
       </c>
       <c r="ER4" t="n">
-        <v>1122.343627929688</v>
+        <v>1999.61474609375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1106.026977539062</v>
+        <v>1999.140502929688</v>
       </c>
       <c r="ET4" t="n">
-        <v>1093.52392578125</v>
+        <v>1997.8876953125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1083.124267578125</v>
+        <v>1997.176147460938</v>
       </c>
       <c r="EV4" t="n">
-        <v>1067.0234375</v>
+        <v>1996.474975585938</v>
       </c>
       <c r="EW4" t="n">
-        <v>1045.153564453125</v>
+        <v>1995.013305664062</v>
       </c>
       <c r="EX4" t="n">
-        <v>1027.901977539062</v>
+        <v>1993.638549804688</v>
       </c>
       <c r="EY4" t="n">
-        <v>998.8861083984375</v>
+        <v>1993.9873046875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>973.111572265625</v>
+        <v>1994.457641601562</v>
       </c>
       <c r="FA4" t="n">
-        <v>958.2903442382812</v>
+        <v>1993.124145507812</v>
       </c>
       <c r="FB4" t="n">
-        <v>943.5419311523438</v>
+        <v>1992.954223632812</v>
       </c>
       <c r="FC4" t="n">
-        <v>915.900390625</v>
+        <v>1993.120727539062</v>
       </c>
       <c r="FD4" t="n">
-        <v>886.1334838867188</v>
+        <v>1994.087890625</v>
       </c>
       <c r="FE4" t="n">
-        <v>872.5291748046875</v>
+        <v>1994.729736328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>849.9334716796875</v>
+        <v>1994.807373046875</v>
       </c>
       <c r="FG4" t="n">
-        <v>838.190673828125</v>
+        <v>1994.61865234375</v>
       </c>
       <c r="FH4" t="n">
-        <v>828.9185180664062</v>
+        <v>1994.361328125</v>
       </c>
       <c r="FI4" t="n">
-        <v>828.8379516601562</v>
+        <v>1994.097412109375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>828.5462646484375</v>
+        <v>1994.005615234375</v>
       </c>
       <c r="FK4" t="n">
-        <v>826.760498046875</v>
+        <v>1993.998657226562</v>
       </c>
       <c r="FL4" t="n">
-        <v>813.3079833984375</v>
+        <v>1994.050415039062</v>
       </c>
       <c r="FM4" t="n">
-        <v>809.6884155273438</v>
+        <v>1994.104248046875</v>
       </c>
       <c r="FN4" t="n">
-        <v>803.6650390625</v>
+        <v>1994.195434570312</v>
       </c>
       <c r="FO4" t="n">
-        <v>792.355224609375</v>
+        <v>1994.2392578125</v>
       </c>
       <c r="FP4" t="n">
-        <v>788.158203125</v>
+        <v>1994.396728515625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>785.3425903320312</v>
+        <v>1994.479370117188</v>
       </c>
       <c r="FR4" t="n">
-        <v>791.0160522460938</v>
+        <v>1994.599975585938</v>
       </c>
       <c r="FS4" t="n">
-        <v>807.9749755859375</v>
+        <v>1994.636962890625</v>
       </c>
       <c r="FT4" t="n">
-        <v>822.5731201171875</v>
+        <v>1994.763427734375</v>
       </c>
       <c r="FU4" t="n">
-        <v>832.3480224609375</v>
+        <v>1995.026977539062</v>
       </c>
       <c r="FV4" t="n">
-        <v>828.8294677734375</v>
+        <v>1995.165405273438</v>
       </c>
       <c r="FW4" t="n">
-        <v>816.5971069335938</v>
+        <v>1995.363891601562</v>
       </c>
       <c r="FX4" t="n">
-        <v>816.469482421875</v>
+        <v>1995.4345703125</v>
       </c>
       <c r="FY4" t="n">
-        <v>819.396240234375</v>
+        <v>1997.524658203125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>824.2674560546875</v>
+        <v>1998.65966796875</v>
       </c>
       <c r="GA4" t="n">
-        <v>836.0779418945312</v>
+        <v>2000.328369140625</v>
       </c>
       <c r="GB4" t="n">
-        <v>824.1460571289062</v>
+        <v>2000.515258789062</v>
       </c>
       <c r="GC4" t="n">
-        <v>772.192626953125</v>
+        <v>2000.565795898438</v>
       </c>
       <c r="GD4" t="n">
-        <v>759.2728881835938</v>
+        <v>1999.401733398438</v>
       </c>
       <c r="GE4" t="n">
-        <v>766.2017211914062</v>
+        <v>1996.587280273438</v>
       </c>
       <c r="GF4" t="n">
-        <v>776.6603393554688</v>
+        <v>1995.972412109375</v>
       </c>
       <c r="GG4" t="n">
-        <v>787.11572265625</v>
+        <v>1994.721557617188</v>
       </c>
       <c r="GH4" t="n">
-        <v>792.5446166992188</v>
+        <v>1990.944580078125</v>
       </c>
       <c r="GI4" t="n">
-        <v>802.4810791015625</v>
+        <v>1989.820068359375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>781.7965087890625</v>
+        <v>1989.805053710938</v>
       </c>
       <c r="GK4" t="n">
-        <v>698.8582153320312</v>
+        <v>1989.408203125</v>
       </c>
       <c r="GL4" t="n">
-        <v>683.5886840820312</v>
+        <v>1990.356811523438</v>
       </c>
       <c r="GM4" t="n">
-        <v>689.9112548828125</v>
+        <v>1999.136840820312</v>
       </c>
       <c r="GN4" t="n">
-        <v>721.7890014648438</v>
+        <v>2000.983032226562</v>
       </c>
       <c r="GO4" t="n">
-        <v>721.5848388671875</v>
+        <v>2001.407104492188</v>
       </c>
       <c r="GP4" t="n">
-        <v>694.0931396484375</v>
+        <v>2000.854125976562</v>
       </c>
       <c r="GQ4" t="n">
-        <v>688.8809814453125</v>
+        <v>2000.0634765625</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1999.755493164062</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1998.6240234375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1996.21142578125</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1994.184448242188</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1992.828125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1992.745971679688</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1992.907958984375</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1993.07861328125</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1993.195190429688</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1993.298095703125</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1993.349731445312</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1993.438110351562</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1993.47607421875</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1993.469116210938</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1993.65869140625</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1994.304443359375</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1994.203002929688</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1993.096557617188</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1991.736938476562</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1990.70361328125</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1989.372924804688</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1988.68212890625</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1988.10888671875</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1987.965942382812</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1988.000244140625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1988.215454101562</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1988.2919921875</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1989.34521484375</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1995.436645507812</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1999.666870117188</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2000.032470703125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1999.80078125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1999.130249023438</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1997.271850585938</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1995.225219726562</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1992.979858398438</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1992.604125976562</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1991.996459960938</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1992.241943359375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1992.497436523438</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1992.763916015625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1993.041870117188</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1993.428833007812</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1993.7099609375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1993.740234375</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1993.75537109375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1993.762329101562</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1990.4873046875</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1987.711181640625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1983.215087890625</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1982.154418945312</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1982.51123046875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1982.875244140625</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1983.273681640625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1983.777099609375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1984.162353515625</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1984.710327148438</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1983.3046875</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1984.088745117188</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1986.531005859375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1989.81689453125</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1990.434326171875</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1989.4970703125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1988.413940429688</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1987.089965820312</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1986.244140625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1986.09814453125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1986.181884765625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1986.263061523438</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1986.234619140625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1986.339599609375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1986.448608398438</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1986.557983398438</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1986.6591796875</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1986.753051757812</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1986.843017578125</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1986.93896484375</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1986.790161132812</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1985.165283203125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1985.33935546875</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1981.6455078125</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1980.19677734375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1980.204956054688</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1979.309204101562</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1975.552734375</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1967.831420898438</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1952.887084960938</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1940.493408203125</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1937.86865234375</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1935.600830078125</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1929.086303710938</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1927.887451171875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1929.278198242188</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1927.010375976562</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1909.229858398438</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1882.190063476562</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1855.639526367188</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1819.935302734375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1771.3212890625</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1718.386962890625</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1651.814697265625</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1551.82470703125</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1493.08935546875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1447.293823242188</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1403.426147460938</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1341.870361328125</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1293.522827148438</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1216.490966796875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1162.426147460938</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1112.645629882812</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1059.778564453125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1031.177001953125</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1003.953674316406</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>962.7469482421875</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>945.269287109375</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>929.0590209960938</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>912.2532958984375</v>
       </c>
     </row>
   </sheetData>

--- a/waist_Data.xlsx
+++ b/waist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>320.3839721679688</v>
+        <v>292.1115417480469</v>
       </c>
       <c r="B2" t="n">
-        <v>323.343505859375</v>
+        <v>293.2984313964844</v>
       </c>
       <c r="C2" t="n">
-        <v>325.0135498046875</v>
+        <v>294.2923889160156</v>
       </c>
       <c r="D2" t="n">
-        <v>325.9928588867188</v>
+        <v>295.2269897460938</v>
       </c>
       <c r="E2" t="n">
-        <v>325.4446105957031</v>
+        <v>296.3351440429688</v>
       </c>
       <c r="F2" t="n">
-        <v>324.1339721679688</v>
+        <v>297.2116394042969</v>
       </c>
       <c r="G2" t="n">
-        <v>323.392578125</v>
+        <v>297.171142578125</v>
       </c>
       <c r="H2" t="n">
-        <v>322.9985961914062</v>
+        <v>297.565673828125</v>
       </c>
       <c r="I2" t="n">
-        <v>323.0438842773438</v>
+        <v>298.0081481933594</v>
       </c>
       <c r="J2" t="n">
-        <v>323.1242065429688</v>
+        <v>298.2730102539062</v>
       </c>
       <c r="K2" t="n">
-        <v>323.6314697265625</v>
+        <v>297.5638732910156</v>
       </c>
       <c r="L2" t="n">
-        <v>325.1655578613281</v>
+        <v>296.0158386230469</v>
       </c>
       <c r="M2" t="n">
-        <v>325.9541320800781</v>
+        <v>292.4267883300781</v>
       </c>
       <c r="N2" t="n">
-        <v>326.6482238769531</v>
+        <v>290.3833618164062</v>
       </c>
       <c r="O2" t="n">
-        <v>327.2001953125</v>
+        <v>289.64013671875</v>
       </c>
       <c r="P2" t="n">
-        <v>327.404052734375</v>
+        <v>289.5894470214844</v>
       </c>
       <c r="Q2" t="n">
-        <v>327.3974914550781</v>
+        <v>289.8341064453125</v>
       </c>
       <c r="R2" t="n">
-        <v>327.085205078125</v>
+        <v>290.2748718261719</v>
       </c>
       <c r="S2" t="n">
-        <v>326.1378784179688</v>
+        <v>290.8948669433594</v>
       </c>
       <c r="T2" t="n">
-        <v>325.0372924804688</v>
+        <v>291.7501831054688</v>
       </c>
       <c r="U2" t="n">
-        <v>324.1192016601562</v>
+        <v>293.2347412109375</v>
       </c>
       <c r="V2" t="n">
-        <v>323.3601379394531</v>
+        <v>294.5502319335938</v>
       </c>
       <c r="W2" t="n">
-        <v>322.810791015625</v>
+        <v>295.6067504882812</v>
       </c>
       <c r="X2" t="n">
-        <v>322.1666870117188</v>
+        <v>296.4284973144531</v>
       </c>
       <c r="Y2" t="n">
-        <v>321.2002563476562</v>
+        <v>297.2630004882812</v>
       </c>
       <c r="Z2" t="n">
-        <v>320.19287109375</v>
+        <v>298.5359802246094</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.4595642089844</v>
+        <v>300.3774719238281</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.7690124511719</v>
+        <v>303.1938781738281</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.2601623535156</v>
+        <v>306.6394348144531</v>
       </c>
       <c r="AD2" t="n">
-        <v>317.879638671875</v>
+        <v>309.9039306640625</v>
       </c>
       <c r="AE2" t="n">
-        <v>317.0766296386719</v>
+        <v>311.8015441894531</v>
       </c>
       <c r="AF2" t="n">
-        <v>316.4949340820312</v>
+        <v>312.8010559082031</v>
       </c>
       <c r="AG2" t="n">
-        <v>316.1237487792969</v>
+        <v>313.3525390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>315.8630981445312</v>
+        <v>313.4801025390625</v>
       </c>
       <c r="AI2" t="n">
-        <v>315.706787109375</v>
+        <v>313.3510131835938</v>
       </c>
       <c r="AJ2" t="n">
-        <v>315.6340026855469</v>
+        <v>313.1788635253906</v>
       </c>
       <c r="AK2" t="n">
-        <v>315.6789245605469</v>
+        <v>312.664306640625</v>
       </c>
       <c r="AL2" t="n">
-        <v>315.7608337402344</v>
+        <v>312.202880859375</v>
       </c>
       <c r="AM2" t="n">
-        <v>315.8339233398438</v>
+        <v>311.7417907714844</v>
       </c>
       <c r="AN2" t="n">
-        <v>316.0563354492188</v>
+        <v>311.3035888671875</v>
       </c>
       <c r="AO2" t="n">
-        <v>316.3352661132812</v>
+        <v>310.9820556640625</v>
       </c>
       <c r="AP2" t="n">
-        <v>316.7602233886719</v>
+        <v>310.6343688964844</v>
       </c>
       <c r="AQ2" t="n">
-        <v>317.8739624023438</v>
+        <v>309.8423767089844</v>
       </c>
       <c r="AR2" t="n">
-        <v>319.7894897460938</v>
+        <v>309.2568664550781</v>
       </c>
       <c r="AS2" t="n">
-        <v>321.7777099609375</v>
+        <v>308.6550598144531</v>
       </c>
       <c r="AT2" t="n">
-        <v>323.2271118164062</v>
+        <v>307.6698608398438</v>
       </c>
       <c r="AU2" t="n">
-        <v>324.0022583007812</v>
+        <v>306.6018371582031</v>
       </c>
       <c r="AV2" t="n">
-        <v>324.3879699707031</v>
+        <v>305.4854431152344</v>
       </c>
       <c r="AW2" t="n">
-        <v>324.64892578125</v>
+        <v>304.7090148925781</v>
       </c>
       <c r="AX2" t="n">
-        <v>324.7615051269531</v>
+        <v>303.9528503417969</v>
       </c>
       <c r="AY2" t="n">
-        <v>324.8150329589844</v>
+        <v>303.3233337402344</v>
       </c>
       <c r="AZ2" t="n">
-        <v>324.8257751464844</v>
+        <v>302.9852294921875</v>
       </c>
       <c r="BA2" t="n">
-        <v>324.8249816894531</v>
+        <v>302.4284973144531</v>
       </c>
       <c r="BB2" t="n">
-        <v>324.8140258789062</v>
+        <v>302.1091918945312</v>
       </c>
       <c r="BC2" t="n">
-        <v>324.7892456054688</v>
+        <v>301.7848205566406</v>
       </c>
       <c r="BD2" t="n">
-        <v>324.7695617675781</v>
+        <v>301.6228942871094</v>
       </c>
       <c r="BE2" t="n">
-        <v>324.7515258789062</v>
+        <v>301.4100036621094</v>
       </c>
       <c r="BF2" t="n">
-        <v>324.7427368164062</v>
+        <v>301.4066772460938</v>
       </c>
       <c r="BG2" t="n">
-        <v>324.7396240234375</v>
+        <v>301.4827880859375</v>
       </c>
       <c r="BH2" t="n">
-        <v>324.7346801757812</v>
+        <v>301.6318969726562</v>
       </c>
       <c r="BI2" t="n">
-        <v>324.731201171875</v>
+        <v>302.6999816894531</v>
       </c>
       <c r="BJ2" t="n">
-        <v>324.7130737304688</v>
+        <v>304.4277038574219</v>
       </c>
       <c r="BK2" t="n">
-        <v>324.67919921875</v>
+        <v>306.5547485351562</v>
       </c>
       <c r="BL2" t="n">
-        <v>324.2096252441406</v>
+        <v>308.5741271972656</v>
       </c>
       <c r="BM2" t="n">
-        <v>323.5546875</v>
+        <v>310.0576477050781</v>
       </c>
       <c r="BN2" t="n">
-        <v>322.9272155761719</v>
+        <v>311.14599609375</v>
       </c>
       <c r="BO2" t="n">
-        <v>322.4185791015625</v>
+        <v>311.780517578125</v>
       </c>
       <c r="BP2" t="n">
-        <v>322.1445922851562</v>
+        <v>312.3956604003906</v>
       </c>
       <c r="BQ2" t="n">
-        <v>321.970947265625</v>
+        <v>313.094970703125</v>
       </c>
       <c r="BR2" t="n">
-        <v>321.9539184570312</v>
+        <v>313.5352783203125</v>
       </c>
       <c r="BS2" t="n">
-        <v>321.9583740234375</v>
+        <v>313.8612365722656</v>
       </c>
       <c r="BT2" t="n">
-        <v>321.964599609375</v>
+        <v>313.86474609375</v>
       </c>
       <c r="BU2" t="n">
-        <v>321.9703979492188</v>
+        <v>313.8242492675781</v>
       </c>
       <c r="BV2" t="n">
-        <v>321.9790954589844</v>
+        <v>313.72216796875</v>
       </c>
       <c r="BW2" t="n">
-        <v>321.989013671875</v>
+        <v>313.6612854003906</v>
       </c>
       <c r="BX2" t="n">
-        <v>321.9991455078125</v>
+        <v>313.416259765625</v>
       </c>
       <c r="BY2" t="n">
-        <v>322.0096435546875</v>
+        <v>313.0582885742188</v>
       </c>
       <c r="BZ2" t="n">
-        <v>322.021484375</v>
+        <v>312.4345092773438</v>
       </c>
       <c r="CA2" t="n">
-        <v>322.0465698242188</v>
+        <v>311.5755615234375</v>
       </c>
       <c r="CB2" t="n">
-        <v>322.0474853515625</v>
+        <v>310.4129943847656</v>
       </c>
       <c r="CC2" t="n">
-        <v>322.0472412109375</v>
+        <v>309.7648620605469</v>
       </c>
       <c r="CD2" t="n">
-        <v>321.9948120117188</v>
+        <v>308.8852844238281</v>
       </c>
       <c r="CE2" t="n">
-        <v>321.9664916992188</v>
+        <v>308.6412353515625</v>
       </c>
       <c r="CF2" t="n">
-        <v>321.9401550292969</v>
+        <v>308.2999572753906</v>
       </c>
       <c r="CG2" t="n">
-        <v>321.908935546875</v>
+        <v>308.153076171875</v>
       </c>
       <c r="CH2" t="n">
-        <v>321.8770141601562</v>
+        <v>307.9495239257812</v>
       </c>
       <c r="CI2" t="n">
-        <v>321.8463134765625</v>
+        <v>307.8771667480469</v>
       </c>
       <c r="CJ2" t="n">
-        <v>321.8129272460938</v>
+        <v>307.8165893554688</v>
       </c>
       <c r="CK2" t="n">
-        <v>321.7822875976562</v>
+        <v>307.6920166015625</v>
       </c>
       <c r="CL2" t="n">
-        <v>321.7693786621094</v>
+        <v>307.612060546875</v>
       </c>
       <c r="CM2" t="n">
-        <v>321.7535705566406</v>
+        <v>307.5239562988281</v>
       </c>
       <c r="CN2" t="n">
-        <v>321.73974609375</v>
+        <v>307.4360046386719</v>
       </c>
       <c r="CO2" t="n">
-        <v>321.72802734375</v>
+        <v>307.3470153808594</v>
       </c>
       <c r="CP2" t="n">
-        <v>321.7101440429688</v>
+        <v>307.1489562988281</v>
       </c>
       <c r="CQ2" t="n">
-        <v>321.6915283203125</v>
+        <v>307.0576477050781</v>
       </c>
       <c r="CR2" t="n">
-        <v>321.666748046875</v>
+        <v>306.9644775390625</v>
       </c>
       <c r="CS2" t="n">
-        <v>321.6427001953125</v>
+        <v>306.8450622558594</v>
       </c>
       <c r="CT2" t="n">
-        <v>321.6194458007812</v>
+        <v>306.8113708496094</v>
       </c>
       <c r="CU2" t="n">
-        <v>321.5792236328125</v>
+        <v>306.7428283691406</v>
       </c>
       <c r="CV2" t="n">
-        <v>321.5431213378906</v>
+        <v>306.7072448730469</v>
       </c>
       <c r="CW2" t="n">
-        <v>321.5012817382812</v>
+        <v>306.635986328125</v>
       </c>
       <c r="CX2" t="n">
-        <v>321.4494323730469</v>
+        <v>306.600341796875</v>
       </c>
       <c r="CY2" t="n">
-        <v>321.4016418457031</v>
+        <v>306.5675354003906</v>
       </c>
       <c r="CZ2" t="n">
-        <v>321.3555297851562</v>
+        <v>306.5063781738281</v>
       </c>
       <c r="DA2" t="n">
-        <v>321.3089294433594</v>
+        <v>306.4925537109375</v>
       </c>
       <c r="DB2" t="n">
-        <v>321.2191162109375</v>
+        <v>306.4816284179688</v>
       </c>
       <c r="DC2" t="n">
-        <v>321.1756896972656</v>
+        <v>306.4762573242188</v>
       </c>
       <c r="DD2" t="n">
-        <v>321.1339721679688</v>
+        <v>306.4742736816406</v>
       </c>
       <c r="DE2" t="n">
-        <v>321.0885925292969</v>
+        <v>306.4746398925781</v>
       </c>
       <c r="DF2" t="n">
-        <v>321.0449829101562</v>
+        <v>306.4765625</v>
       </c>
       <c r="DG2" t="n">
-        <v>320.9984741210938</v>
+        <v>306.4844970703125</v>
       </c>
       <c r="DH2" t="n">
-        <v>320.88037109375</v>
+        <v>306.4926147460938</v>
       </c>
       <c r="DI2" t="n">
-        <v>320.7602233886719</v>
+        <v>306.5088500976562</v>
       </c>
       <c r="DJ2" t="n">
-        <v>320.64453125</v>
+        <v>306.5163269042969</v>
       </c>
       <c r="DK2" t="n">
-        <v>320.4512939453125</v>
+        <v>306.5303955078125</v>
       </c>
       <c r="DL2" t="n">
-        <v>320.2740478515625</v>
+        <v>306.5341491699219</v>
       </c>
       <c r="DM2" t="n">
-        <v>320.1552734375</v>
+        <v>306.5370483398438</v>
       </c>
       <c r="DN2" t="n">
-        <v>319.8995666503906</v>
+        <v>306.53662109375</v>
       </c>
       <c r="DO2" t="n">
-        <v>319.7799987792969</v>
+        <v>306.5362854003906</v>
       </c>
       <c r="DP2" t="n">
-        <v>319.6372375488281</v>
+        <v>306.5359497070312</v>
       </c>
       <c r="DQ2" t="n">
-        <v>319.4846496582031</v>
+        <v>306.5356140136719</v>
       </c>
       <c r="DR2" t="n">
-        <v>319.3317260742188</v>
+        <v>306.5355529785156</v>
       </c>
       <c r="DS2" t="n">
-        <v>319.1636657714844</v>
+        <v>306.5355834960938</v>
       </c>
       <c r="DT2" t="n">
-        <v>318.8359985351562</v>
+        <v>306.53564453125</v>
       </c>
       <c r="DU2" t="n">
-        <v>318.6880187988281</v>
+        <v>306.5357360839844</v>
       </c>
       <c r="DV2" t="n">
-        <v>318.34619140625</v>
+        <v>306.5358581542969</v>
       </c>
       <c r="DW2" t="n">
-        <v>318.1716918945312</v>
+        <v>306.5360107421875</v>
       </c>
       <c r="DX2" t="n">
-        <v>317.9779968261719</v>
+        <v>306.5360717773438</v>
       </c>
       <c r="DY2" t="n">
-        <v>317.7056579589844</v>
+        <v>306.5361633300781</v>
       </c>
       <c r="DZ2" t="n">
-        <v>317.5502319335938</v>
+        <v>306.5363159179688</v>
       </c>
       <c r="EA2" t="n">
-        <v>317.2594299316406</v>
+        <v>306.5364685058594</v>
       </c>
       <c r="EB2" t="n">
-        <v>317.222900390625</v>
+        <v>306.5547790527344</v>
       </c>
       <c r="EC2" t="n">
-        <v>317.1909790039062</v>
+        <v>306.5633544921875</v>
       </c>
       <c r="ED2" t="n">
-        <v>317.2802124023438</v>
+        <v>306.5667724609375</v>
       </c>
       <c r="EE2" t="n">
-        <v>317.3011169433594</v>
+        <v>306.5793151855469</v>
       </c>
       <c r="EF2" t="n">
-        <v>317.3348083496094</v>
+        <v>306.5853576660156</v>
       </c>
       <c r="EG2" t="n">
-        <v>317.335693359375</v>
+        <v>306.595947265625</v>
       </c>
       <c r="EH2" t="n">
-        <v>317.3291931152344</v>
+        <v>306.6067504882812</v>
       </c>
       <c r="EI2" t="n">
-        <v>317.3188781738281</v>
+        <v>306.6145935058594</v>
       </c>
       <c r="EJ2" t="n">
-        <v>317.3189697265625</v>
+        <v>306.5843811035156</v>
       </c>
       <c r="EK2" t="n">
-        <v>317.3190612792969</v>
+        <v>306.5666198730469</v>
       </c>
       <c r="EL2" t="n">
-        <v>317.3178100585938</v>
+        <v>306.5494689941406</v>
       </c>
       <c r="EM2" t="n">
-        <v>317.3165283203125</v>
+        <v>306.5370788574219</v>
       </c>
       <c r="EN2" t="n">
-        <v>317.3158874511719</v>
+        <v>306.5340270996094</v>
       </c>
       <c r="EO2" t="n">
-        <v>317.3168640136719</v>
+        <v>306.5348205566406</v>
       </c>
       <c r="EP2" t="n">
-        <v>317.3190612792969</v>
+        <v>306.5361022949219</v>
       </c>
       <c r="EQ2" t="n">
-        <v>317.3212890625</v>
+        <v>306.536865234375</v>
       </c>
       <c r="ER2" t="n">
-        <v>317.3207702636719</v>
+        <v>306.5380249023438</v>
       </c>
       <c r="ES2" t="n">
-        <v>317.3201599121094</v>
+        <v>306.5384521484375</v>
       </c>
       <c r="ET2" t="n">
-        <v>317.3185119628906</v>
+        <v>306.5382385253906</v>
       </c>
       <c r="EU2" t="n">
-        <v>317.3175964355469</v>
+        <v>306.5379333496094</v>
       </c>
       <c r="EV2" t="n">
-        <v>317.3167114257812</v>
+        <v>306.5505676269531</v>
       </c>
       <c r="EW2" t="n">
-        <v>317.3149108886719</v>
+        <v>306.5547790527344</v>
       </c>
       <c r="EX2" t="n">
-        <v>317.3134765625</v>
+        <v>306.5623779296875</v>
       </c>
       <c r="EY2" t="n">
-        <v>317.314697265625</v>
+        <v>306.5693359375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>317.3165283203125</v>
+        <v>306.5756225585938</v>
       </c>
       <c r="FA2" t="n">
-        <v>317.31640625</v>
+        <v>306.5933837890625</v>
       </c>
       <c r="FB2" t="n">
-        <v>317.3157348632812</v>
+        <v>306.6061401367188</v>
       </c>
       <c r="FC2" t="n">
-        <v>317.314453125</v>
+        <v>306.6139526367188</v>
       </c>
       <c r="FD2" t="n">
-        <v>317.3147277832031</v>
+        <v>306.6175537109375</v>
       </c>
       <c r="FE2" t="n">
-        <v>317.3152465820312</v>
+        <v>306.6249084472656</v>
       </c>
       <c r="FF2" t="n">
-        <v>317.3150634765625</v>
+        <v>306.630615234375</v>
       </c>
       <c r="FG2" t="n">
-        <v>317.3143310546875</v>
+        <v>306.6284790039062</v>
       </c>
       <c r="FH2" t="n">
-        <v>317.3137512207031</v>
+        <v>306.6296081542969</v>
       </c>
       <c r="FI2" t="n">
-        <v>317.3123779296875</v>
+        <v>306.6344604492188</v>
       </c>
       <c r="FJ2" t="n">
-        <v>317.3089599609375</v>
+        <v>306.6392822265625</v>
       </c>
       <c r="FK2" t="n">
-        <v>317.303955078125</v>
+        <v>306.6349792480469</v>
       </c>
       <c r="FL2" t="n">
-        <v>317.2899169921875</v>
+        <v>306.6302490234375</v>
       </c>
       <c r="FM2" t="n">
-        <v>317.2813415527344</v>
+        <v>306.6272583007812</v>
       </c>
       <c r="FN2" t="n">
-        <v>317.2655944824219</v>
+        <v>306.6261291503906</v>
       </c>
       <c r="FO2" t="n">
-        <v>317.2583923339844</v>
+        <v>306.6260986328125</v>
       </c>
       <c r="FP2" t="n">
-        <v>317.2435607910156</v>
+        <v>306.6267395019531</v>
       </c>
       <c r="FQ2" t="n">
-        <v>317.23583984375</v>
+        <v>306.6280517578125</v>
       </c>
       <c r="FR2" t="n">
-        <v>317.2212219238281</v>
+        <v>306.6309814453125</v>
       </c>
       <c r="FS2" t="n">
-        <v>317.2144165039062</v>
+        <v>306.6350708007812</v>
       </c>
       <c r="FT2" t="n">
-        <v>317.2002563476562</v>
+        <v>306.6415710449219</v>
       </c>
       <c r="FU2" t="n">
-        <v>317.1877746582031</v>
+        <v>306.7239074707031</v>
       </c>
       <c r="FV2" t="n">
-        <v>317.1781616210938</v>
+        <v>306.7467651367188</v>
       </c>
       <c r="FW2" t="n">
-        <v>317.1583862304688</v>
+        <v>306.7695922851562</v>
       </c>
       <c r="FX2" t="n">
-        <v>317.147705078125</v>
+        <v>306.7956237792969</v>
       </c>
       <c r="FY2" t="n">
-        <v>317.057861328125</v>
+        <v>306.8274841308594</v>
       </c>
       <c r="FZ2" t="n">
-        <v>316.99267578125</v>
+        <v>306.8347778320312</v>
       </c>
       <c r="GA2" t="n">
-        <v>316.8995361328125</v>
+        <v>306.8370666503906</v>
       </c>
       <c r="GB2" t="n">
-        <v>316.8695373535156</v>
+        <v>306.8376770019531</v>
       </c>
       <c r="GC2" t="n">
-        <v>316.8227233886719</v>
+        <v>306.8380126953125</v>
       </c>
       <c r="GD2" t="n">
-        <v>316.8267517089844</v>
+        <v>306.8384399414062</v>
       </c>
       <c r="GE2" t="n">
-        <v>316.79296875</v>
+        <v>306.8386535644531</v>
       </c>
       <c r="GF2" t="n">
-        <v>316.6875</v>
+        <v>306.6472473144531</v>
       </c>
       <c r="GG2" t="n">
-        <v>316.4357604980469</v>
+        <v>306.3579711914062</v>
       </c>
       <c r="GH2" t="n">
-        <v>315.8927307128906</v>
+        <v>306.1854248046875</v>
       </c>
       <c r="GI2" t="n">
-        <v>315.4798889160156</v>
+        <v>306.0429382324219</v>
       </c>
       <c r="GJ2" t="n">
-        <v>315.3370971679688</v>
+        <v>305.8988342285156</v>
       </c>
       <c r="GK2" t="n">
-        <v>315.3215026855469</v>
+        <v>305.8759155273438</v>
       </c>
       <c r="GL2" t="n">
-        <v>315.3409118652344</v>
+        <v>305.87255859375</v>
       </c>
       <c r="GM2" t="n">
-        <v>315.3995971679688</v>
+        <v>305.87548828125</v>
       </c>
       <c r="GN2" t="n">
-        <v>315.4214477539062</v>
+        <v>305.8889465332031</v>
       </c>
       <c r="GO2" t="n">
-        <v>315.4380798339844</v>
+        <v>305.9021911621094</v>
       </c>
       <c r="GP2" t="n">
-        <v>315.4416809082031</v>
+        <v>305.9161987304688</v>
       </c>
       <c r="GQ2" t="n">
-        <v>315.4429016113281</v>
+        <v>305.9325256347656</v>
       </c>
       <c r="GR2" t="n">
-        <v>315.4430541992188</v>
+        <v>305.9410095214844</v>
       </c>
       <c r="GS2" t="n">
-        <v>315.4432983398438</v>
+        <v>305.9596862792969</v>
       </c>
       <c r="GT2" t="n">
-        <v>315.4136352539062</v>
+        <v>305.9887390136719</v>
       </c>
       <c r="GU2" t="n">
-        <v>315.3792724609375</v>
+        <v>306.0110168457031</v>
       </c>
       <c r="GV2" t="n">
-        <v>315.3427124023438</v>
+        <v>306.021728515625</v>
       </c>
       <c r="GW2" t="n">
-        <v>315.3108215332031</v>
+        <v>306.1233825683594</v>
       </c>
       <c r="GX2" t="n">
-        <v>315.2792358398438</v>
+        <v>306.3292541503906</v>
       </c>
       <c r="GY2" t="n">
-        <v>315.2509155273438</v>
+        <v>306.538330078125</v>
       </c>
       <c r="GZ2" t="n">
-        <v>315.234130859375</v>
+        <v>306.7695007324219</v>
       </c>
       <c r="HA2" t="n">
-        <v>315.2178039550781</v>
+        <v>306.9943237304688</v>
       </c>
       <c r="HB2" t="n">
-        <v>315.2118835449219</v>
+        <v>307.1900024414062</v>
       </c>
       <c r="HC2" t="n">
-        <v>315.1981506347656</v>
+        <v>307.2129211425781</v>
       </c>
       <c r="HD2" t="n">
-        <v>315.1942138671875</v>
+        <v>307.2159423828125</v>
       </c>
       <c r="HE2" t="n">
-        <v>315.1895751953125</v>
+        <v>307.2165222167969</v>
       </c>
       <c r="HF2" t="n">
-        <v>315.1831665039062</v>
+        <v>307.216552734375</v>
       </c>
       <c r="HG2" t="n">
-        <v>315.1563720703125</v>
+        <v>307.2164306640625</v>
       </c>
       <c r="HH2" t="n">
-        <v>315.1313171386719</v>
+        <v>307.21630859375</v>
       </c>
       <c r="HI2" t="n">
-        <v>315.1268615722656</v>
+        <v>307.2161254882812</v>
       </c>
       <c r="HJ2" t="n">
-        <v>315.1240539550781</v>
+        <v>307.2160034179688</v>
       </c>
       <c r="HK2" t="n">
-        <v>315.1202087402344</v>
+        <v>307.2087707519531</v>
       </c>
       <c r="HL2" t="n">
-        <v>315.1168823242188</v>
+        <v>307.1813659667969</v>
       </c>
       <c r="HM2" t="n">
-        <v>315.1150207519531</v>
+        <v>307.1494445800781</v>
       </c>
       <c r="HN2" t="n">
-        <v>315.1142272949219</v>
+        <v>307.1148071289062</v>
       </c>
       <c r="HO2" t="n">
-        <v>315.1142272949219</v>
+        <v>307.0103149414062</v>
       </c>
       <c r="HP2" t="n">
-        <v>315.1133728027344</v>
+        <v>306.9788818359375</v>
       </c>
       <c r="HQ2" t="n">
-        <v>315.1130065917969</v>
+        <v>306.8899230957031</v>
       </c>
       <c r="HR2" t="n">
-        <v>315.1256713867188</v>
+        <v>306.7657470703125</v>
       </c>
       <c r="HS2" t="n">
-        <v>315.146484375</v>
+        <v>306.6398315429688</v>
       </c>
       <c r="HT2" t="n">
-        <v>315.1763916015625</v>
+        <v>306.5196228027344</v>
       </c>
       <c r="HU2" t="n">
-        <v>315.1953735351562</v>
+        <v>306.4177856445312</v>
       </c>
       <c r="HV2" t="n">
-        <v>315.1997375488281</v>
+        <v>306.369140625</v>
       </c>
       <c r="HW2" t="n">
-        <v>315.2012329101562</v>
+        <v>306.4148559570312</v>
       </c>
       <c r="HX2" t="n">
-        <v>315.1636352539062</v>
+        <v>306.4350280761719</v>
       </c>
       <c r="HY2" t="n">
-        <v>315.0894775390625</v>
+        <v>306.4900512695312</v>
       </c>
       <c r="HZ2" t="n">
-        <v>315.0035705566406</v>
+        <v>306.534912109375</v>
       </c>
       <c r="IA2" t="n">
-        <v>314.7590026855469</v>
+        <v>306.5519714355469</v>
       </c>
       <c r="IB2" t="n">
-        <v>314.6463012695312</v>
+        <v>306.7121887207031</v>
       </c>
       <c r="IC2" t="n">
-        <v>314.4930725097656</v>
+        <v>306.8225708007812</v>
       </c>
       <c r="ID2" t="n">
-        <v>314.4511108398438</v>
+        <v>306.9526062011719</v>
       </c>
       <c r="IE2" t="n">
-        <v>314.4263916015625</v>
+        <v>307.0800170898438</v>
       </c>
       <c r="IF2" t="n">
-        <v>314.4388122558594</v>
+        <v>307.1237182617188</v>
       </c>
       <c r="IG2" t="n">
-        <v>314.4515075683594</v>
+        <v>307.1355285644531</v>
       </c>
       <c r="IH2" t="n">
-        <v>314.4517517089844</v>
+        <v>307.1410217285156</v>
       </c>
       <c r="II2" t="n">
-        <v>314.4508666992188</v>
+        <v>307.1448059082031</v>
       </c>
       <c r="IJ2" t="n">
-        <v>314.4502868652344</v>
+        <v>307.148681640625</v>
       </c>
       <c r="IK2" t="n">
-        <v>314.4499816894531</v>
+        <v>307.0757751464844</v>
       </c>
       <c r="IL2" t="n">
-        <v>314.4498291015625</v>
+        <v>306.9086303710938</v>
       </c>
       <c r="IM2" t="n">
-        <v>314.4389038085938</v>
+        <v>306.6463623046875</v>
       </c>
       <c r="IN2" t="n">
-        <v>314.418212890625</v>
+        <v>306.4121398925781</v>
       </c>
       <c r="IO2" t="n">
-        <v>314.3959045410156</v>
+        <v>306.2568054199219</v>
       </c>
       <c r="IP2" t="n">
-        <v>314.38720703125</v>
+        <v>306.1388549804688</v>
       </c>
       <c r="IQ2" t="n">
-        <v>314.3858337402344</v>
+        <v>306.063232421875</v>
       </c>
       <c r="IR2" t="n">
-        <v>314.3855590820312</v>
+        <v>306.0527038574219</v>
       </c>
       <c r="IS2" t="n">
-        <v>314.3865051269531</v>
+        <v>306.0474243164062</v>
       </c>
       <c r="IT2" t="n">
-        <v>314.3886413574219</v>
+        <v>306.0476379394531</v>
       </c>
       <c r="IU2" t="n">
-        <v>314.390625</v>
+        <v>306.0478210449219</v>
       </c>
       <c r="IV2" t="n">
-        <v>314.6518859863281</v>
+        <v>306.0479431152344</v>
       </c>
       <c r="IW2" t="n">
-        <v>314.8854675292969</v>
+        <v>306.048095703125</v>
       </c>
       <c r="IX2" t="n">
-        <v>315.057373046875</v>
+        <v>306.0480651855469</v>
       </c>
       <c r="IY2" t="n">
-        <v>315.2610778808594</v>
+        <v>306.0480041503906</v>
       </c>
       <c r="IZ2" t="n">
-        <v>315.286865234375</v>
+        <v>306.0478820800781</v>
       </c>
       <c r="JA2" t="n">
-        <v>315.2889404296875</v>
+        <v>306.0477600097656</v>
       </c>
       <c r="JB2" t="n">
-        <v>315.2837829589844</v>
+        <v>306.0477294921875</v>
       </c>
       <c r="JC2" t="n">
-        <v>315.2772216796875</v>
+        <v>306.0476684570312</v>
       </c>
       <c r="JD2" t="n">
-        <v>315.2607421875</v>
+        <v>305.7208862304688</v>
       </c>
       <c r="JE2" t="n">
-        <v>315.2424621582031</v>
+        <v>305.0411071777344</v>
       </c>
       <c r="JF2" t="n">
-        <v>315.2255249023438</v>
+        <v>305.0370178222656</v>
       </c>
       <c r="JG2" t="n">
-        <v>315.19482421875</v>
+        <v>305.0789184570312</v>
       </c>
       <c r="JH2" t="n">
-        <v>315.1081237792969</v>
+        <v>305.1860656738281</v>
       </c>
       <c r="JI2" t="n">
-        <v>314.9563598632812</v>
+        <v>305.2772521972656</v>
       </c>
       <c r="JJ2" t="n">
-        <v>314.7411499023438</v>
+        <v>305.4431457519531</v>
       </c>
       <c r="JK2" t="n">
-        <v>314.4832153320312</v>
+        <v>305.6255187988281</v>
       </c>
       <c r="JL2" t="n">
-        <v>314.2171325683594</v>
+        <v>305.7345886230469</v>
       </c>
       <c r="JM2" t="n">
-        <v>313.95751953125</v>
+        <v>305.9067993164062</v>
       </c>
       <c r="JN2" t="n">
-        <v>313.7017211914062</v>
+        <v>306.0122680664062</v>
       </c>
       <c r="JO2" t="n">
-        <v>313.4947204589844</v>
+        <v>306.0841674804688</v>
       </c>
       <c r="JP2" t="n">
-        <v>313.3221130371094</v>
+        <v>306.1890258789062</v>
       </c>
       <c r="JQ2" t="n">
-        <v>313.2956848144531</v>
+        <v>306.24658203125</v>
       </c>
       <c r="JR2" t="n">
-        <v>313.3370361328125</v>
+        <v>306.2870788574219</v>
       </c>
       <c r="JS2" t="n">
-        <v>313.3897705078125</v>
+        <v>306.3284606933594</v>
       </c>
       <c r="JT2" t="n">
-        <v>313.4122619628906</v>
+        <v>306.3245849609375</v>
       </c>
       <c r="JU2" t="n">
-        <v>313.4098205566406</v>
+        <v>306.3165283203125</v>
       </c>
       <c r="JV2" t="n">
-        <v>313.4096374511719</v>
+        <v>306.3216857910156</v>
       </c>
       <c r="JW2" t="n">
-        <v>313.406982421875</v>
+        <v>306.32470703125</v>
       </c>
       <c r="JX2" t="n">
-        <v>313.2033996582031</v>
+        <v>306.3280334472656</v>
       </c>
       <c r="JY2" t="n">
-        <v>313.0415954589844</v>
+        <v>306.333740234375</v>
       </c>
       <c r="JZ2" t="n">
-        <v>312.85205078125</v>
+        <v>306.3383483886719</v>
       </c>
       <c r="KA2" t="n">
-        <v>310.9401550292969</v>
+        <v>306.3797912597656</v>
       </c>
       <c r="KB2" t="n">
-        <v>309.2802124023438</v>
+        <v>307.6910705566406</v>
       </c>
       <c r="KC2" t="n">
-        <v>308.7073669433594</v>
+        <v>310.8845520019531</v>
       </c>
       <c r="KD2" t="n">
-        <v>308.1657409667969</v>
+        <v>311.6892395019531</v>
       </c>
       <c r="KE2" t="n">
-        <v>308.0022888183594</v>
+        <v>311.7189025878906</v>
       </c>
       <c r="KF2" t="n">
-        <v>307.4303588867188</v>
+        <v>311.6583557128906</v>
       </c>
       <c r="KG2" t="n">
-        <v>302.4194641113281</v>
+        <v>311.6845703125</v>
       </c>
       <c r="KH2" t="n">
-        <v>301.3634338378906</v>
+        <v>311.8795776367188</v>
       </c>
       <c r="KI2" t="n">
-        <v>301.7070922851562</v>
+        <v>312.057861328125</v>
       </c>
       <c r="KJ2" t="n">
-        <v>304.6484680175781</v>
+        <v>312.0882873535156</v>
       </c>
       <c r="KK2" t="n">
-        <v>305.6912536621094</v>
+        <v>312.0895385742188</v>
       </c>
       <c r="KL2" t="n">
-        <v>306.4868469238281</v>
+        <v>312.0800170898438</v>
       </c>
       <c r="KM2" t="n">
-        <v>307.0387573242188</v>
+        <v>312.0735473632812</v>
       </c>
       <c r="KN2" t="n">
-        <v>308.6947326660156</v>
+        <v>312.0656433105469</v>
       </c>
       <c r="KO2" t="n">
-        <v>315.9474182128906</v>
+        <v>312.7739562988281</v>
       </c>
       <c r="KP2" t="n">
-        <v>318.3971862792969</v>
+        <v>316.3059997558594</v>
       </c>
       <c r="KQ2" t="n">
-        <v>319.0135192871094</v>
+        <v>317.4978332519531</v>
       </c>
       <c r="KR2" t="n">
-        <v>319.1860656738281</v>
+        <v>319.0150756835938</v>
       </c>
       <c r="KS2" t="n">
-        <v>318.8538513183594</v>
+        <v>320.053466796875</v>
       </c>
       <c r="KT2" t="n">
-        <v>318.3082885742188</v>
+        <v>320.3949584960938</v>
       </c>
       <c r="KU2" t="n">
-        <v>317.9295043945312</v>
+        <v>320.0746459960938</v>
       </c>
       <c r="KV2" t="n">
-        <v>317.5633239746094</v>
+        <v>318.462890625</v>
       </c>
       <c r="KW2" t="n">
-        <v>315.099609375</v>
+        <v>312.1875</v>
       </c>
       <c r="KX2" t="n">
-        <v>306.6582946777344</v>
+        <v>308.1375732421875</v>
       </c>
       <c r="KY2" t="n">
-        <v>304.3426208496094</v>
+        <v>307.9375305175781</v>
       </c>
       <c r="KZ2" t="n">
-        <v>303.3865356445312</v>
+        <v>308.4369812011719</v>
       </c>
       <c r="LA2" t="n">
-        <v>302.22900390625</v>
+        <v>305.5664672851562</v>
       </c>
       <c r="LB2" t="n">
-        <v>300.7568054199219</v>
+        <v>309.6124572753906</v>
       </c>
       <c r="LC2" t="n">
-        <v>298.9804382324219</v>
+        <v>312.3225402832031</v>
       </c>
       <c r="LD2" t="n">
-        <v>297.0716552734375</v>
+        <v>316.078369140625</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>318.88818359375</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>319.247314453125</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>315.1914978027344</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>311.6101379394531</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>309.3817749023438</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>306.5524291992188</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>302.3236389160156</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>286.7969665527344</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>283.9489440917969</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>274.2532043457031</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>284.5494689941406</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>298.9478454589844</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>312.2690124511719</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>335.15283203125</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>349.3336181640625</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>349.4728088378906</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>351.1810913085938</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>352.5443115234375</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>355.7156372070312</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>362.1692504882812</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>373.2621459960938</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>387.9269409179688</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>391.8499145507812</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>385.5748291015625</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>381.7025146484375</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>396.100830078125</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>407.3822631835938</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>410.5659790039062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>396.5838012695312</v>
+        <v>400.1195068359375</v>
       </c>
       <c r="B3" t="n">
-        <v>398.5357666015625</v>
+        <v>394.7283630371094</v>
       </c>
       <c r="C3" t="n">
-        <v>399.7190246582031</v>
+        <v>386.6217041015625</v>
       </c>
       <c r="D3" t="n">
-        <v>396.9615173339844</v>
+        <v>378.98291015625</v>
       </c>
       <c r="E3" t="n">
-        <v>388.626220703125</v>
+        <v>371.7817687988281</v>
       </c>
       <c r="F3" t="n">
-        <v>381.4342346191406</v>
+        <v>366.4489440917969</v>
       </c>
       <c r="G3" t="n">
-        <v>376.770751953125</v>
+        <v>362.57470703125</v>
       </c>
       <c r="H3" t="n">
-        <v>374.1737670898438</v>
+        <v>360.228759765625</v>
       </c>
       <c r="I3" t="n">
-        <v>373.8737487792969</v>
+        <v>357.3432006835938</v>
       </c>
       <c r="J3" t="n">
-        <v>373.1579284667969</v>
+        <v>354.6429748535156</v>
       </c>
       <c r="K3" t="n">
-        <v>372.7583312988281</v>
+        <v>352.2549133300781</v>
       </c>
       <c r="L3" t="n">
-        <v>370.483154296875</v>
+        <v>350.0335083007812</v>
       </c>
       <c r="M3" t="n">
-        <v>368.9098815917969</v>
+        <v>347.1000671386719</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5768737792969</v>
+        <v>340.910888671875</v>
       </c>
       <c r="O3" t="n">
-        <v>364.29638671875</v>
+        <v>336.1777648925781</v>
       </c>
       <c r="P3" t="n">
-        <v>361.9763793945312</v>
+        <v>332.4618225097656</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.7969055175781</v>
+        <v>329.8627014160156</v>
       </c>
       <c r="R3" t="n">
-        <v>354.4208679199219</v>
+        <v>328.6336364746094</v>
       </c>
       <c r="S3" t="n">
-        <v>350.964111328125</v>
+        <v>327.3599243164062</v>
       </c>
       <c r="T3" t="n">
-        <v>348.3758239746094</v>
+        <v>326.6310119628906</v>
       </c>
       <c r="U3" t="n">
-        <v>346.3809509277344</v>
+        <v>326.2284545898438</v>
       </c>
       <c r="V3" t="n">
-        <v>345.4761352539062</v>
+        <v>326.05908203125</v>
       </c>
       <c r="W3" t="n">
-        <v>347.1915588378906</v>
+        <v>325.0770568847656</v>
       </c>
       <c r="X3" t="n">
-        <v>349.1088256835938</v>
+        <v>324.1892395019531</v>
       </c>
       <c r="Y3" t="n">
-        <v>350.3404541015625</v>
+        <v>323.1663818359375</v>
       </c>
       <c r="Z3" t="n">
-        <v>352.3106689453125</v>
+        <v>321.9243469238281</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.8606567382812</v>
+        <v>320.3876953125</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.2224731445312</v>
+        <v>318.8287353515625</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.1571350097656</v>
+        <v>316.8545227050781</v>
       </c>
       <c r="AD3" t="n">
-        <v>357.0710754394531</v>
+        <v>314.912109375</v>
       </c>
       <c r="AE3" t="n">
-        <v>356.1602478027344</v>
+        <v>313.0263366699219</v>
       </c>
       <c r="AF3" t="n">
-        <v>355.4740905761719</v>
+        <v>310.1973266601562</v>
       </c>
       <c r="AG3" t="n">
-        <v>354.7900695800781</v>
+        <v>307.7068481445312</v>
       </c>
       <c r="AH3" t="n">
-        <v>354.3646850585938</v>
+        <v>305.2682800292969</v>
       </c>
       <c r="AI3" t="n">
-        <v>353.7448425292969</v>
+        <v>304.3999633789062</v>
       </c>
       <c r="AJ3" t="n">
-        <v>352.8164978027344</v>
+        <v>304.3294372558594</v>
       </c>
       <c r="AK3" t="n">
-        <v>352.0845642089844</v>
+        <v>303.6552429199219</v>
       </c>
       <c r="AL3" t="n">
-        <v>351.5560302734375</v>
+        <v>302.552978515625</v>
       </c>
       <c r="AM3" t="n">
-        <v>351.1053771972656</v>
+        <v>301.3299865722656</v>
       </c>
       <c r="AN3" t="n">
-        <v>350.8081359863281</v>
+        <v>299.5069274902344</v>
       </c>
       <c r="AO3" t="n">
-        <v>350.8497924804688</v>
+        <v>298.8046264648438</v>
       </c>
       <c r="AP3" t="n">
-        <v>350.2640380859375</v>
+        <v>298.7930908203125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>349.7821044921875</v>
+        <v>298.5244445800781</v>
       </c>
       <c r="AR3" t="n">
-        <v>349.3713684082031</v>
+        <v>298.0992736816406</v>
       </c>
       <c r="AS3" t="n">
-        <v>349.0236206054688</v>
+        <v>297.8283996582031</v>
       </c>
       <c r="AT3" t="n">
-        <v>348.6786499023438</v>
+        <v>296.567626953125</v>
       </c>
       <c r="AU3" t="n">
-        <v>348.525634765625</v>
+        <v>295.706298828125</v>
       </c>
       <c r="AV3" t="n">
-        <v>348.7851257324219</v>
+        <v>295.5579223632812</v>
       </c>
       <c r="AW3" t="n">
-        <v>349.4215698242188</v>
+        <v>295.6592102050781</v>
       </c>
       <c r="AX3" t="n">
-        <v>351.0479125976562</v>
+        <v>295.5130615234375</v>
       </c>
       <c r="AY3" t="n">
-        <v>352.0946350097656</v>
+        <v>295.1463317871094</v>
       </c>
       <c r="AZ3" t="n">
-        <v>352.8947448730469</v>
+        <v>294.2254638671875</v>
       </c>
       <c r="BA3" t="n">
-        <v>353.4338073730469</v>
+        <v>293.0626525878906</v>
       </c>
       <c r="BB3" t="n">
-        <v>353.8643798828125</v>
+        <v>292.1764221191406</v>
       </c>
       <c r="BC3" t="n">
-        <v>354.09326171875</v>
+        <v>291.1721496582031</v>
       </c>
       <c r="BD3" t="n">
-        <v>354.2064208984375</v>
+        <v>290.5092468261719</v>
       </c>
       <c r="BE3" t="n">
-        <v>354.2938842773438</v>
+        <v>290.7139282226562</v>
       </c>
       <c r="BF3" t="n">
-        <v>354.2694396972656</v>
+        <v>291.0882263183594</v>
       </c>
       <c r="BG3" t="n">
-        <v>354.1427307128906</v>
+        <v>291.0883483886719</v>
       </c>
       <c r="BH3" t="n">
-        <v>354.0597534179688</v>
+        <v>291.0475158691406</v>
       </c>
       <c r="BI3" t="n">
-        <v>353.9959106445312</v>
+        <v>291.7667236328125</v>
       </c>
       <c r="BJ3" t="n">
-        <v>353.90087890625</v>
+        <v>292.3331909179688</v>
       </c>
       <c r="BK3" t="n">
-        <v>353.8100280761719</v>
+        <v>292.8624267578125</v>
       </c>
       <c r="BL3" t="n">
-        <v>353.851318359375</v>
+        <v>293.2899475097656</v>
       </c>
       <c r="BM3" t="n">
-        <v>353.9377746582031</v>
+        <v>293.6319274902344</v>
       </c>
       <c r="BN3" t="n">
-        <v>353.9935913085938</v>
+        <v>293.8970031738281</v>
       </c>
       <c r="BO3" t="n">
-        <v>354.0289306640625</v>
+        <v>294.0881042480469</v>
       </c>
       <c r="BP3" t="n">
-        <v>354.029541015625</v>
+        <v>294.2786254882812</v>
       </c>
       <c r="BQ3" t="n">
-        <v>354.0507507324219</v>
+        <v>294.4013061523438</v>
       </c>
       <c r="BR3" t="n">
-        <v>354.0447998046875</v>
+        <v>294.3709411621094</v>
       </c>
       <c r="BS3" t="n">
-        <v>354.0247497558594</v>
+        <v>294.2007141113281</v>
       </c>
       <c r="BT3" t="n">
-        <v>353.9961853027344</v>
+        <v>293.9810180664062</v>
       </c>
       <c r="BU3" t="n">
-        <v>353.9728698730469</v>
+        <v>293.8275756835938</v>
       </c>
       <c r="BV3" t="n">
-        <v>353.9509887695312</v>
+        <v>293.7384033203125</v>
       </c>
       <c r="BW3" t="n">
-        <v>353.9285278320312</v>
+        <v>294.3665161132812</v>
       </c>
       <c r="BX3" t="n">
-        <v>353.9124145507812</v>
+        <v>295.4547729492188</v>
       </c>
       <c r="BY3" t="n">
-        <v>353.9136047363281</v>
+        <v>295.7739562988281</v>
       </c>
       <c r="BZ3" t="n">
-        <v>353.9351501464844</v>
+        <v>295.9005737304688</v>
       </c>
       <c r="CA3" t="n">
-        <v>354.0677795410156</v>
+        <v>295.7107543945312</v>
       </c>
       <c r="CB3" t="n">
-        <v>354.18359375</v>
+        <v>295.5801391601562</v>
       </c>
       <c r="CC3" t="n">
-        <v>354.2933654785156</v>
+        <v>295.4563903808594</v>
       </c>
       <c r="CD3" t="n">
-        <v>354.3852233886719</v>
+        <v>295.3614196777344</v>
       </c>
       <c r="CE3" t="n">
-        <v>354.495361328125</v>
+        <v>295.2217102050781</v>
       </c>
       <c r="CF3" t="n">
-        <v>354.5950927734375</v>
+        <v>295.01220703125</v>
       </c>
       <c r="CG3" t="n">
-        <v>354.6797180175781</v>
+        <v>294.8569641113281</v>
       </c>
       <c r="CH3" t="n">
-        <v>354.740966796875</v>
+        <v>294.6088256835938</v>
       </c>
       <c r="CI3" t="n">
-        <v>354.8132934570312</v>
+        <v>294.5137939453125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>354.8740234375</v>
+        <v>294.4467468261719</v>
       </c>
       <c r="CK3" t="n">
-        <v>354.8795776367188</v>
+        <v>294.3740234375</v>
       </c>
       <c r="CL3" t="n">
-        <v>354.8625793457031</v>
+        <v>294.3592224121094</v>
       </c>
       <c r="CM3" t="n">
-        <v>354.8318786621094</v>
+        <v>294.3573303222656</v>
       </c>
       <c r="CN3" t="n">
-        <v>354.8278503417969</v>
+        <v>294.3648986816406</v>
       </c>
       <c r="CO3" t="n">
-        <v>354.8313293457031</v>
+        <v>294.37841796875</v>
       </c>
       <c r="CP3" t="n">
-        <v>354.8265075683594</v>
+        <v>294.4085388183594</v>
       </c>
       <c r="CQ3" t="n">
-        <v>354.826904296875</v>
+        <v>294.4220275878906</v>
       </c>
       <c r="CR3" t="n">
-        <v>354.811767578125</v>
+        <v>294.4723205566406</v>
       </c>
       <c r="CS3" t="n">
-        <v>354.6432189941406</v>
+        <v>295.7736511230469</v>
       </c>
       <c r="CT3" t="n">
-        <v>354.4747009277344</v>
+        <v>295.7061462402344</v>
       </c>
       <c r="CU3" t="n">
-        <v>353.3207092285156</v>
+        <v>295.5513916015625</v>
       </c>
       <c r="CV3" t="n">
-        <v>353.1679992675781</v>
+        <v>295.4787902832031</v>
       </c>
       <c r="CW3" t="n">
-        <v>352.8943481445312</v>
+        <v>295.3688354492188</v>
       </c>
       <c r="CX3" t="n">
-        <v>351.8526000976562</v>
+        <v>295.3293151855469</v>
       </c>
       <c r="CY3" t="n">
-        <v>351.1317749023438</v>
+        <v>295.2951354980469</v>
       </c>
       <c r="CZ3" t="n">
-        <v>350.7548522949219</v>
+        <v>295.2387390136719</v>
       </c>
       <c r="DA3" t="n">
-        <v>350.5899963378906</v>
+        <v>295.2159729003906</v>
       </c>
       <c r="DB3" t="n">
-        <v>350.4380798339844</v>
+        <v>295.1810913085938</v>
       </c>
       <c r="DC3" t="n">
-        <v>350.4414672851562</v>
+        <v>295.1685791015625</v>
       </c>
       <c r="DD3" t="n">
-        <v>350.5116271972656</v>
+        <v>295.1446533203125</v>
       </c>
       <c r="DE3" t="n">
-        <v>350.6339111328125</v>
+        <v>295.1275939941406</v>
       </c>
       <c r="DF3" t="n">
-        <v>350.7470703125</v>
+        <v>295.1105346679688</v>
       </c>
       <c r="DG3" t="n">
-        <v>350.8634033203125</v>
+        <v>295.0716857910156</v>
       </c>
       <c r="DH3" t="n">
-        <v>350.970947265625</v>
+        <v>295.0351257324219</v>
       </c>
       <c r="DI3" t="n">
-        <v>351.0264282226562</v>
+        <v>294.9640197753906</v>
       </c>
       <c r="DJ3" t="n">
-        <v>351.0770874023438</v>
+        <v>294.9322814941406</v>
       </c>
       <c r="DK3" t="n">
-        <v>352.2617492675781</v>
+        <v>294.8583984375</v>
       </c>
       <c r="DL3" t="n">
-        <v>354.5183715820312</v>
+        <v>294.8405456542969</v>
       </c>
       <c r="DM3" t="n">
-        <v>355.3576965332031</v>
+        <v>294.8296203613281</v>
       </c>
       <c r="DN3" t="n">
-        <v>356.5515441894531</v>
+        <v>294.830810546875</v>
       </c>
       <c r="DO3" t="n">
-        <v>357.0175476074219</v>
+        <v>294.8322448730469</v>
       </c>
       <c r="DP3" t="n">
-        <v>357.2330017089844</v>
+        <v>294.8334350585938</v>
       </c>
       <c r="DQ3" t="n">
-        <v>357.2589721679688</v>
+        <v>294.8317260742188</v>
       </c>
       <c r="DR3" t="n">
-        <v>357.1183471679688</v>
+        <v>294.8276672363281</v>
       </c>
       <c r="DS3" t="n">
-        <v>357.0785217285156</v>
+        <v>294.8177795410156</v>
       </c>
       <c r="DT3" t="n">
-        <v>357.1843872070312</v>
+        <v>294.8141784667969</v>
       </c>
       <c r="DU3" t="n">
-        <v>357.3212890625</v>
+        <v>294.8111267089844</v>
       </c>
       <c r="DV3" t="n">
-        <v>357.4823913574219</v>
+        <v>294.80615234375</v>
       </c>
       <c r="DW3" t="n">
-        <v>357.5443420410156</v>
+        <v>294.8023071289062</v>
       </c>
       <c r="DX3" t="n">
-        <v>357.6207275390625</v>
+        <v>294.8006591796875</v>
       </c>
       <c r="DY3" t="n">
-        <v>357.6668090820312</v>
+        <v>294.7990112304688</v>
       </c>
       <c r="DZ3" t="n">
-        <v>357.6805419921875</v>
+        <v>294.7973327636719</v>
       </c>
       <c r="EA3" t="n">
-        <v>357.6949462890625</v>
+        <v>294.7999877929688</v>
       </c>
       <c r="EB3" t="n">
-        <v>357.6879577636719</v>
+        <v>294.8937683105469</v>
       </c>
       <c r="EC3" t="n">
-        <v>357.6793212890625</v>
+        <v>294.9442443847656</v>
       </c>
       <c r="ED3" t="n">
-        <v>357.6671752929688</v>
+        <v>294.9634094238281</v>
       </c>
       <c r="EE3" t="n">
-        <v>357.6773376464844</v>
+        <v>294.9183044433594</v>
       </c>
       <c r="EF3" t="n">
-        <v>357.7483215332031</v>
+        <v>294.8455505371094</v>
       </c>
       <c r="EG3" t="n">
-        <v>357.8178405761719</v>
+        <v>294.6410217285156</v>
       </c>
       <c r="EH3" t="n">
-        <v>357.886962890625</v>
+        <v>296.2067565917969</v>
       </c>
       <c r="EI3" t="n">
-        <v>358.0230712890625</v>
+        <v>297.2083435058594</v>
       </c>
       <c r="EJ3" t="n">
-        <v>358.0487670898438</v>
+        <v>297.8540344238281</v>
       </c>
       <c r="EK3" t="n">
-        <v>358.0582275390625</v>
+        <v>298.0834655761719</v>
       </c>
       <c r="EL3" t="n">
-        <v>358.0575561523438</v>
+        <v>297.4713134765625</v>
       </c>
       <c r="EM3" t="n">
-        <v>358.0296936035156</v>
+        <v>296.3031311035156</v>
       </c>
       <c r="EN3" t="n">
-        <v>358.0092163085938</v>
+        <v>295.8796691894531</v>
       </c>
       <c r="EO3" t="n">
-        <v>356.6014099121094</v>
+        <v>295.2758178710938</v>
       </c>
       <c r="EP3" t="n">
-        <v>355.4717712402344</v>
+        <v>294.9017028808594</v>
       </c>
       <c r="EQ3" t="n">
-        <v>353.9163208007812</v>
+        <v>294.7737426757812</v>
       </c>
       <c r="ER3" t="n">
-        <v>353.0358276367188</v>
+        <v>294.5942687988281</v>
       </c>
       <c r="ES3" t="n">
-        <v>352.766357421875</v>
+        <v>294.531982421875</v>
       </c>
       <c r="ET3" t="n">
-        <v>352.4146423339844</v>
+        <v>294.4378967285156</v>
       </c>
       <c r="EU3" t="n">
-        <v>352.3078918457031</v>
+        <v>294.3413696289062</v>
       </c>
       <c r="EV3" t="n">
-        <v>352.2289733886719</v>
+        <v>296.0736083984375</v>
       </c>
       <c r="EW3" t="n">
-        <v>352.1281433105469</v>
+        <v>296.6950378417969</v>
       </c>
       <c r="EX3" t="n">
-        <v>352.0798645019531</v>
+        <v>297.5791931152344</v>
       </c>
       <c r="EY3" t="n">
-        <v>352.1064453125</v>
+        <v>298.1531066894531</v>
       </c>
       <c r="EZ3" t="n">
-        <v>352.2687072753906</v>
+        <v>298.5335693359375</v>
       </c>
       <c r="FA3" t="n">
-        <v>354.4040222167969</v>
+        <v>297.0215454101562</v>
       </c>
       <c r="FB3" t="n">
-        <v>354.957275390625</v>
+        <v>296.0596923828125</v>
       </c>
       <c r="FC3" t="n">
-        <v>355.7090148925781</v>
+        <v>295.445068359375</v>
       </c>
       <c r="FD3" t="n">
-        <v>356.1504211425781</v>
+        <v>295.2261352539062</v>
       </c>
       <c r="FE3" t="n">
-        <v>356.2984619140625</v>
+        <v>294.9111022949219</v>
       </c>
       <c r="FF3" t="n">
-        <v>356.4154357910156</v>
+        <v>294.7075805664062</v>
       </c>
       <c r="FG3" t="n">
-        <v>356.6945190429688</v>
+        <v>295.6078491210938</v>
       </c>
       <c r="FH3" t="n">
-        <v>356.8175354003906</v>
+        <v>295.9587707519531</v>
       </c>
       <c r="FI3" t="n">
-        <v>356.9882202148438</v>
+        <v>295.4304504394531</v>
       </c>
       <c r="FJ3" t="n">
-        <v>357.0846557617188</v>
+        <v>295.0875244140625</v>
       </c>
       <c r="FK3" t="n">
-        <v>357.1156921386719</v>
+        <v>296.6177978515625</v>
       </c>
       <c r="FL3" t="n">
-        <v>357.171142578125</v>
+        <v>297.814697265625</v>
       </c>
       <c r="FM3" t="n">
-        <v>357.1817626953125</v>
+        <v>298.6279602050781</v>
       </c>
       <c r="FN3" t="n">
-        <v>357.2179565429688</v>
+        <v>299.06494140625</v>
       </c>
       <c r="FO3" t="n">
-        <v>357.2383728027344</v>
+        <v>299.3167114257812</v>
       </c>
       <c r="FP3" t="n">
-        <v>357.26708984375</v>
+        <v>299.4810485839844</v>
       </c>
       <c r="FQ3" t="n">
-        <v>357.2907409667969</v>
+        <v>299.5942687988281</v>
       </c>
       <c r="FR3" t="n">
-        <v>357.343017578125</v>
+        <v>299.671630859375</v>
       </c>
       <c r="FS3" t="n">
-        <v>357.3643188476562</v>
+        <v>299.7197875976562</v>
       </c>
       <c r="FT3" t="n">
-        <v>357.4020080566406</v>
+        <v>299.7796020507812</v>
       </c>
       <c r="FU3" t="n">
-        <v>357.4259948730469</v>
+        <v>299.8690185546875</v>
       </c>
       <c r="FV3" t="n">
-        <v>357.4287109375</v>
+        <v>299.8956909179688</v>
       </c>
       <c r="FW3" t="n">
-        <v>357.4022827148438</v>
+        <v>299.8975524902344</v>
       </c>
       <c r="FX3" t="n">
-        <v>357.3702392578125</v>
+        <v>299.9149169921875</v>
       </c>
       <c r="FY3" t="n">
-        <v>356.5581970214844</v>
+        <v>299.9580078125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>355.71044921875</v>
+        <v>299.9812622070312</v>
       </c>
       <c r="GA3" t="n">
-        <v>354.4649353027344</v>
+        <v>299.9701843261719</v>
       </c>
       <c r="GB3" t="n">
-        <v>353.9153137207031</v>
+        <v>299.9238586425781</v>
       </c>
       <c r="GC3" t="n">
-        <v>352.77490234375</v>
+        <v>299.8583068847656</v>
       </c>
       <c r="GD3" t="n">
-        <v>353.0828247070312</v>
+        <v>299.8143005371094</v>
       </c>
       <c r="GE3" t="n">
-        <v>353.5342712402344</v>
+        <v>299.7984313964844</v>
       </c>
       <c r="GF3" t="n">
-        <v>352.33251953125</v>
+        <v>299.7633056640625</v>
       </c>
       <c r="GG3" t="n">
-        <v>352.015625</v>
+        <v>299.8085632324219</v>
       </c>
       <c r="GH3" t="n">
-        <v>351.7742919921875</v>
+        <v>299.8392333984375</v>
       </c>
       <c r="GI3" t="n">
-        <v>351.8760070800781</v>
+        <v>298.8804321289062</v>
       </c>
       <c r="GJ3" t="n">
-        <v>352.2244873046875</v>
+        <v>299.2314147949219</v>
       </c>
       <c r="GK3" t="n">
-        <v>352.58984375</v>
+        <v>299.4443359375</v>
       </c>
       <c r="GL3" t="n">
-        <v>353.84326171875</v>
+        <v>299.5880126953125</v>
       </c>
       <c r="GM3" t="n">
-        <v>355.5429077148438</v>
+        <v>299.6476135253906</v>
       </c>
       <c r="GN3" t="n">
-        <v>356.0979614257812</v>
+        <v>299.7662658691406</v>
       </c>
       <c r="GO3" t="n">
-        <v>356.9094543457031</v>
+        <v>299.8086547851562</v>
       </c>
       <c r="GP3" t="n">
-        <v>357.4041442871094</v>
+        <v>299.8370361328125</v>
       </c>
       <c r="GQ3" t="n">
-        <v>357.7092590332031</v>
+        <v>299.8553771972656</v>
       </c>
       <c r="GR3" t="n">
-        <v>357.7856750488281</v>
+        <v>299.8618774414062</v>
       </c>
       <c r="GS3" t="n">
-        <v>357.6455688476562</v>
+        <v>298.1230163574219</v>
       </c>
       <c r="GT3" t="n">
-        <v>357.3374633789062</v>
+        <v>296.6197509765625</v>
       </c>
       <c r="GU3" t="n">
-        <v>356.9813232421875</v>
+        <v>296.041748046875</v>
       </c>
       <c r="GV3" t="n">
-        <v>356.7213134765625</v>
+        <v>295.8207092285156</v>
       </c>
       <c r="GW3" t="n">
-        <v>356.5572814941406</v>
+        <v>295.4719543457031</v>
       </c>
       <c r="GX3" t="n">
-        <v>356.4415588378906</v>
+        <v>295.2420959472656</v>
       </c>
       <c r="GY3" t="n">
-        <v>356.35009765625</v>
+        <v>295.1126708984375</v>
       </c>
       <c r="GZ3" t="n">
-        <v>356.3072204589844</v>
+        <v>295.0376892089844</v>
       </c>
       <c r="HA3" t="n">
-        <v>356.3003540039062</v>
+        <v>294.9906311035156</v>
       </c>
       <c r="HB3" t="n">
-        <v>356.3063659667969</v>
+        <v>294.9488525390625</v>
       </c>
       <c r="HC3" t="n">
-        <v>356.3309936523438</v>
+        <v>294.9337158203125</v>
       </c>
       <c r="HD3" t="n">
-        <v>356.3660888671875</v>
+        <v>294.9246215820312</v>
       </c>
       <c r="HE3" t="n">
-        <v>356.4124145507812</v>
+        <v>294.8980712890625</v>
       </c>
       <c r="HF3" t="n">
-        <v>356.5586547851562</v>
+        <v>294.8602294921875</v>
       </c>
       <c r="HG3" t="n">
-        <v>355.7101440429688</v>
+        <v>294.8396606445312</v>
       </c>
       <c r="HH3" t="n">
-        <v>354.132568359375</v>
+        <v>294.823486328125</v>
       </c>
       <c r="HI3" t="n">
-        <v>353.1105041503906</v>
+        <v>294.8070373535156</v>
       </c>
       <c r="HJ3" t="n">
-        <v>352.4058227539062</v>
+        <v>294.7928466796875</v>
       </c>
       <c r="HK3" t="n">
-        <v>352.0092468261719</v>
+        <v>294.7672424316406</v>
       </c>
       <c r="HL3" t="n">
-        <v>351.9179077148438</v>
+        <v>294.7465209960938</v>
       </c>
       <c r="HM3" t="n">
-        <v>351.9233703613281</v>
+        <v>294.7236633300781</v>
       </c>
       <c r="HN3" t="n">
-        <v>351.9805603027344</v>
+        <v>294.7067565917969</v>
       </c>
       <c r="HO3" t="n">
-        <v>352.044921875</v>
+        <v>294.6864929199219</v>
       </c>
       <c r="HP3" t="n">
-        <v>352.0108337402344</v>
+        <v>294.6829528808594</v>
       </c>
       <c r="HQ3" t="n">
-        <v>351.9454040527344</v>
+        <v>294.6570739746094</v>
       </c>
       <c r="HR3" t="n">
-        <v>353.1894226074219</v>
+        <v>294.63916015625</v>
       </c>
       <c r="HS3" t="n">
-        <v>354.8284606933594</v>
+        <v>294.6454162597656</v>
       </c>
       <c r="HT3" t="n">
-        <v>355.9626159667969</v>
+        <v>294.6654052734375</v>
       </c>
       <c r="HU3" t="n">
-        <v>356.6634521484375</v>
+        <v>295.6759643554688</v>
       </c>
       <c r="HV3" t="n">
-        <v>357.0253601074219</v>
+        <v>295.2825012207031</v>
       </c>
       <c r="HW3" t="n">
-        <v>357.2291564941406</v>
+        <v>295.0706176757812</v>
       </c>
       <c r="HX3" t="n">
-        <v>357.2803955078125</v>
+        <v>295.0254211425781</v>
       </c>
       <c r="HY3" t="n">
-        <v>357.1961669921875</v>
+        <v>294.9736328125</v>
       </c>
       <c r="HZ3" t="n">
-        <v>357.0943908691406</v>
+        <v>294.9568176269531</v>
       </c>
       <c r="IA3" t="n">
-        <v>356.914306640625</v>
+        <v>294.9542846679688</v>
       </c>
       <c r="IB3" t="n">
-        <v>356.8383178710938</v>
+        <v>296.5340270996094</v>
       </c>
       <c r="IC3" t="n">
-        <v>356.7255249023438</v>
+        <v>297.4746398925781</v>
       </c>
       <c r="ID3" t="n">
-        <v>356.67919921875</v>
+        <v>298.0417175292969</v>
       </c>
       <c r="IE3" t="n">
-        <v>356.6580810546875</v>
+        <v>298.4344177246094</v>
       </c>
       <c r="IF3" t="n">
-        <v>356.6448364257812</v>
+        <v>298.4312133789062</v>
       </c>
       <c r="IG3" t="n">
-        <v>356.6170959472656</v>
+        <v>298.4032287597656</v>
       </c>
       <c r="IH3" t="n">
-        <v>356.5881652832031</v>
+        <v>298.3736572265625</v>
       </c>
       <c r="II3" t="n">
-        <v>356.5608215332031</v>
+        <v>298.3614196777344</v>
       </c>
       <c r="IJ3" t="n">
-        <v>356.541259765625</v>
+        <v>298.3612060546875</v>
       </c>
       <c r="IK3" t="n">
-        <v>356.5288391113281</v>
+        <v>298.4154357910156</v>
       </c>
       <c r="IL3" t="n">
-        <v>356.5209350585938</v>
+        <v>298.5297546386719</v>
       </c>
       <c r="IM3" t="n">
-        <v>356.6215515136719</v>
+        <v>298.6729125976562</v>
       </c>
       <c r="IN3" t="n">
-        <v>354.513427734375</v>
+        <v>298.7702331542969</v>
       </c>
       <c r="IO3" t="n">
-        <v>353.2205200195312</v>
+        <v>298.8728637695312</v>
       </c>
       <c r="IP3" t="n">
-        <v>352.6035766601562</v>
+        <v>298.89599609375</v>
       </c>
       <c r="IQ3" t="n">
-        <v>352.2729187011719</v>
+        <v>298.9053955078125</v>
       </c>
       <c r="IR3" t="n">
-        <v>352.0798034667969</v>
+        <v>298.9208679199219</v>
       </c>
       <c r="IS3" t="n">
-        <v>352.0339050292969</v>
+        <v>298.9306945800781</v>
       </c>
       <c r="IT3" t="n">
-        <v>352.09130859375</v>
+        <v>298.9380187988281</v>
       </c>
       <c r="IU3" t="n">
-        <v>352.1841430664062</v>
+        <v>298.9642944335938</v>
       </c>
       <c r="IV3" t="n">
-        <v>352.3273315429688</v>
+        <v>298.9784851074219</v>
       </c>
       <c r="IW3" t="n">
-        <v>354.4052734375</v>
+        <v>298.9544982910156</v>
       </c>
       <c r="IX3" t="n">
-        <v>355.7051696777344</v>
+        <v>298.9398803710938</v>
       </c>
       <c r="IY3" t="n">
-        <v>357.0587463378906</v>
+        <v>298.9360961914062</v>
       </c>
       <c r="IZ3" t="n">
-        <v>357.5502014160156</v>
+        <v>298.9480285644531</v>
       </c>
       <c r="JA3" t="n">
-        <v>357.7138366699219</v>
+        <v>298.9712829589844</v>
       </c>
       <c r="JB3" t="n">
-        <v>357.6764526367188</v>
+        <v>298.9987182617188</v>
       </c>
       <c r="JC3" t="n">
-        <v>357.6851196289062</v>
+        <v>299.0722351074219</v>
       </c>
       <c r="JD3" t="n">
-        <v>357.9329528808594</v>
+        <v>299.2029113769531</v>
       </c>
       <c r="JE3" t="n">
-        <v>357.9485473632812</v>
+        <v>299.3243103027344</v>
       </c>
       <c r="JF3" t="n">
-        <v>357.8493041992188</v>
+        <v>299.3065490722656</v>
       </c>
       <c r="JG3" t="n">
-        <v>357.7431335449219</v>
+        <v>298.5106811523438</v>
       </c>
       <c r="JH3" t="n">
-        <v>357.6380004882812</v>
+        <v>297.9326477050781</v>
       </c>
       <c r="JI3" t="n">
-        <v>357.5841674804688</v>
+        <v>299.4310302734375</v>
       </c>
       <c r="JJ3" t="n">
-        <v>357.5341186523438</v>
+        <v>297.7779846191406</v>
       </c>
       <c r="JK3" t="n">
-        <v>357.4859313964844</v>
+        <v>295.3063049316406</v>
       </c>
       <c r="JL3" t="n">
-        <v>357.4403076171875</v>
+        <v>294.7810974121094</v>
       </c>
       <c r="JM3" t="n">
-        <v>357.4007873535156</v>
+        <v>294.5321350097656</v>
       </c>
       <c r="JN3" t="n">
-        <v>357.3706665039062</v>
+        <v>294.5084533691406</v>
       </c>
       <c r="JO3" t="n">
-        <v>357.3484191894531</v>
+        <v>294.5088195800781</v>
       </c>
       <c r="JP3" t="n">
-        <v>357.3255615234375</v>
+        <v>294.5269470214844</v>
       </c>
       <c r="JQ3" t="n">
-        <v>357.2627868652344</v>
+        <v>295.5067138671875</v>
       </c>
       <c r="JR3" t="n">
-        <v>357.0967102050781</v>
+        <v>296.8005981445312</v>
       </c>
       <c r="JS3" t="n">
-        <v>355.8944702148438</v>
+        <v>297.9176635742188</v>
       </c>
       <c r="JT3" t="n">
-        <v>353.4613342285156</v>
+        <v>298.2836303710938</v>
       </c>
       <c r="JU3" t="n">
-        <v>352.6722717285156</v>
+        <v>298.6491394042969</v>
       </c>
       <c r="JV3" t="n">
-        <v>352.2691345214844</v>
+        <v>298.768798828125</v>
       </c>
       <c r="JW3" t="n">
-        <v>352.3355407714844</v>
+        <v>298.8161926269531</v>
       </c>
       <c r="JX3" t="n">
-        <v>352.8177490234375</v>
+        <v>298.8517150878906</v>
       </c>
       <c r="JY3" t="n">
-        <v>353.1524963378906</v>
+        <v>298.8857727050781</v>
       </c>
       <c r="JZ3" t="n">
-        <v>355.1911315917969</v>
+        <v>298.8865966796875</v>
       </c>
       <c r="KA3" t="n">
-        <v>356.5594787597656</v>
+        <v>298.8614807128906</v>
       </c>
       <c r="KB3" t="n">
-        <v>357.2503662109375</v>
+        <v>298.8463439941406</v>
       </c>
       <c r="KC3" t="n">
-        <v>357.6037292480469</v>
+        <v>298.9114379882812</v>
       </c>
       <c r="KD3" t="n">
-        <v>358.3561401367188</v>
+        <v>298.9566040039062</v>
       </c>
       <c r="KE3" t="n">
-        <v>358.0098266601562</v>
+        <v>298.9531555175781</v>
       </c>
       <c r="KF3" t="n">
-        <v>357.3948669433594</v>
+        <v>298.88330078125</v>
       </c>
       <c r="KG3" t="n">
-        <v>357.4226989746094</v>
+        <v>298.8381958007812</v>
       </c>
       <c r="KH3" t="n">
-        <v>357.64208984375</v>
+        <v>298.7986755371094</v>
       </c>
       <c r="KI3" t="n">
-        <v>357.7878112792969</v>
+        <v>298.8432312011719</v>
       </c>
       <c r="KJ3" t="n">
-        <v>357.0126647949219</v>
+        <v>299.0052185058594</v>
       </c>
       <c r="KK3" t="n">
-        <v>357.6393127441406</v>
+        <v>299.1226501464844</v>
       </c>
       <c r="KL3" t="n">
-        <v>360.0154113769531</v>
+        <v>299.13671875</v>
       </c>
       <c r="KM3" t="n">
-        <v>363.1224060058594</v>
+        <v>299.0686340332031</v>
       </c>
       <c r="KN3" t="n">
-        <v>366.2758178710938</v>
+        <v>299.0405883789062</v>
       </c>
       <c r="KO3" t="n">
-        <v>362.1289672851562</v>
+        <v>298.8054809570312</v>
       </c>
       <c r="KP3" t="n">
-        <v>361.4049377441406</v>
+        <v>298.0551452636719</v>
       </c>
       <c r="KQ3" t="n">
-        <v>361.1990051269531</v>
+        <v>297.6211547851562</v>
       </c>
       <c r="KR3" t="n">
-        <v>361.8419494628906</v>
+        <v>299.5103149414062</v>
       </c>
       <c r="KS3" t="n">
-        <v>359.8934631347656</v>
+        <v>302.1716003417969</v>
       </c>
       <c r="KT3" t="n">
-        <v>362.1432495117188</v>
+        <v>302.6885681152344</v>
       </c>
       <c r="KU3" t="n">
-        <v>368.9287719726562</v>
+        <v>308.0287170410156</v>
       </c>
       <c r="KV3" t="n">
-        <v>374.9146118164062</v>
+        <v>318.8376770019531</v>
       </c>
       <c r="KW3" t="n">
-        <v>380.580322265625</v>
+        <v>323.9344482421875</v>
       </c>
       <c r="KX3" t="n">
-        <v>382.3318481445312</v>
+        <v>327.6949462890625</v>
       </c>
       <c r="KY3" t="n">
-        <v>381.0709228515625</v>
+        <v>328.4478454589844</v>
       </c>
       <c r="KZ3" t="n">
-        <v>379.8746643066406</v>
+        <v>328.8388366699219</v>
       </c>
       <c r="LA3" t="n">
-        <v>384.3165588378906</v>
+        <v>332.9137878417969</v>
       </c>
       <c r="LB3" t="n">
-        <v>383.1252746582031</v>
+        <v>344.8681335449219</v>
       </c>
       <c r="LC3" t="n">
-        <v>383.7582092285156</v>
+        <v>364.3694458007812</v>
       </c>
       <c r="LD3" t="n">
-        <v>384.7184448242188</v>
+        <v>382.2060546875</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>392.3403015136719</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>405.3553161621094</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>416.0435791015625</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>442.8459777832031</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>486.5218200683594</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>543.232421875</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>584.979736328125</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>657.0142211914062</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>726.4933471679688</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>819.4209594726562</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>828.4005126953125</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>852.2098999023438</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>863.968505859375</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>871.8189086914062</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>868.1404418945312</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>863.0629272460938</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>858.09521484375</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>860.7976684570312</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>884.0897216796875</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>903.279541015625</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>934.6451416015625</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>967.5389404296875</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>975.605712890625</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>962.8416748046875</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>944.2429809570312</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>948.6959838867188</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>948.2637329101562</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>943.0107421875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>970.510009765625</v>
+        <v>793.7060546875</v>
       </c>
       <c r="B4" t="n">
-        <v>946.4408569335938</v>
+        <v>819.375732421875</v>
       </c>
       <c r="C4" t="n">
-        <v>934.3408203125</v>
+        <v>846.9260864257812</v>
       </c>
       <c r="D4" t="n">
-        <v>953.4205932617188</v>
+        <v>877.0751342773438</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.766296386719</v>
+        <v>913.4993286132812</v>
       </c>
       <c r="F4" t="n">
-        <v>1052.478881835938</v>
+        <v>951.2857666015625</v>
       </c>
       <c r="G4" t="n">
-        <v>1092.498046875</v>
+        <v>986.6752319335938</v>
       </c>
       <c r="H4" t="n">
-        <v>1119.999755859375</v>
+        <v>1023.671691894531</v>
       </c>
       <c r="I4" t="n">
-        <v>1139.626098632812</v>
+        <v>1061.788818359375</v>
       </c>
       <c r="J4" t="n">
-        <v>1163.341186523438</v>
+        <v>1096.132568359375</v>
       </c>
       <c r="K4" t="n">
-        <v>1196.029663085938</v>
+        <v>1124.615844726562</v>
       </c>
       <c r="L4" t="n">
-        <v>1233.34912109375</v>
+        <v>1149.086059570312</v>
       </c>
       <c r="M4" t="n">
-        <v>1272.45263671875</v>
+        <v>1172.702514648438</v>
       </c>
       <c r="N4" t="n">
-        <v>1310.568969726562</v>
+        <v>1201.7578125</v>
       </c>
       <c r="O4" t="n">
-        <v>1345.59814453125</v>
+        <v>1229.787475585938</v>
       </c>
       <c r="P4" t="n">
-        <v>1376.88720703125</v>
+        <v>1257.291381835938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1405.45849609375</v>
+        <v>1284.100463867188</v>
       </c>
       <c r="R4" t="n">
-        <v>1431.18115234375</v>
+        <v>1304.6884765625</v>
       </c>
       <c r="S4" t="n">
-        <v>1456.670654296875</v>
+        <v>1329.58544921875</v>
       </c>
       <c r="T4" t="n">
-        <v>1479.281372070312</v>
+        <v>1357.782470703125</v>
       </c>
       <c r="U4" t="n">
-        <v>1503.552856445312</v>
+        <v>1388.187377929688</v>
       </c>
       <c r="V4" t="n">
-        <v>1526.893920898438</v>
+        <v>1419.901611328125</v>
       </c>
       <c r="W4" t="n">
-        <v>1551.64453125</v>
+        <v>1450.490234375</v>
       </c>
       <c r="X4" t="n">
-        <v>1577.468872070312</v>
+        <v>1481.81396484375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1604.670776367188</v>
+        <v>1516.285400390625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1631.615356445312</v>
+        <v>1555.5859375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1659.536010742188</v>
+        <v>1598.829711914062</v>
       </c>
       <c r="AB4" t="n">
-        <v>1688.890380859375</v>
+        <v>1641.289794921875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1719.114135742188</v>
+        <v>1682.603637695312</v>
       </c>
       <c r="AD4" t="n">
-        <v>1754.581298828125</v>
+        <v>1717.932983398438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1788.864624023438</v>
+        <v>1745.842041015625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1814.783447265625</v>
+        <v>1772.66455078125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1835.394653320312</v>
+        <v>1796.816284179688</v>
       </c>
       <c r="AH4" t="n">
-        <v>1852.573608398438</v>
+        <v>1818.029052734375</v>
       </c>
       <c r="AI4" t="n">
-        <v>1868.201904296875</v>
+        <v>1835.109375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1887.434448242188</v>
+        <v>1849.4912109375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1900.438598632812</v>
+        <v>1871.308471679688</v>
       </c>
       <c r="AL4" t="n">
-        <v>1911.904174804688</v>
+        <v>1899.44091796875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1922.841796875</v>
+        <v>1923.917602539062</v>
       </c>
       <c r="AN4" t="n">
-        <v>1931.110229492188</v>
+        <v>1943.369018554688</v>
       </c>
       <c r="AO4" t="n">
-        <v>1940.932739257812</v>
+        <v>1955.426513671875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1949.791748046875</v>
+        <v>1966.173828125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1955.78759765625</v>
+        <v>1984.449096679688</v>
       </c>
       <c r="AR4" t="n">
-        <v>1958.933471679688</v>
+        <v>2007.621948242188</v>
       </c>
       <c r="AS4" t="n">
-        <v>1961.439086914062</v>
+        <v>2032.2646484375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1964.068115234375</v>
+        <v>2056.7158203125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1967.48291015625</v>
+        <v>2080.829345703125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1971.572875976562</v>
+        <v>2095.735107421875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1977.122436523438</v>
+        <v>2105.592041015625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1979.9951171875</v>
+        <v>2119.05029296875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1982.908447265625</v>
+        <v>2133.927001953125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1987.143920898438</v>
+        <v>2153.630615234375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1990.0732421875</v>
+        <v>2168.754150390625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1993.616455078125</v>
+        <v>2178.579833984375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1999.3984375</v>
+        <v>2189.226806640625</v>
       </c>
       <c r="BD4" t="n">
-        <v>2004.214965820312</v>
+        <v>2200.301513671875</v>
       </c>
       <c r="BE4" t="n">
-        <v>2008.055053710938</v>
+        <v>2212.6044921875</v>
       </c>
       <c r="BF4" t="n">
-        <v>2010.232543945312</v>
+        <v>2222.318115234375</v>
       </c>
       <c r="BG4" t="n">
-        <v>2011.453125</v>
+        <v>2233.479736328125</v>
       </c>
       <c r="BH4" t="n">
-        <v>2012.136352539062</v>
+        <v>2240.789794921875</v>
       </c>
       <c r="BI4" t="n">
-        <v>2012.628051757812</v>
+        <v>2245.269287109375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2013.156372070312</v>
+        <v>2250.53662109375</v>
       </c>
       <c r="BK4" t="n">
-        <v>2013.811279296875</v>
+        <v>2254.21484375</v>
       </c>
       <c r="BL4" t="n">
-        <v>2014.71435546875</v>
+        <v>2259.169189453125</v>
       </c>
       <c r="BM4" t="n">
-        <v>2015.671875</v>
+        <v>2264.4580078125</v>
       </c>
       <c r="BN4" t="n">
-        <v>2016.398193359375</v>
+        <v>2268.91845703125</v>
       </c>
       <c r="BO4" t="n">
-        <v>2017.14306640625</v>
+        <v>2273.70361328125</v>
       </c>
       <c r="BP4" t="n">
-        <v>2018.051635742188</v>
+        <v>2276.554443359375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2018.215087890625</v>
+        <v>2278.270263671875</v>
       </c>
       <c r="BR4" t="n">
-        <v>2018.245849609375</v>
+        <v>2279.87060546875</v>
       </c>
       <c r="BS4" t="n">
-        <v>2018.2138671875</v>
+        <v>2280.063232421875</v>
       </c>
       <c r="BT4" t="n">
-        <v>2018.219604492188</v>
+        <v>2280.00439453125</v>
       </c>
       <c r="BU4" t="n">
-        <v>2018.15087890625</v>
+        <v>2279.97802734375</v>
       </c>
       <c r="BV4" t="n">
-        <v>2018.046630859375</v>
+        <v>2280.09228515625</v>
       </c>
       <c r="BW4" t="n">
-        <v>2017.942260742188</v>
+        <v>2280.2646484375</v>
       </c>
       <c r="BX4" t="n">
-        <v>2017.271484375</v>
+        <v>2280.724365234375</v>
       </c>
       <c r="BY4" t="n">
-        <v>2015.765625</v>
+        <v>2281.267578125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2013.80029296875</v>
+        <v>2281.5400390625</v>
       </c>
       <c r="CA4" t="n">
-        <v>2007.126586914062</v>
+        <v>2281.532470703125</v>
       </c>
       <c r="CB4" t="n">
-        <v>2005.3984375</v>
+        <v>2281.440673828125</v>
       </c>
       <c r="CC4" t="n">
-        <v>2004.578735351562</v>
+        <v>2280.3623046875</v>
       </c>
       <c r="CD4" t="n">
-        <v>2003.849365234375</v>
+        <v>2276.86181640625</v>
       </c>
       <c r="CE4" t="n">
-        <v>2003.087646484375</v>
+        <v>2274.755126953125</v>
       </c>
       <c r="CF4" t="n">
-        <v>2002.64453125</v>
+        <v>2272.0927734375</v>
       </c>
       <c r="CG4" t="n">
-        <v>2002.419555664062</v>
+        <v>2268.839599609375</v>
       </c>
       <c r="CH4" t="n">
-        <v>2002.237060546875</v>
+        <v>2264.671875</v>
       </c>
       <c r="CI4" t="n">
-        <v>2002.250732421875</v>
+        <v>2263.9375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2002.319213867188</v>
+        <v>2263.4609375</v>
       </c>
       <c r="CK4" t="n">
-        <v>2002.45458984375</v>
+        <v>2263.43408203125</v>
       </c>
       <c r="CL4" t="n">
-        <v>2002.546264648438</v>
+        <v>2263.533935546875</v>
       </c>
       <c r="CM4" t="n">
-        <v>2002.6494140625</v>
+        <v>2263.623779296875</v>
       </c>
       <c r="CN4" t="n">
-        <v>2002.71337890625</v>
+        <v>2263.7236328125</v>
       </c>
       <c r="CO4" t="n">
-        <v>2002.847778320312</v>
+        <v>2263.751220703125</v>
       </c>
       <c r="CP4" t="n">
-        <v>2002.910034179688</v>
+        <v>2263.804931640625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2002.935791015625</v>
+        <v>2263.837646484375</v>
       </c>
       <c r="CR4" t="n">
-        <v>2002.978515625</v>
+        <v>2263.821044921875</v>
       </c>
       <c r="CS4" t="n">
-        <v>2003.41064453125</v>
+        <v>2263.722900390625</v>
       </c>
       <c r="CT4" t="n">
-        <v>2004.061767578125</v>
+        <v>2263.73681640625</v>
       </c>
       <c r="CU4" t="n">
-        <v>2005.741577148438</v>
+        <v>2263.790771484375</v>
       </c>
       <c r="CV4" t="n">
-        <v>2005.48486328125</v>
+        <v>2263.829345703125</v>
       </c>
       <c r="CW4" t="n">
-        <v>2005.449829101562</v>
+        <v>2263.9072265625</v>
       </c>
       <c r="CX4" t="n">
-        <v>2006.42333984375</v>
+        <v>2263.943115234375</v>
       </c>
       <c r="CY4" t="n">
-        <v>2007.104370117188</v>
+        <v>2263.99609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2007.712036132812</v>
+        <v>2264.26171875</v>
       </c>
       <c r="DA4" t="n">
-        <v>2008.104248046875</v>
+        <v>2264.451171875</v>
       </c>
       <c r="DB4" t="n">
-        <v>2008.14990234375</v>
+        <v>2264.873046875</v>
       </c>
       <c r="DC4" t="n">
-        <v>2008.106323242188</v>
+        <v>2265.077880859375</v>
       </c>
       <c r="DD4" t="n">
-        <v>2008.117431640625</v>
+        <v>2265.64111328125</v>
       </c>
       <c r="DE4" t="n">
-        <v>2008.063110351562</v>
+        <v>2266.089599609375</v>
       </c>
       <c r="DF4" t="n">
-        <v>2007.898193359375</v>
+        <v>2266.62109375</v>
       </c>
       <c r="DG4" t="n">
-        <v>2007.691284179688</v>
+        <v>2268.0361328125</v>
       </c>
       <c r="DH4" t="n">
-        <v>2007.486083984375</v>
+        <v>2269.26220703125</v>
       </c>
       <c r="DI4" t="n">
-        <v>2007.295654296875</v>
+        <v>2271.599365234375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2007.103759765625</v>
+        <v>2272.637939453125</v>
       </c>
       <c r="DK4" t="n">
-        <v>2005.477416992188</v>
+        <v>2274.8759765625</v>
       </c>
       <c r="DL4" t="n">
-        <v>2003.930053710938</v>
+        <v>2275.47314453125</v>
       </c>
       <c r="DM4" t="n">
-        <v>2003.902709960938</v>
+        <v>2275.928955078125</v>
       </c>
       <c r="DN4" t="n">
-        <v>2003.230834960938</v>
+        <v>2275.8427734375</v>
       </c>
       <c r="DO4" t="n">
-        <v>2002.49609375</v>
+        <v>2275.777587890625</v>
       </c>
       <c r="DP4" t="n">
-        <v>2001.0517578125</v>
+        <v>2275.711181640625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1999.794067382812</v>
+        <v>2275.642578125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1998.779174804688</v>
+        <v>2275.622314453125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1999.069213867188</v>
+        <v>2275.6103515625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1999.551391601562</v>
+        <v>2275.609619140625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1999.63818359375</v>
+        <v>2275.609130859375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1999.127685546875</v>
+        <v>2275.607666015625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1998.958251953125</v>
+        <v>2275.6064453125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1998.836791992188</v>
+        <v>2275.6064453125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1998.582275390625</v>
+        <v>2275.606201171875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1998.4716796875</v>
+        <v>2275.605712890625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1998.312622070312</v>
+        <v>2275.60595703125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1998.305297851562</v>
+        <v>2276.244384765625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1998.311889648438</v>
+        <v>2276.28125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1998.323974609375</v>
+        <v>2276.262451171875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1998.306884765625</v>
+        <v>2276.2138671875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1998.199829101562</v>
+        <v>2276.19482421875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1998.100219726562</v>
+        <v>2276.0283203125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1998.0009765625</v>
+        <v>2275.7177734375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1997.804931640625</v>
+        <v>2275.4736328125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1997.768310546875</v>
+        <v>2275.287109375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1997.755493164062</v>
+        <v>2275.21142578125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1997.756225585938</v>
+        <v>2274.05859375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1997.624145507812</v>
+        <v>2273.072998046875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1997.14111328125</v>
+        <v>2273.197998046875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1997.162963867188</v>
+        <v>2273.46240234375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1998.29833984375</v>
+        <v>2273.561767578125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1999.727661132812</v>
+        <v>2273.59130859375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1999.61474609375</v>
+        <v>2273.630859375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1999.140502929688</v>
+        <v>2273.63671875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1997.8876953125</v>
+        <v>2273.5693359375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1997.176147460938</v>
+        <v>2273.473388671875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1996.474975585938</v>
+        <v>2273.127685546875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1995.013305664062</v>
+        <v>2272.887939453125</v>
       </c>
       <c r="EX4" t="n">
-        <v>1993.638549804688</v>
+        <v>2272.6337890625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1993.9873046875</v>
+        <v>2272.48046875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1994.457641601562</v>
+        <v>2272.361083984375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1993.124145507812</v>
+        <v>2272.632080078125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1992.954223632812</v>
+        <v>2272.8056640625</v>
       </c>
       <c r="FC4" t="n">
-        <v>1993.120727539062</v>
+        <v>2272.908203125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1994.087890625</v>
+        <v>2272.954833984375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1994.729736328125</v>
+        <v>2273.028564453125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1994.807373046875</v>
+        <v>2273.14599609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1994.61865234375</v>
+        <v>2273.0517578125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1994.361328125</v>
+        <v>2273.104248046875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1994.097412109375</v>
+        <v>2273.395263671875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1994.005615234375</v>
+        <v>2273.604248046875</v>
       </c>
       <c r="FK4" t="n">
-        <v>1993.998657226562</v>
+        <v>2273.34912109375</v>
       </c>
       <c r="FL4" t="n">
-        <v>1994.050415039062</v>
+        <v>2273.066162109375</v>
       </c>
       <c r="FM4" t="n">
-        <v>1994.104248046875</v>
+        <v>2272.87451171875</v>
       </c>
       <c r="FN4" t="n">
-        <v>1994.195434570312</v>
+        <v>2272.761962890625</v>
       </c>
       <c r="FO4" t="n">
-        <v>1994.2392578125</v>
+        <v>2272.72314453125</v>
       </c>
       <c r="FP4" t="n">
-        <v>1994.396728515625</v>
+        <v>2272.693603515625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1994.479370117188</v>
+        <v>2272.68212890625</v>
       </c>
       <c r="FR4" t="n">
-        <v>1994.599975585938</v>
+        <v>2272.693603515625</v>
       </c>
       <c r="FS4" t="n">
-        <v>1994.636962890625</v>
+        <v>2272.709716796875</v>
       </c>
       <c r="FT4" t="n">
-        <v>1994.763427734375</v>
+        <v>2272.762451171875</v>
       </c>
       <c r="FU4" t="n">
-        <v>1995.026977539062</v>
+        <v>2274.271728515625</v>
       </c>
       <c r="FV4" t="n">
-        <v>1995.165405273438</v>
+        <v>2274.792724609375</v>
       </c>
       <c r="FW4" t="n">
-        <v>1995.363891601562</v>
+        <v>2274.287841796875</v>
       </c>
       <c r="FX4" t="n">
-        <v>1995.4345703125</v>
+        <v>2272.837158203125</v>
       </c>
       <c r="FY4" t="n">
-        <v>1997.524658203125</v>
+        <v>2272.06787109375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1998.65966796875</v>
+        <v>2272.14599609375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2000.328369140625</v>
+        <v>2272.28466796875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2000.515258789062</v>
+        <v>2272.324951171875</v>
       </c>
       <c r="GC4" t="n">
-        <v>2000.565795898438</v>
+        <v>2272.371826171875</v>
       </c>
       <c r="GD4" t="n">
-        <v>1999.401733398438</v>
+        <v>2272.443359375</v>
       </c>
       <c r="GE4" t="n">
-        <v>1996.587280273438</v>
+        <v>2272.477294921875</v>
       </c>
       <c r="GF4" t="n">
-        <v>1995.972412109375</v>
+        <v>2274.010986328125</v>
       </c>
       <c r="GG4" t="n">
-        <v>1994.721557617188</v>
+        <v>2275.676513671875</v>
       </c>
       <c r="GH4" t="n">
-        <v>1990.944580078125</v>
+        <v>2276.46484375</v>
       </c>
       <c r="GI4" t="n">
-        <v>1989.820068359375</v>
+        <v>2277.4052734375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1989.805053710938</v>
+        <v>2278.18017578125</v>
       </c>
       <c r="GK4" t="n">
-        <v>1989.408203125</v>
+        <v>2279.099365234375</v>
       </c>
       <c r="GL4" t="n">
-        <v>1990.356811523438</v>
+        <v>2279.49853515625</v>
       </c>
       <c r="GM4" t="n">
-        <v>1999.136840820312</v>
+        <v>2279.43017578125</v>
       </c>
       <c r="GN4" t="n">
-        <v>2000.983032226562</v>
+        <v>2279.18408203125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2001.407104492188</v>
+        <v>2279.113037109375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2000.854125976562</v>
+        <v>2279.0458984375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2000.0634765625</v>
+        <v>2279.00341796875</v>
       </c>
       <c r="GR4" t="n">
-        <v>1999.755493164062</v>
+        <v>2278.991455078125</v>
       </c>
       <c r="GS4" t="n">
-        <v>1998.6240234375</v>
+        <v>2279.2822265625</v>
       </c>
       <c r="GT4" t="n">
-        <v>1996.21142578125</v>
+        <v>2279.552490234375</v>
       </c>
       <c r="GU4" t="n">
-        <v>1994.184448242188</v>
+        <v>2279.775146484375</v>
       </c>
       <c r="GV4" t="n">
-        <v>1992.828125</v>
+        <v>2279.8701171875</v>
       </c>
       <c r="GW4" t="n">
-        <v>1992.745971679688</v>
+        <v>2280.6064453125</v>
       </c>
       <c r="GX4" t="n">
-        <v>1992.907958984375</v>
+        <v>2281.681640625</v>
       </c>
       <c r="GY4" t="n">
-        <v>1993.07861328125</v>
+        <v>2282.052490234375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1993.195190429688</v>
+        <v>2282.02978515625</v>
       </c>
       <c r="HA4" t="n">
-        <v>1993.298095703125</v>
+        <v>2281.986083984375</v>
       </c>
       <c r="HB4" t="n">
-        <v>1993.349731445312</v>
+        <v>2281.984619140625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1993.438110351562</v>
+        <v>2281.985595703125</v>
       </c>
       <c r="HD4" t="n">
-        <v>1993.47607421875</v>
+        <v>2281.986328125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1993.469116210938</v>
+        <v>2281.994140625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1993.65869140625</v>
+        <v>2281.998046875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1994.304443359375</v>
+        <v>2282.00341796875</v>
       </c>
       <c r="HH4" t="n">
-        <v>1994.203002929688</v>
+        <v>2282.01806640625</v>
       </c>
       <c r="HI4" t="n">
-        <v>1993.096557617188</v>
+        <v>2282.024658203125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1991.736938476562</v>
+        <v>2282.02880859375</v>
       </c>
       <c r="HK4" t="n">
-        <v>1990.70361328125</v>
+        <v>2282.45263671875</v>
       </c>
       <c r="HL4" t="n">
-        <v>1989.372924804688</v>
+        <v>2282.733154296875</v>
       </c>
       <c r="HM4" t="n">
-        <v>1988.68212890625</v>
+        <v>2282.978759765625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1988.10888671875</v>
+        <v>2283.3154296875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1987.965942382812</v>
+        <v>2283.681640625</v>
       </c>
       <c r="HP4" t="n">
-        <v>1988.000244140625</v>
+        <v>2283.724609375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1988.215454101562</v>
+        <v>2283.779296875</v>
       </c>
       <c r="HR4" t="n">
-        <v>1988.2919921875</v>
+        <v>2283.802001953125</v>
       </c>
       <c r="HS4" t="n">
-        <v>1989.34521484375</v>
+        <v>2282.972900390625</v>
       </c>
       <c r="HT4" t="n">
-        <v>1995.436645507812</v>
+        <v>2282.907958984375</v>
       </c>
       <c r="HU4" t="n">
-        <v>1999.666870117188</v>
+        <v>2282.6591796875</v>
       </c>
       <c r="HV4" t="n">
-        <v>2000.032470703125</v>
+        <v>2284.423828125</v>
       </c>
       <c r="HW4" t="n">
-        <v>1999.80078125</v>
+        <v>2286.0517578125</v>
       </c>
       <c r="HX4" t="n">
-        <v>1999.130249023438</v>
+        <v>2286.1484375</v>
       </c>
       <c r="HY4" t="n">
-        <v>1997.271850585938</v>
+        <v>2286.59423828125</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1995.225219726562</v>
+        <v>2286.60791015625</v>
       </c>
       <c r="IA4" t="n">
-        <v>1992.979858398438</v>
+        <v>2286.58544921875</v>
       </c>
       <c r="IB4" t="n">
-        <v>1992.604125976562</v>
+        <v>2285.9892578125</v>
       </c>
       <c r="IC4" t="n">
-        <v>1991.996459960938</v>
+        <v>2285.7119140625</v>
       </c>
       <c r="ID4" t="n">
-        <v>1992.241943359375</v>
+        <v>2286.319580078125</v>
       </c>
       <c r="IE4" t="n">
-        <v>1992.497436523438</v>
+        <v>2286.115966796875</v>
       </c>
       <c r="IF4" t="n">
-        <v>1992.763916015625</v>
+        <v>2285.939208984375</v>
       </c>
       <c r="IG4" t="n">
-        <v>1993.041870117188</v>
+        <v>2285.8798828125</v>
       </c>
       <c r="IH4" t="n">
-        <v>1993.428833007812</v>
+        <v>2285.74072265625</v>
       </c>
       <c r="II4" t="n">
-        <v>1993.7099609375</v>
+        <v>2285.41943359375</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1993.740234375</v>
+        <v>2285.135498046875</v>
       </c>
       <c r="IK4" t="n">
-        <v>1993.75537109375</v>
+        <v>2284.449951171875</v>
       </c>
       <c r="IL4" t="n">
-        <v>1993.762329101562</v>
+        <v>2283.433349609375</v>
       </c>
       <c r="IM4" t="n">
-        <v>1990.4873046875</v>
+        <v>2281.891845703125</v>
       </c>
       <c r="IN4" t="n">
-        <v>1987.711181640625</v>
+        <v>2281.0576171875</v>
       </c>
       <c r="IO4" t="n">
-        <v>1983.215087890625</v>
+        <v>2279.42431640625</v>
       </c>
       <c r="IP4" t="n">
-        <v>1982.154418945312</v>
+        <v>2278.80615234375</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1982.51123046875</v>
+        <v>2278.472900390625</v>
       </c>
       <c r="IR4" t="n">
-        <v>1982.875244140625</v>
+        <v>2277.85107421875</v>
       </c>
       <c r="IS4" t="n">
-        <v>1983.273681640625</v>
+        <v>2277.57666015625</v>
       </c>
       <c r="IT4" t="n">
-        <v>1983.777099609375</v>
+        <v>2277.643310546875</v>
       </c>
       <c r="IU4" t="n">
-        <v>1984.162353515625</v>
+        <v>2277.66650390625</v>
       </c>
       <c r="IV4" t="n">
-        <v>1984.710327148438</v>
+        <v>2277.682861328125</v>
       </c>
       <c r="IW4" t="n">
-        <v>1983.3046875</v>
+        <v>2277.718994140625</v>
       </c>
       <c r="IX4" t="n">
-        <v>1984.088745117188</v>
+        <v>2277.724853515625</v>
       </c>
       <c r="IY4" t="n">
-        <v>1986.531005859375</v>
+        <v>2277.724609375</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1989.81689453125</v>
+        <v>2277.73193359375</v>
       </c>
       <c r="JA4" t="n">
-        <v>1990.434326171875</v>
+        <v>2277.7314453125</v>
       </c>
       <c r="JB4" t="n">
-        <v>1989.4970703125</v>
+        <v>2277.72802734375</v>
       </c>
       <c r="JC4" t="n">
-        <v>1988.413940429688</v>
+        <v>2277.71826171875</v>
       </c>
       <c r="JD4" t="n">
-        <v>1987.089965820312</v>
+        <v>2276.047119140625</v>
       </c>
       <c r="JE4" t="n">
-        <v>1986.244140625</v>
+        <v>2274.96484375</v>
       </c>
       <c r="JF4" t="n">
-        <v>1986.09814453125</v>
+        <v>2275.20458984375</v>
       </c>
       <c r="JG4" t="n">
-        <v>1986.181884765625</v>
+        <v>2277.31982421875</v>
       </c>
       <c r="JH4" t="n">
-        <v>1986.263061523438</v>
+        <v>2277.739990234375</v>
       </c>
       <c r="JI4" t="n">
-        <v>1986.234619140625</v>
+        <v>2277.257568359375</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1986.339599609375</v>
+        <v>2277.322021484375</v>
       </c>
       <c r="JK4" t="n">
-        <v>1986.448608398438</v>
+        <v>2277.240478515625</v>
       </c>
       <c r="JL4" t="n">
-        <v>1986.557983398438</v>
+        <v>2277.241943359375</v>
       </c>
       <c r="JM4" t="n">
-        <v>1986.6591796875</v>
+        <v>2277.254150390625</v>
       </c>
       <c r="JN4" t="n">
-        <v>1986.753051757812</v>
+        <v>2277.20703125</v>
       </c>
       <c r="JO4" t="n">
-        <v>1986.843017578125</v>
+        <v>2277.15869140625</v>
       </c>
       <c r="JP4" t="n">
-        <v>1986.93896484375</v>
+        <v>2276.994873046875</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1986.790161132812</v>
+        <v>2275.80419921875</v>
       </c>
       <c r="JR4" t="n">
-        <v>1985.165283203125</v>
+        <v>2273.227783203125</v>
       </c>
       <c r="JS4" t="n">
-        <v>1985.33935546875</v>
+        <v>2267.80517578125</v>
       </c>
       <c r="JT4" t="n">
-        <v>1981.6455078125</v>
+        <v>2267.260498046875</v>
       </c>
       <c r="JU4" t="n">
-        <v>1980.19677734375</v>
+        <v>2267.660400390625</v>
       </c>
       <c r="JV4" t="n">
-        <v>1980.204956054688</v>
+        <v>2268.29931640625</v>
       </c>
       <c r="JW4" t="n">
-        <v>1979.309204101562</v>
+        <v>2268.734619140625</v>
       </c>
       <c r="JX4" t="n">
-        <v>1975.552734375</v>
+        <v>2269.262451171875</v>
       </c>
       <c r="JY4" t="n">
-        <v>1967.831420898438</v>
+        <v>2270.173095703125</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1952.887084960938</v>
+        <v>2270.90234375</v>
       </c>
       <c r="KA4" t="n">
-        <v>1940.493408203125</v>
+        <v>2271.49462890625</v>
       </c>
       <c r="KB4" t="n">
-        <v>1937.86865234375</v>
+        <v>2271.67822265625</v>
       </c>
       <c r="KC4" t="n">
-        <v>1935.600830078125</v>
+        <v>2271.77587890625</v>
       </c>
       <c r="KD4" t="n">
-        <v>1929.086303710938</v>
+        <v>2271.876220703125</v>
       </c>
       <c r="KE4" t="n">
-        <v>1927.887451171875</v>
+        <v>2272.3076171875</v>
       </c>
       <c r="KF4" t="n">
-        <v>1929.278198242188</v>
+        <v>2272.67138671875</v>
       </c>
       <c r="KG4" t="n">
-        <v>1927.010375976562</v>
+        <v>2272.72900390625</v>
       </c>
       <c r="KH4" t="n">
-        <v>1909.229858398438</v>
+        <v>2272.7509765625</v>
       </c>
       <c r="KI4" t="n">
-        <v>1882.190063476562</v>
+        <v>2270.122802734375</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1855.639526367188</v>
+        <v>2263.751953125</v>
       </c>
       <c r="KK4" t="n">
-        <v>1819.935302734375</v>
+        <v>2262.712890625</v>
       </c>
       <c r="KL4" t="n">
-        <v>1771.3212890625</v>
+        <v>2264.23974609375</v>
       </c>
       <c r="KM4" t="n">
-        <v>1718.386962890625</v>
+        <v>2266.76171875</v>
       </c>
       <c r="KN4" t="n">
-        <v>1651.814697265625</v>
+        <v>2267.41552734375</v>
       </c>
       <c r="KO4" t="n">
-        <v>1551.82470703125</v>
+        <v>2267.779541015625</v>
       </c>
       <c r="KP4" t="n">
-        <v>1493.08935546875</v>
+        <v>2268.89599609375</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1447.293823242188</v>
+        <v>2262.21484375</v>
       </c>
       <c r="KR4" t="n">
-        <v>1403.426147460938</v>
+        <v>2198.93212890625</v>
       </c>
       <c r="KS4" t="n">
-        <v>1341.870361328125</v>
+        <v>2144.74609375</v>
       </c>
       <c r="KT4" t="n">
-        <v>1293.522827148438</v>
+        <v>2103.848876953125</v>
       </c>
       <c r="KU4" t="n">
-        <v>1216.490966796875</v>
+        <v>2047.1884765625</v>
       </c>
       <c r="KV4" t="n">
-        <v>1162.426147460938</v>
+        <v>1930.259033203125</v>
       </c>
       <c r="KW4" t="n">
-        <v>1112.645629882812</v>
+        <v>1850.018798828125</v>
       </c>
       <c r="KX4" t="n">
-        <v>1059.778564453125</v>
+        <v>1719.560791015625</v>
       </c>
       <c r="KY4" t="n">
-        <v>1031.177001953125</v>
+        <v>1644.20263671875</v>
       </c>
       <c r="KZ4" t="n">
-        <v>1003.953674316406</v>
+        <v>1539.098876953125</v>
       </c>
       <c r="LA4" t="n">
-        <v>962.7469482421875</v>
+        <v>1435.838623046875</v>
       </c>
       <c r="LB4" t="n">
-        <v>945.269287109375</v>
+        <v>1325.924926757812</v>
       </c>
       <c r="LC4" t="n">
-        <v>929.0590209960938</v>
+        <v>1193.044921875</v>
       </c>
       <c r="LD4" t="n">
-        <v>912.2532958984375</v>
+        <v>1049.484985351562</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>941.9784545898438</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>848.340087890625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>792.0390014648438</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>699.6121826171875</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>606.32275390625</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>515.8299560546875</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>477.6091918945312</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>422.8150329589844</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>384.1310424804688</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>290.2211303710938</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>265.4583129882812</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>261.0921630859375</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>261.5479125976562</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>254.1710662841797</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>253.5164031982422</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>253.7180938720703</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>253.4281921386719</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>249.7736511230469</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>236.6694488525391</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>229.6445617675781</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>219.7598724365234</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>208.7381286621094</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>218.4949340820312</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>229.6773986816406</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>236.4399108886719</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>236.5792694091797</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>237.6750640869141</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>239.5833740234375</v>
       </c>
     </row>
   </sheetData>
